--- a/news_data/2017_09.xlsx
+++ b/news_data/2017_09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="90">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,6 +22,108 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>제주도 관광호텔 개장식</t>
+  </si>
+  <si>
+    <t>가을 제주도 여행, 서귀포 중문 관광 후 흑돼지 맛집까지 힐링 코스</t>
+  </si>
+  <si>
+    <t>'말 산업 특구' 제주도 "10월은 말 문화 관광의 달" 선포</t>
+  </si>
+  <si>
+    <t>제주도, 오라관광단지 개발사업 자본검증 의견수렴 착수</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 추석 맞이 사랑나눔 위문품 전달</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 표선, 맛집과 관광의 절묘한 조화</t>
+  </si>
+  <si>
+    <t>제주도관광협회 고승철 부회장, 국무총리표창 수상</t>
+  </si>
+  <si>
+    <t>제주도 관광협회, 국내 최초 'PGA'골프대회 맞이 '붐 업 이벤트' 운영</t>
+  </si>
+  <si>
+    <t>제주도, 추석 연휴 10일간 관광객 등 51만명 찾을 듯</t>
+  </si>
+  <si>
+    <t>제주도, 추석 연휴 관광객 52만 예상...종합상황실 운영</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 말레이시아와 네트워크 구축 추진</t>
+  </si>
+  <si>
+    <t>[로컬 브리핑] 제주도·제주관광공사, 대학생 등 대상 크루즈산업 교육</t>
+  </si>
+  <si>
+    <t>제주도, 소수 언어권 관광통역안내사 교육생 모집</t>
+  </si>
+  <si>
+    <t>[황금연휴 추천 관광지] 10월에 제주도 아이와 함께 가볼 만한 곳⑨ 바람을 기...</t>
+  </si>
+  <si>
+    <t>[황금연휴 추천 관광지] 10월에 제주도 아이와 함께 가볼 만한 곳②'책과 함께...</t>
+  </si>
+  <si>
+    <t>제주도 서부권 여행코스 '유리의성', 곶자왈 숲길 체험 가능한 가족여행객 선...</t>
+  </si>
+  <si>
+    <t>[황금연휴 추천 관광지] 10월에 제주도 아이와 함께 가볼 만한 곳⑧ 욜로족의...</t>
+  </si>
+  <si>
+    <t>[황금연휴 추천 관광지] 10월에 제주도 아이와 함께 가볼 만한 곳③ 드라이브...</t>
+  </si>
+  <si>
+    <t>[황금연휴 추천 관광지] 10월에 제주도 아이와 함께 가볼 만한 곳⑤ 나를 위한...</t>
+  </si>
+  <si>
+    <t>[황금연휴 추천 관광지] 10월에 제주도 아이와 함께 가볼 만한 곳⑥바람에 실...</t>
+  </si>
+  <si>
+    <t>[황금연휴 추천 관광지] 10월에 제주도 아이와 함께 가볼 만한 곳⑦ '중문진실...</t>
+  </si>
+  <si>
+    <t>제주도관광협회 홍보관, 부산국제관광전 '최우수'</t>
+  </si>
+  <si>
+    <t>제주관광공사 사장에 박홍배 前 제주도 국장 내정</t>
+  </si>
+  <si>
+    <t>[황금연휴 추천 관광지] 10월에 제주도 아이와 함께 가볼 만한 곳⑩제주의 청...</t>
+  </si>
+  <si>
+    <t>[황금연휴 추천 관광지] 10월에 제주도 아이와 함께 가볼 만한 곳④ 효리네 민...</t>
+  </si>
+  <si>
+    <t>제주도렌트카협동조합, 제주관광공사와 업무협약…중문 면세점 최대 15%할인 ...</t>
+  </si>
+  <si>
+    <t>[그시절] 1963년 제주도관광호텔 개장식</t>
+  </si>
+  <si>
+    <t>[황금연휴 추천 관광지] 가을에 제주도 가볼 만한 곳①'오조리(쌍월) ·송당마...</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 관광시장 트렌드 맞춘 SNS마케팅 교육</t>
+  </si>
+  <si>
+    <t>제주도, 관광정책 논의 유관기관 합동워크숍 개최</t>
+  </si>
+  <si>
+    <t>요우커 빈자리 내국인이 메운다... 올 추석 제주도 관광객 52만명 예상</t>
+  </si>
+  <si>
+    <t>[포토] 제주도관광협회, 추석연휴 대비 올레길 환경정화</t>
+  </si>
+  <si>
+    <t>中 사드 갈등 장기화,제주도 중국인 관광객 150만 명 감소</t>
+  </si>
+  <si>
+    <t>제주도 성산일출봉 관광 후 찾는 맛집 ‘성산가든’에서 흑돼지생고기 판매 실...</t>
+  </si>
+  <si>
     <t>제주도, 이색종목 스포츠대회 유치 스포츠관광 확대역할 '톡톡'</t>
   </si>
   <si>
@@ -37,12 +139,12 @@
     <t>제주도 가을여행! 서귀포 중문 관광 후 흑돼지 맛집 돈가득 탐방까지</t>
   </si>
   <si>
+    <t>[로컬 브리핑] 제주도평생교육진흥원, 제주관광 아카데미 운영</t>
+  </si>
+  <si>
     <t>제주도관광협회 국제관광전 최우수 홍보상</t>
   </si>
   <si>
-    <t>[로컬 브리핑] 제주도평생교육진흥원, 제주관광 아카데미 운영</t>
-  </si>
-  <si>
     <t>[9월에 제주도 가볼만한 곳] 관광과 힐링여행을 동시에 '서귀포 교래자연 휴양...</t>
   </si>
   <si>
@@ -52,34 +154,136 @@
     <t>제주도 각종 개발호재와 관광산업 추진, ‘제주신항 코아루 디펠리체’ 기대 ...</t>
   </si>
   <si>
-    <t>제주도, 이색종목 스포츠대회 유치 스포츠관광 확대역할 '톡톡' &lt; 스포츠 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 [급등주]에이디테크놀로지 주가 상승, 반도체 대전서 ADP 로드맵 선보인다 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 [급등주] SK네트웍스우 상승, 자사주 취득 공시 영향받나 [급등주]오픈엣지테크놀로지 주가, 상장 후 부진 만회하나 '22% 급등' [급등주] KR모터스 상승, 서울시 대기질 개선 대책 발표 [급등주]라닉스 주가 29% 상한가, 자율주행 관련주 각광 [특징주] 국전약품 주가 하락 '샤페론 수혜 끝났나' 2022-10-04 10:14 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 이색종목 스포츠대회 유치 스포츠관광 확대역할 '톡톡' 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 스포츠 제주도, 이색종목 스포츠대회 유치 스포츠관광 확대역할 '톡톡' 기자명 고병수 기자 입력 2017.09.07 13:33 수정 2017.09.07 13:34 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 스포츠저변 확대...론볼, 파크골프, 플로어볼 등 이색스포츠 다변화 바람 (제주=국제뉴스) 고병수 기자 = 제주도에 론볼, 파크골프, 플로어볼 등 이색종목 스포츠대회 유치로 스포츠관광 확대에 대한 효과를 톡톡히 보고 있다.7일 제주도에 따르면 론볼, 파크골프, 플로어볼 등 일반인에게는 생소한 이색 스포츠 대회가 제주에서 연이어 개최돼 제주 생활체육의 다변화에도 큰 역할을 하고 있다고 밝혔다.이런 이색 스포츠 대회의 제주유치는 스포츠인의 화합은 물론 건강과 스포츠에 대한 관심을 고조시키고 지역경제에도 적지 않은 도움을 주고 있다는 것.지난 8월 22일부터 24일까지 한림읍 론볼경기장에서 전국 15개 시·도 선수단 300여명이 참가했다.이어 8월 27일부터 제주시 회천동 파크골프장에서 전국 14개 시·도 선수단 및 임원, 관계자 1000여명이 참가해 파크골프가 대중 스포츠로 새롭게 자리 잡을 수 있는 가능성을 보여줬다.이어 9월 5일부터 회천동 파크골프장에서 전국 파크골프협회 동호인 및 임원 700여명이 참가한 가운데 제4회 제주특별자치도지사배 전국 파크골프대회가 개최됐다. 이와 함께 9월 1일부터 5일까지 한라체육관에서 동남아 12개국 1000여명의 선수단 및 임원이 참가한 가운데 개최된 제3회 제주 오픈 플로어볼 대회도 펼쳐졌다.道는 이런 생소한 종목들이 생활체육에 대한 참여율을 높힐 수 있는 전기를 마련하는 견인차 역할을 수행하고 있어 의의가 큰 것으로 평가했다.  관계자는 "내년 국내·외 스포츠대회를 적극적으로 유치하며 이들 이색종목에 대한 유치도 지속 추진하고 이를 통해 내년 4.3 70주년 제주방문의 해가 제주를 방문하는 스포츠인들에게 더욱 더 뜻깊게 다가가도록 전력을 다해 나갈 방침"이라고 했다.한편 론볼 경기는 경기장에서 볼을 굴려가며 행해지는 스포츠로 장애인도 충분히 참여할 수 있고 표적이 되는 공인 ‘잭’을 먼저 굴려 놓고 공을 근접시켜 겨루는 방식으로 진행되고 파크골프는 나무로 된 채를 이용해 역시 나무로 만든 공을 쳐 잔디 위 홀에 넣는 말 그대로 공원에서 치는 골프놀이다.그리고 플로어볼은 실내 마루바닥에서 남녀노소 누구나 하키의 재미를 즐기도록 만든 스포츠종목으로 하키 형식을 변형한 경기이다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 요양병원 접촉면회 4일부터 가능 '입소자 외박·외출도' 최신뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 포토뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 안양 호계동 아파트 공사장서 불…인명피해 없어 6 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+    <t>제주도 관광호텔 개장식 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 산업 산업최신 산업/기업 유통/생활경제 패션/뷰티 음식/맛집 창업/취업 자동차 항공 중기/벤처 해양수산 제주도 관광호텔 개장식 등록 2017.09.26 12:00:00 작게 크게 【서울=뉴시스】 행정안전부 국가기록원(원장 이상진)은 관광의 날(9월 27일)을 계기로 9월 이달의 기록 주제를 '기록으로 보는 그때 그 시절 관광풍경'으로 정하고 관련 기록물을 오는 27일부터 공식 홈페이지에 공개한다고 밝혔다. 이번에 제공되는 기록물은 1950~90년대 관광의 발전을 보여주는 관광용 숙박시설, 관광열차와 관광버스의 등장, 관광단지 조성, 국내외 관광객들의 모습 등을 담고 있다. 사진은 1963년 제주도 관광호텔 개장식. 2017.09.26. (사진=국가기록원 제공) photo@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천 아파트서 외벽청소 하던 30대 추락해 사망, 경찰 수사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 "국가기관 자격시험 화장실 이용 후 재입실 금지...인권침해" 서울교육청 '난산증 초등학생 지원'…이대와 업무협약 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 울산 남구, 일반음식점 2000곳에 위생모 지원 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '시즌 5승' 박민지, 세계랭킹 2계단 상승한 16위 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 6내년부터 일시적 2주택자 취득 가산세 부담 완화 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>가을 제주도 여행, 서귀포 중문 관광 후 흑돼지 맛집까지 힐링 코스 Powered by HOSTWAY 뉴스레터 구독신청 베타경제 베타뉴스TV 로그인 회원가입 Last Update : 전체기사 하드웨어 소프트웨어 엔터프라이즈 윈도우 모바일 소셜/인터넷 모빌리티 과학 가전 교육 종합 전체기사 리뷰 가전리뷰 기획기사 벤치마크 구입가이드 탐방 인터뷰 칼럼/사설 팁테크 이벤트 동영상 전체기사 뉴스 탐방/인터뷰 이벤트 리뷰 기획기사 기자수첩/칼럼 종합 전체기사 종합 블록체인 정책 산업 중소기업 건설/부동산 국제경제 증권 금융 경제일반 생활경제 재계 제약/의료 전체기사 용산소식 제주소식 경기도소식 서울소식 대구 경북 충북소식 강원소식 충남소식 부산경남소식 광주소식 전북소식 전남소식 전체기사 문화 연예 스포츠 정치 종합 가을 제주도 여행, 서귀포 중문 관광 후 흑돼지 맛집까지 힐링 코스 김순덕 duck@betanews.net 기사 입력 : 2017-09-29 16:53:48 대국민 명절 추석연휴를 앞두고 국내 곳곳으로 또 해외로 여행을 떠나는 사람들이 많다. 일상을 바쁘게 지내오다 명절을 통해 오랫동안 보지 못했던 부모님과 친척들도 만나고 더 추워지기 전에 떠나는 가을여행은 일상을 바쁘게 달려온 현대인들에게 쉼과도 같다.그 중에서도 우리나라 최남단 제주도에서 즐기는 휴식, 특히 중문관광단지에서 즐기는 여행은 많은 볼거리와 추억이 될 만한 요소가 많다. 또 자연이 주는 감동과 맛있는 제주 특산 메뉴로 즐기는 식사 한 끼까지 더한다면 어떤 해외여행도 부럽지 않을 것이다. ▲ 제주 중문 색달해변 제일 먼저 확 트인 중문 ‘색달해변’에 들러 파란 하늘과 푸른 바닷가를 보며 산책을 해보자. 부드러운 모래를 밟으며 반달모양의 색달해변을 걷다보면 스트레스 해소는 물론이요 저절로 힐링이 될 것이다. ▲ 천제연 폭포 두 번째로는 웅장한 모습 자랑하는 대포동 ‘지삿개주상절리’에 들러보자. 거친 파도가 만들어낸 거대한 주상절리의 모습은 경이로움 마저 들게 한다. 거대함과 웅장함을 모두 지닌 곳이라면 ‘천제연 폭포’도 빠질 수 없다. 3단으로 내려오는 천제연 폭포의 모습은 도심에서는 경험하기 힘든 환상적인 광경과 자연이 주는 시원함을 만끽할 수 있다. ▲ 테디베어 박물관 또 아이들과 함께 하는 여행이라면 ‘초콜릿박물관’이나 ‘트릭아트뮤지엄’, ‘테디베어박물관’ 등 각종 테마의 박물관 관람을 권한다.시간을 내어 찾아가지 않으면 경험하기 힘든 재미있고 색다른 체험학습이 가능하다. 이곳저곳 돌아다니며 관광을 즐겼다면 든든한 식사 한 끼는 여행의 필수코스다. 중문동에 위치한 참숯흑돼지전문점 ‘돈가득’은 복분자를 뿌린 흑돼지 전문 음식점으로 많은 관광객들이 찾는 곳이다.품질 좋은 참숯만을 사용하여 제주도산 두툼한 흑돼지를 굽는데, 굽기 직전 복분자를 뿌려 잡내를 없애는 것이 이곳 인기와 맛 비결이다. 숯불로 구워 은은하게 베인 훈연의 향과 함께 육즙 가득 잘 구워진 흑돼지를 씹으면 동시에 느껴지는 복분자 향까지 더해 손님들의 만족도가 높다.흑돼지를 멜젓에 찍어 먹는 것이 보편적이지만 ‘돈가득’은 아삭한 양파와 식초 고춧가루만을 넣은 특제 ‘양파절임’이 고기과 환상의 조합을 자랑한다. 베타뉴스 김순덕 (duck@betanews.net) Copyrights ⓒ BetaNews.net Google 뉴스피드에 Betanews를 추가하세요. 독점 비디오를 보려면 Youtube에서 베타뉴스TV를 구독하세요 목록 위로 하드웨어 소프트웨어 엔터프라이즈 윈도우 모바일 소셜/인터넷 모빌리티 과학 가전 교육 종합 종합 &gt;&gt; 도서 교육 연예스포츠 인사 사회 종합 정치 생활문화 개인정보취급방침 회사소개 연혁 찾아오는길 기사제보 광고문의 기사문의 RSS 구독하기 ㆍ(주)베타뉴스 ㆍ제호 : 베타뉴스 ㆍ발행일 : 2001년 9월 29일 ㆍ등록번호 : 서울아00247 ㆍ등록일 : 2006년 9월 8일 ㆍ발행인 겸 편집인 : 이직 ㆍ주소 : 04316 서울시 용산구 원효로 237 화전빌딩 3층 (주)베타뉴스 ㆍ광고문의 : 마케팅국장 김진호 ㆍ청소년보호책임자 : 박미선 ㆍ사업자번호 : 106-86-07377 ㆍ통신판매업 신고 : 용산 제00314호 ㆍ전화 : 02-3211-3040 ~1 ㆍFAX : 02-714-3042 ㆍ문의메일 : leejik@betanews.net Copyright(C) 1999-2017. BetaNews co. ltd. All rights reserved</t>
+  </si>
+  <si>
+    <t>'말 산업 특구' 제주도 "10월은 말 문화 관광의 달" 선포 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 '말 산업 특구' 제주도 "10월은 말 문화 관광의 달" 선포 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 '말 산업 특구' 제주도 "10월은 말 문화 관광의 달" 선포 송고시간2017-09-21 11:49 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 김호천 기자 기자 페이지 남원 의귀·일도2동·렛츠런파크서 3개 축제 잇따라 개최 (제주=연합뉴스) 김호천 기자 = 제1호 '말 산업 특구'인 제주도에서 '말(馬) 문화 관광의 달'이 처음으로 지정된다. 제주 말 문화 관광지도 (제주=연합뉴스) 김호천 기자 = 올해 처음 '말(馬) 문화 관광의 달'로 지정된 오는 10월 열릴 예정인 3개의 말 축제 관련 홍보물. 2017.9.21 khc@yna.co.kr 제주도는 제주의 말 관련 전통과 문화를 관광 상품화해 제주 고유의 명품 축제로 육성하기 위해 매년 10월을 말 문화 관광의 달로 지정한다고 21일 밝혔다. 그동안 도내 각 지역에서 시기를 달리해 열리던 말 관련 축제를 천고마비의 계절의 중심 달인 10월에 순서대로 개최해 말의 고장으로서의 이미지 홍보를 극대화한다는 복안이다. 국내외 관광객에게 '10월은 제주 말 문화 관광'이라는 이미지를 각인시키고, 말 관광상품 공동 마케팅을 통해 관광객 유치 효과도 높인다는 계획이다. 광고 도는 22일 오후 2시 10분 렛츠런파크 제주에서 마사회 제주본부, 일도2동 주민자치위원회, 남원읍 의귀리 주민 대표 등과 함께 선포식을 한다. 이번에는 오는 10월 7∼8일 서귀포시 남원읍 의귀리가 '제2회 제주 의귀 말 축제'를 개최한다. 이 축제는 제주에서 키운 말을 바쳐 조선시대 임금으로부터 '숭정대부'(崇政大夫) 벼슬을 받은 헌마공신(獻馬功臣) 김만일(金萬鎰·1550∼1632)의 고향인 의귀리 주민들이 제주마의 생산과 육성을 테마로 만든 축제다. 제주시 일도2동 주민자치위원회는 13∼15일 '제4회 고마로 馬 문화축제'를 연다. 조선시대 고마장(古馬場)이 있던 일도2동에서 나라에 바치는 공마를 선발해 제주항까지 이동했던 '공마봉진(貢馬封進)'을 재현한 퍼레이드가 눈길을 끈다. 제주 말 문화 관광지도 (제주=연합뉴스) 김호천 기자 = 제주도가 올해 처음으로 매년 10월을 '말(馬) 문화 관광의 달'로 지정하기로 하면서 제작한 말 문화 관광지도. 2017.9.21 khc@yna.co.kr 마사회 제주본부는 경마장인 렛츠런파크 제주에서 21∼22일 '제주 마 축제'를 개최한다. 제주마의 6차 산업으로서의 가치를 홍보하는 축제로, 제주목사 김수문 장군과 결사대 공연이 펼쳐진다. 제주맥주와 함께하는 말고기 소시지 페스티벌, 유소년 승마축제 한마당, 제주 승용마 경매 등의 이벤트도 이어진다. 제주승마장연합회와 외식업중앙회 제주지부 등을 중심으로 관광객 할인 쿠폰 발행 등 공동 마케팅을 하고, 도내 마유 화장품과 말 피혁제품 생산업체도 별도의 프로모션 행사를 한다. 김경원 도 축산과장은 "말의 고장 제주가 가진 역사와 전통, 문화, 산업 등 풍부한 인프라를 바탕으로 특색 있는 축제를 개최함으로써 지역 경제 활성화와 주민 화합에 큰 도움이 될 것"이라고 기대했다. khc@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2017/09/21 11:49 송고 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 러시아 출신 억만장자 벤처투자자, 전쟁 반대하며 시민권 포기 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '李리스크 해소'에 與 당권 레이스 가열…주자간 날 선 신경전도 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 선우은숙, 4살 연하 아나운서 유영재와 재혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 유병호, 문자 논란에 "송구…그 소통은 정상적인 것" 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 26 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 21 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 北전술핵 과시·野친일공세에…대통령실 "동북아 안보현실 엄중"(종합2보) 댓글수 9 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도, 오라관광단지 개발사업 자본검증 의견수렴 착수 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 오라관광단지 개발사업 자본검증 의견수렴 착수 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도, 오라관광단지 개발사업 자본검증 의견수렴 착수 기자명 고병수 기자 입력 2017.09.26 13:26 수정 2017.09.26 13:29 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 10월 25일까지 여론조사기관 전화조사, 도민 및 전문가 설문조사 (제주=국제뉴스) 고병수 기자 = 제주특별자치도는 오라관광단지 개발사업 자본검증을 위해 첫 번째 단계인 도민 및 전문가 의견수렴에 착수했다고 26일 밝혔다.의견수렴은 9월26일부터 10월25일까지 약 1개월간 진행된다.먼저 여론조사 전문기관인 한국리서치에서 도민 1000명을 대상으로 설문에 대한 전화조사가 이뤄진다.또한 도내 학회, 언론, 시민사회단체, 오피니언 리더 등 전문가를 대상으로 우편을 통한 설문조사도 진행된다. 이와 함께 모든 도민들의 다양한 의견을 수렴하기 위해 도 홈페이지를 통한 설문조사도 병행해 실시하게 된다.관계자는 "설문조사 등을 통한 의견수렴이 마무리되면 10월말까지 결과를 수합하고 정리해 자본검증위원회를 구성하기 위한 검토 작업에 들어간다"며 "자본검증위원회는 분야․인원 등 설문조사 결과를 바탕으로 일반도민과 전문가가 참여하는 형태로 11월말까지 구성할 계획"이라고 했다.이후 "지난 6일 발표한 진행 절차에 따라 자본검증위원회에서 자본검증에 관한 주요사항들을 다루게 된다"고 덧붙였다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 추석 맞이 사랑나눔 위문품 전달 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 추석 맞이 사랑나눔 위문품 전달 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도관광협회, 추석 맞이 사랑나눔 위문품 전달 편집팀 iheadline@hanmail.net 승인 2017.09.29 15:27 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회 사랑나눔봉사단(단장 강인철)은 28일 추석 명절을 맞이해 제주도내 사회복지단체 예향원, 제주케어하우스, 제주요양원을 방문해 쌀, 위생용품 등 필요한 물품을 전달하는 사랑나눔 활동을 펼쳤다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 표선, 맛집과 관광의 절묘한 조화 주메뉴 바로가기 본문 바로가기 시작페이지로 즐겨찾기 2022.08.22 (월) 흐림동두천 27.2℃ 흐림강릉 32.0℃ 흐림서울 29.5℃ 구름많음대전 30.9℃ 구름많음대구 32.2℃ 구름많음울산 28.3℃ 구름많음광주 32.3℃ 구름조금부산 28.3℃ 구름많음고창 30.9℃ 구름조금제주 30.4℃ 흐림강화 27.0℃ 구름많음보은 29.4℃ 구름많음금산 30.0℃ 구름많음강진군 30.8℃ 구름많음경주시 32.4℃ 구름많음거제 28.8℃ 기상청 제공 회원가입 로그인 검색어를 입력해주세요. 검색하기 정치 청와대 대통령실 국회 정당 정부 선거 통일·외교 경제 경제일반 폴리경제인터뷰 폴리경제이슈 금융·증권 산업·재계 교통·유통·물류 IT·통신 생활경제 건설·부동산 바이오 소상공인 공기업 오피니언·이슈 이슈·기획 정국진단 인터뷰 좌담회 스페셜 인터뷰 칼럼 기고 기자수첩 카드뉴스 여론조사 여론조사 Bank 폴리 여론조사 사회·문화 사회 문화 교육 국제 연예 스포츠 생활 사회·문화 인터뷰 공공지방 지방자치 공공기관 단체장 인터뷰 호남 취재본부 부산·울산·경남 대구·경북 폴리TV 폴리인터뷰 폴리현장 폴리 좌담회 정치를 알려주마 경제브리핑 들어보이소 포토뉴스 직격인터뷰 김능구와이강윤의 여론조사대해부 폴리경제인터뷰 직격인터뷰 기획특집 4.7 재보궐선거 21대 총선 7회 지방선거 19대 대선 한국정당실록60년 상생과통일포럼 창간22주년 18차 금융포럼 17차 경제산업포럼 창간 21주년 16차 경제포럼 15차 경제산업포럼 창간 20주년 14차 경제산업포럼 13차 경제산업포럼 창간 19주년 12차 경제포럼 11차 경제포럼 창간 18주년 10차 경제포럼 8차 경제포럼 창간 17주년 7차 경제포럼 6차 경제포럼 창간 16주년 5차 금융포럼 4차 경제포럼 3차 금융포럼 2차 통일세미나 1차 경제세미나 리더십과정 서비스 알립니다 인사·동정·부고 소상공인 홈 경제 소상공인 제주도 서귀포 표선, 맛집과 관광의 절묘한 조화 오세종 기자 kanedevil@naver.com 등록 2017.09.27 13:05:18 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 알려지지 않은 관광 명소가 몰려있는 제주 서귀포시 표선은 표선 해수욕장과 더불어 제주 민속촌 등 알짜 관광지를 여유있게 즐길 수 있는 대표적인 곳이다. 최근에는 국내여행객은 물론 중국인을 필두로 한 외국인 관광객들도 많이 방문하여 국제적인 명소로 발돋움하고 있는 곳이기도 하다. 제주 남부에서도 손꼽히는 관광 명소이니만큼 다양한 종류의 맛집들도 찾아볼 수 있다. 흑돼지는 물론 제주 은갈치 등 산지에서 직접 맛볼 수 있는 음식들을 접할 수 있다. 중문이나 성산 등 유명 관광지와도 가까워 관광을 즐기고 난 사람들이 지나가면서 들리는 곳으로도 유명하다. 특히 제주도를 관광하는 사람들은 남해에서 직접 공수한 신선한 해산물을 찾아 즐기는 부류가 많은데, 표선 해수욕장 인근에 위치한 16년 전통의 해산물 맛집 ‘다미진’은 제주도와 서귀포시, 제주관광협회 모두가 지정한 유일한 맛집으로 표선을 방문하는 사람이라면 꼭 한번 방문해볼 만 하다. 다미진이 자랑하는 메뉴는 특모듬회로 참돔, 벵에돔, 꽃돔, 호박돔 등 쉽게 볼수 없는 4가지 돔 사시미를 즐길 수 있다. 여기에 산지에서 바로 먹어야 제대로 그 맛을 느낄 수 있는 은갈치회와 고등어회, 옥돔구이, 산낙지, 뿔소라, 전복, 새우 등 다채로운 쓰끼다시가 가미되어 더욱 푸짐한 식사를 즐길 수 있다. 추가로 주문 가능한 갈치조림 역시 별미로 손꼽힌다. 다미진만의 특제소스로 장시간 조려낸 갈치조림은 비린 맛이 전혀 없고 감칠맛이 살아있어 식사 요리는 물론 반상 안주로도 그만이다. 또한 얼큰한 매운탕이나 맑은 국물의 지리탕 중 선택하여 탕요리를 즐길 수 있어 취향에 맞는 식사가 가능하다. 화이트톤의 깔끔하고 넓은 내부공간은 횟집이라기보단 고급 음식점을 연상시킨다. 메뉴도 다양하게 준비되어 있어 여성은 물론 아이를 동반한 식사 장소로도 제격이다. 오세종 기자 의 전체기사 보기 페이스북 트위터 카카오톡 카카오스토리 라인 네이버블로그 밴드 네이트온 쪽지 보내기 ⓒ 폴리뉴스(www.polinews.co.kr), 무단전재 및 재배포금지폴리뉴스는 인터넷신문위원회의 인터넷신문 윤리강령을 준수합니다. 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 추천기사 정치 尹대통령 “수도권 1기 신도시 마스터플랜, 5년 걸릴 사안 최대한 단축한 것” 20년 방치 서울 동부화물터미널, 물류·여가·주거 복합공간으로…지하에 물류시설·지상은 39층 복합개발 [현장24시]홈플러스 야심작 '당당치킨', 업계 지각변동 예고 직방 "아파트값 하락거래 비중 10년만에 최고" 범LG家 주식 양도세 취소소송 또 이겨…법원 "시스템에 의한 우연한 결과" 민주화운동 단체,'밀정 의혹' 김순호 경찰국장 진실규명 신청…"조사로 진실을 밝혀 달라" 많이 본 기사 1대통령실 첫 개편...정책기획수석 이관섭, 새 홍보수석 김은혜, 국가안보실 2차장 임종득 2[리얼미터] 尹대통령 지지율32.2% 1.8%p↑ 부정65.8% 1.4%p↓, ‘민주44.4%-국힘37.6%’ 3이재명, 호남서 이틀 연속 압승…누계 78.35%로 사실상 '승리 예약' 4[중앙] 中에 대한 인식 ‘부정적’70.3%, 패권전망 ‘中이 이길 것 48.2%-미국51.8%’ 5의령군, ‘자굴산 자연휴양림’ 방문자 센터 내 매점 운영자 모집 6추경호 부총리, 영일만대교건설 예산 내년에 꼭 반영 7尹대통령 “을지연습 5년 만에 정상화”, 관악구 등 10개 시군구 특별재난지역 선포 8이철우 경북도지사, 대한민국시도지사협의회 회장 취임 이슈 더보기 [이슈] 여권 '김원웅 광복회장 등 비리 의혹 수사 확대'..."문재인-이재명-박병석 비호, 희대의 광복팔이" [폴리뉴스 김상준 기자] 김원웅 전 광복회장의 비리 혐의가 적발되며 정치권에서는 비판의 목소리를 높이고 있다. 여권은 김원웅 전 회장, 윤미향 민주당 의원 등 독립유공자와 관련된 시민단체의 비리를 전 문재인 정권의 비호를 받았다며 집중 질타하고 있다. 박민식 국가보훈처장은 지난 20일 오후 소셜미디어 계정에 올린 글을 통해 "김원웅 전 광복회장의 8억원대비리 의혹에 대해 이전 정부의 비호를 받은 비리로 보인다"고 주장하며"광복회의 불법이 과거정부에서 분명히 드러났는데도 제대로 수사하지 않았다"고 비판했다. 앞서 지난 19일 보훈처는 광복회에 대한 특정감사 결과 출판사업비와 인테리어비 부풀리기, 가발미용비·병원비 등 법인카드 부정 사용을 합쳐 8억원에 이르는 비리 혐의를 적발했다며 김원웅 전 회장과 임직원 4명을 검찰에 고발할 것이라고 발표했다.국가보훈처는 이날 발표에서 "광복회가 사조직화되었고 거의 1인 사조직"이라고 비판했다. 국가보훈처가 지난 2월 광복회 감사가 이뤄진 김원웅 당시 광복회장이 국회 카페 수익의 사적 유용비리혐의로 경찰 수사를 받고 광복회장을 사퇴한 바 있고, 이날 발표는 이와는별도의 사안이다. 특히 박 보훈처장은 이번 감사 결과 발표가 문 [조민 칼럼] 북한 비핵화: 시지프스(Sisyphus)의 신화인가? - 윤석열 정부의 ‘담대한 구상’에 부쳐 - [김능구의 정국진단 ⑧월-2] “사과도 미래의 약속도 없는 취임 100일, 국민들은 불안하다” [이슈] 이준석 “국민도 속고 나도 속아, 녹슨 수도꼭지 납품”…尹 직격탄 날리며 본안소송까지 초강수 [고승우 칼럼] 국보법, 여의도 정치와 이준석 사태 인터뷰 더보기 [스페셜인터뷰] 홍기빈 글로벌정치경제연구소 소장③ "사회적 대타협의 길, 70%이상 노동자 대변하는 제도적 틀 만들어야" [폴리뉴스 한유성 기자] 세계 경제는 위기상황에 직면해 있다. 팬데믹의 후유증이라고 할 고물가 고금리와 함께, 러시아-우크라이나 전쟁으로 심화된 국제적 공급망의 이상 현상이 심각하다. 그 연장선상에서 국내 경제도 장기 불황이 우려될만큼 위기 국면인데, 윤석열 정부의 경제위기 대응은 방향이나 실체가 불명확하다. 철 지난 교과서적 접근이 전부 아닐까 우려되는데, 조금은 다른 시각의 분석과 기회적 대안이 필요하다. 폴리뉴스는 지난 9일 홍기빈 글로벌정치경제연구소 소장님을 모시고, 현재 위기의 해법과 우리사회의 새로운 도전 방향에 대해 들어봤다. 홍기빈 소장은 “21세기 경제학은 더 이상 ‘화폐로 계산된 소득 총량’ 즉 GDP 성장을 목표로 할 수 없다”면서, “살림살이 경제학은 포괄적인 의미에서 좋은 삶이 어느 만큼 달성되었느냐를 측정하는 것”이라고 설명했다. 지표상 선진국에 들어선 한국이지만 “살림살이 경제학의 관점에서는 출산율 하락이 보여주듯이 악화되고 있는 것이 명백하다”면서 “GDP를 떠나서 좋은 삶의 방향으로 국가정책 지표를 바꿔야 한다”고 주장했다. 이와 관련하여 홍 소장은 영국 경제학자 케이트 레이워스의 ‘도넛 경제학’을 소개했다. “생태적인 한계와 [스페셜인터뷰] 홍기빈 글로벌정치경제연구소 소장② “미·중 간 선택 있을 수 있지만, 한쪽으로 정렬시킬 필요 없다” [폴리TV] 홍기빈 글로벌정치경제연구소 소장 "실패했던 감세정책, 인플레이션은 노동자의 임금인상탓?" [폴리TV] 홍기빈 글로벌정치경제연구소 소장 " 21세기 경제 위기 상황, 20세기 메뉴얼로 대응하는 정부정책" [스페셜인터뷰] 홍기빈 글로벌정치경제연구소 소장① 현 경제 위기의 해법, 정치적 리더십이 책임있게 끌고 가는 Policy-Mix 전략 카드뉴스 더보기 [카드뉴스] KT&amp;G의 '바다 환경'을 지키기 위한 노력을 소개합니다 [폴리뉴스 김상준 기자] "여름철이면 생각나는 바다. 우리 모두가 환경 오염의 심각성을 환기하고 생태계 보호의 중요성을 공감해 환경보호를 실천하도록 KT&amp;G도 함께 노력하겠습니다" 지구 표면 2/3 이상을 차지하며 30만여 종의 생물이 살고 있다는 생명의 보고, 바다! 특히 여름철, 휴가를 갈곳으로 가장 먼저 떠올리곤 합니다. 2015년 세계자연기금(WWF)에서 발표한 자료에 따르면 바다의 자산 가치는 24조달러(2경9000조) 이상입니다. 휴가철에 보는 아름다운 경관뿐만 아니라 경제적 자산으로서도 바다는 매우 소중하고 가치있다고 할 수 있습니다. 하지만 이렇게 소중한 바다가 환경오염으로 인해 심각한 위험에 처해 있습니다. 일회용품 소비가 급증하면서 해양 쓰레기로 인한 생태계 피해가 심각한 수준입니다. 여러 단체가 바다를 위한 노력을 기울이는 가운데, KT&amp;G 역시 '바다환경 지키기'에 적극 동참하고 있습니다. KT&amp;는 2022년해양환경공단, 사단법인, 동아시아바다공동체 오션과 함께 바다를 지키기 위한 업무협약을 체결했습니다. 이 협약은 올해 다양한 해양 환경 활동을 추진하는 내용을 담고 있습니다. 특히 해양 오염 심각지역 실태조사 [카드뉴스] 팽팽한 찬반 논란의 '지역상권법'…뭐길래 [폴리뉴스 김미현 기자] ‘지역상권 상생 및 활성화에 관한 법률안(지역상권법)’제정을 놓고 찬반 의견이 팽팽하게 맞붙고 있습니다. 이 법은 지역상생구역이나 자율상권구역으로 지정된 지역에 스타벅스 같은 대기업 계열 점포의 출점을 제한하는 것이 골자입니다. 대상은 유통산업발전법(유통법)과 중소기업 적합업종제도 등에 포함되지 않아 규제를 받지 않는 대기업입니다. 법안이 시행될 경우대기업이 운영하는 직영 점포의 신규 매장을 열기 위해서는 지역상인의 동의를 받아야 합니다. 이는 임대료 상승에 따른 소상공인의 내몰림 현상(젠트리피케이션) 문제를 막고자 마련됐습니다. 복합 쇼핑몰이 들어오면 주변 임대료가 뛰는 경향이 있습니다. 하지만 이를 두고 유통업계는 소비자들의 편의성을 떨어뜨리는 과도한 중복 규제라고 반발에 나섰습니다. 또 재산권과 영업의 자유를 침해하는데다 대기업 프랜차이즈보다 자영업체의 고용률이 낮아질 가능성도 우려하고 있습니다. 하지만 지역상권의 특색을 유지하기 위해서는 해당 법안의 제정이 필요하다는 의견도 나옵니다. 소상공인과 대기업 모두'상생'을 이룰 수 있는정책이 절실한 때입니다. 트렌드&amp;토픽 더보기 '똑똑' 소리만으로도 112신고 가능해진다…"말하기 곤란한 상황 놓인 피해자 고려" [폴리뉴스 한유성 기자] "지금 폭행을 당하고 있으면 전화기 버튼을 눌러주세요." 피해 내용을 말하기 어려운 상황에서 전화기를 '똑똑' 치거나 버튼을 누르기만 해도 경찰에 신고할 수 있는 112시스템이 도입된다.22일 경찰에 따르면 경찰청은 위급 상황에 놓인 시민들이 신고를 쉽게 할 수 있는 '똑똑 캠페인'을 기획하고 있다. 이 시스템이 도입되면 신고자가 가해자와 같은 공간에 있거나 정확한 현재 위치를 모르는 상황 등에서도 즉시 신고할 수 있게 된 가운데,휴대전화를 치거나 버튼을 누르기만 하면 경찰이 112 신고로 간주해 '보이는 112' 링크를 신고자에게 전송하는 방식이다. 문자를 받은 신고자가 해당 링크를 클릭하면 경찰은 신고자의 휴대전화 카메라를 통해 신고자의 위치와 주변 상황을 파악할 수 있으며,신고자 휴대전화의 채팅 화면을 구글 웹 화면처럼 꾸며 신고한 사실을 노출하지 않으면서 실시간으로 경찰과 채팅할 수 있다. '보이는 112' 서비스는 올해 1월부터 시행됐는데, 경찰은 시민들의 서비스 활용도를 높이기 위해 신고 접수 방법을 휴대전화 버튼음이나 두드리는 행위 등으로 다양화하기로 했다. 경찰은 '똑똑 캠페인'으로 여성과 아동 등 사회적 약자의 112 20년 방치 서울 동부화물터미널, 물류·여가·주거 복합공간으로…지하에 물류시설·지상은 39층 복합개발 '100만 디지털 인재' 양성 가능할까…정보 수업시수 2배·초-중 코딩교육 필수화 이번주까지 88% 학교 개학…교육부 "코로나19 고려, 8월중 체험학습 최소화" 문 평산마을 경호구역 확대 첫날…스피커·확성기 달린 차량 반입 차단 폴리TV 더보기 [폴리TV][김능구의 정국진단 ⑧월-2] “사과도 미래의 약속도 없는 취임 100일, 국민들은 불안하다” [폴리TV][스페셜인터뷰] 홍기빈 글로벌정치경제연구소 소장③ 사회적 대타협의 길, 70% 이상 노동자 대변하는 제도적 틀 만들어야 [폴리TV][스페셜인터뷰] 홍기빈 글로벌정치경제연구소 소장② “미·중 간 선택 있을 수 있지만, 한쪽으로 정렬시킬 필요없다” [폴리TV] 홍기빈 글로벌정치경제연구소 소장 "실패했던 감세정책, 인플레이션은 노동자의 임금인상탓?" 매체소개 이용약관 개인정보취급방침 청소년보호방침 (책임자 : 한유성) 기사제보 이메일 무단수집거부 (07327) 서울 영등포구 여의나루로 71 동화빌딩 1607호 | 대표전화 02-780-4392등록번호 : 서울아00050 | 등록일자 : 2005년 9월 12일 | 발행인 : (주)이윈컴 김능구 | 편집인 : 박혜경 폴리뉴스의 모든 콘텐츠는 저작권법의 보호를 받는바, 무단 전재·복사·배포 등은 법적 제재를 받을 수 있습니다. Copyright © 2000 (주)이윈컴. All rights reserved. mail to polinews@polinews.co.kr UPDATE: 2022년 08월 22일 17시 38분 최상단으로</t>
+  </si>
+  <si>
+    <t>제주도관광협회 고승철 부회장, 국무총리표창 수상 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회 고승철 부회장, 국무총리표창 수상 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회 고승철 부회장, 국무총리표창 수상 서한솔 기자 headlinejeju@headlinejeju.co.kr 승인 2017.09.27 16:03 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × ▲ 제주특별자치도관광협회 고승철 부회장 ⓒ헤드라인제주 27일 열린 '제44회 관광의날 기념식'에서 제주특별자치도관광협회 고승철 부회장이 그동안 생태보전, 제주문화 전파, 체험관광을 실현하는 등 관광산업 발전에 기여한 공로로 국무총리 표창을 수상했다.한편, 고승철 부회장은 제주특별자치도개발공사 이사회의장, 상공회의소 경제연구소 연구위원, 일출랜드 대표이사를 역임했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 서한솔 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 관광협회, 국내 최초 'PGA'골프대회 맞이 '붐 업 이벤트' 운영 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 관광협회, 국내 최초 'PGA'골프대회 맞이 '붐 업 이벤트' 운영 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도 관광협회, 국내 최초 'PGA'골프대회 맞이 '붐 업 이벤트' 운영 서한솔 기자 headlinejeju@headlinejeju.co.kr 승인 2017.09.28 15:20 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도와 제주도관광협회(회장 김영진)는 국내 최초로 제주에서 열리는 'PGA(미국프로골프) 더 씨제이 컵' 의 성공적인 개최를 위해 오는 10월 1일부터 2일까지 칠성로 영화문화예술센터에서 '붐 업 이벤트'를 진행한다.'붐 업 이벤트'는 PGA 정규투어 대회 홍보관을 비롯해 골프 퍼팅, 칩 샷 체험존, 경품증정, PGA 포토존 등으로 꾸며질 예정이다.관광협회 관계자는 "대회가 제주에서 최초로 열리는 만큼 효과적인 홍보 마케팅을 통해 제주골프의 우수성를 국내외에 널리 알리고, 제주 골프관광 시장을 활성화할 수 있도록 노력 하겠다"고 전했다 한편, 더 씨제이컵은 오는 10월 16일부터 22일까지 제주 클럽나인브릿지에서 개최되며, 총 78명의 선수가 출전한다.특히, 아담 스콧, 저스틴 토머스, 마크 리슈먼 등 세계적인 유명 골퍼와 제주출신 강성훈 선수를 비롯한 한국 선수들이 출전해 대결을 펼칠 예정이다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 서한솔 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 추석 연휴 10일간 관광객 등 51만명 찾을 듯 | 세계일보 스포츠월드 세계비즈 세계로컬타임즈 종교신문 구독신청 mPaper RSS 로그인 회원가입 로그아웃 회원정보수정 회원탈퇴 세계일보 페이스북 네이버 포스트 트위터 유튜브 스포츠 선학평화상 환경 드론 전체메뉴 검색 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업·기업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 제주도, 추석 연휴 10일간 관광객 등 51만명 찾을 듯 입력 : 2017-09-26 19:11:18 수정 : 2017-09-26 19:11:17 인쇄 메일 글씨 크기 선택 가장 작은 크기 글자 한 단계 작은 크기 글자 기본 크기 글자 한 단계 큰 크기 글자 가장 큰 크기 글자 최대 열흘간의 추석 연휴에 제주도 인구가 두 배 가까이 불어난다. 26일 제주도관광협회 집계 결과 추석 연휴가 본격화하는 29일부터 10월9일까지 11일간 51만8000명이 제주도를 찾을 것으로 예상된다. 제주도 인구 67만명이다. 관광객뿐만 아니라 재외 제주도민 65만명 중 상당수가 고향을 찾을 것으로 보인다. 추석 연휴를 전후로 한 10월1~5일의 경우 하루 5만명까지 제주를 찾을 것으로 보인다. 제주=임성준 기자 jun2580@segye.com [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지] 20170926004775 0101070100000 0 2017-09-26 19:12:23 2017-09-26 19:11:17 0 제주도, 추석 연휴 10일간 관광객 등 51만명 찾을 듯 세계일보 임성준 0028f8cc-c883-4815-9315-2c6633fff652 오피니언 [설왕설래] 개운치 않은 불꽃축제 9일 오전 한 지인이 보낸 SNS(사회관계망서비스)에 입을 다물지 못했다. 형형색색 불꽃 사진에 탄성이 절로 나왔다. 실제 현장에서의 감동은 어떨까 싶었다. 전날 불꽃놀이를 보러 남산으로 향한다는 한 후배는 “세계일보가 명당자리인데 아이들 데리고 구경 가지 않느냐”고 묻기까지 했다. 회사에서는 이미 직원 가족들과 지인들을 위한 초청행사를 성대히 준비했다. [박완규칼럼] 위기관리 컨트롤타워 바로 세워야 윤석열정부가 출범한 지 5개월이 지났다. ‘국익과 실용’, ‘공정과 상식’을 국정운영 원칙으로 내세웠지만 나라를 어떻게 이끌어나갈지에 대한 구체적인 청사진을 내놓지 않았다. 국정이 나아갈 방향을 가늠하기 어려울 정도다. 이런 상황에서 외교안보와 경제 등에 어두운 그림자가 짙게 드리워져 있다. 국가적 위기감은 날로 커진다. 어느 틈에 위기관리가 최우선 국정 [기자가만난세상] 런던의 ‘인종적 중국인’ 필자는 1년간 영국 런던에서 대학원 과정을 마치고 최근 복귀했다. ‘민주주의에서의 정치 커뮤니케이션’ 수업의 공공외교 분야 세미나 중 중국 친구와 홍콩 친구 사이 벌어진 논쟁이 잊혀지지 않는다. 백신 개발국들이 타국에 백신을 공급·기부하면서 ‘연성권력(soft power)’을 구축하는 행위에 대한 토론을 하던 중이었다. 홍콩 친구가 라틴아메리카와 동남아 지 [김중백의자유롭게세상보기] 포용적 다양성이 필요한 우리 정치 필자가 속한 대학에서 최근 신임교수 환영 간담회가 열렸다. 신종 코로나바이러스 감염증(코로나19)이 전 세계를 강타한 이후 신임교수들은 최근까지 면접부터 오리엔테이션, 그리고 교수회의 등을 온라인으로만 진행해야 했다. 그러다 보니 새롭게 부임한 학교에 소속감도 느끼기 어려웠고 교수 간 지적 교류에 한계를 절감했다. 이런 아쉬움을 떨어내고자 새로 부임하는 교 HOT뉴스 1 23층 지붕 위 기인…양복 입고 활보, 왜? 2 머스크, 440억달러에 트위터 인수…계약파기 철회 3 허리케인 '이언' 지나간 자리 처참…최소 108명 사망 4 에펠탑 아래 숲, 하마터면 사라질뻔∼ 5 터미네이터 속 ‘심판의 날’ 온다? 포토 회사소개 지면광고 온라인광고 전광판 광고 사업제휴 독자인권위원회 및 고충처리 정정보도신청 개인정보취급방침 청소년보호정책 이용자약관 디지털뉴스이용규칙 고객센터 제호 : 세계일보 서울특별시 용산구 서빙고로 17 등록번호 : 서울, 아03959 등록일(발행일) : 2015년 11월 2일 발행인 : 정희택 편집인 : 황정미 전화번호 : 02-2000-1234 청소년보호 책임자 : 박광재 Copyright ⓒ 세계일보 All rights reserved. 문화사업 세계농업기술상 세계문학상 신춘문예 음악콩쿠르 글로벌미디어 Washington Times Tiempos Del Mundo 일본 세계일보</t>
+  </si>
+  <si>
+    <t>제주도, 추석 연휴 관광객 52만 예상...종합상황실 운영 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 추석 연휴 관광객 52만 예상...종합상황실 운영 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 추석 연휴 관광객 52만 예상...종합상황실 운영 기자명 고병수 기자 입력 2017.09.28 03:19 수정 2017.09.28 06:54 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 추석 연휴 관광객 51만8천명 예상...관광대책 종합상황실 국단위 확대 6개반 337명 운영 (제주=국제뉴스) 고병수 기자 = 제주특별자치도는 추석 연휴 제주를 찾는 관광객이 51만8천명으로 예상됨에 따라 관광객들의 불편사항 해소를 위해 관광대책 종합상황실을 운영한다고 27일 밝혔다.道에 따르면 종전에 관광정책과 중심의 종합상황실 운영에서 ‘공항대중교통안내반’을 신설해 국단위로 종합상황실를 확대 운영키로 했다.관광대책 종합상황실에는 추석연휴 제주를 찾는 관광객들과 도민들의 관광에 불편함이 없도록 6개반 연인원 337명으로 꾸려 운영한다.이번에 신설된 ‘공항대중교통안내반’은 제주를 찾는 관광객과 도민들이 대중교통 이용에 불편함이 없도록 하기 위해 제주국제공항 국내선 출입구에서 연휴기간 1일 2명이 대중교통에 대한 안내를 실시하게 된다.종합상황반인 도 관광정책과는 내․외국인 등 관광객 내도 현황 파악, 관광지 불편신고 사항 접수·처리 및 현장 확인, 각 상황반과의 협조체제 유지, 그리고 기상이변 시 공항 체류객 종합관리 등을 추진해 나간다. 카지노감독반(카지노감독과)은 주중 카지노업체 현장 방문 지도 감독 및 이용객 불편사항 신고 접수 처리 등을 하게 된다.제주관광종합홍보안내센터와 제주웰컴센터, 행정시 관광상황반에는 관광객 교통편, 숙박 및 관광지 안내와 관광불편사항 접수 처리 등을 추진한다.또한 제주관광공사는 국제선 입국장에서 외국인을 대상으로 하는 환대 캠페인을 전개하고 제주도관광협회는 공항 및 여객터미널에서 내국인 관광객 환영행사 등을 계획하고 있다.관계자는 “추석 연휴 관광대책 종합상황실 운영을 통해 제주도를 찾는 귀성객과 관광객들의 불편이 없도록 최선의 노력을 다해 나가겠다”고 말했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 말레이시아와 네트워크 구축 추진 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도관광협회, 말레이시아와 네트워크 구축 추진 (제주=뉴스1) 안서연 기자					| 2017-09-23 13:30 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 제주특별자치도와 제주특별자치도관광협회는 22일부터 26일까지 말레이시아 주요 지역별 여행업계를 초청해 제주관광 설명회를 진행한다고 23일 밝혔다.이번 설명회는 해외시장 다변화를 위한 비즈니스 네트워크 확대 구축에 어려움을 겪는 도내 관광사업체들이 동남아시아 제1의 시장인 말레이시아 여행업계와 1대1 B2B(Business to Business) 세일즈를 할 수 있도록 하기 위해 추진됐다.설명회에는 말레이시아의 주요 핵심시장인 쿠알라룸푸르를 비롯해 조호로바루, 페낭, 페락, 사바 등 각 주요 지역에서 핵심 여행업체와 언론사 등 18개 업체가 참여했다.도내에서는 여행업체, 호텔, 관광지, 골프장 등 32개소의 다양한 관광사업체가 참여했으며, 이 기간 동안 업계 홍보 및 고부가가치 상품개발 협의 등을 위한 세일즈를 추진할 계획이다.도관광협회는 제주에서 개최되는 마라톤 등 레저·스포츠 고부가가치 관광상품을 홍보하기 위해 말레이시아차이니스관광협회(MCTA)와 공동 협력마케팅을 위한 업무협약도 체결할 예정이다.   한편 2016년 기준 말레이시아 입도관광객은 6만6207명으로, 올들어서는 8월까지 4만명이 제주를 찾았다. asy0104@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 이런 일&amp;저런 일 공효진♥케빈오, 뉴욕서 결혼식…정려원 참석 김수미 "김용건 늦둥이 아들 지 아범 딱 닮아" 클럽 앞 멈춘 소방차 '비키니 여성' 하차…왜? 강민경, 65억 건물로 쇼핑몰 이사 "직원 눈물" 신혜성, 도난차량서 음주측정 거부하다 체포 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 프로농구 10개구단 감독들이 뽑은 새 시즌 우승후보는? KT… 2위 SK '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>[로컬 브리핑] 제주도·제주관광공사, 대학생 등 대상 크루즈산업 교육-국민일보 시사 시사 &gt; 전체기사 [로컬 브리핑] 제주도·제주관광공사, 대학생 등 대상 크루즈산업 교육 입력 : 2017-09-25 18:34 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 제주도와 제주관광공사는 다음 달 20일까지 대학생 및 미취업 졸업생을 대상으로 크루즈산업 교육을 실시한다고 25일 밝혔다. 크루즈산업에 대한 이해도를 높이고, 실질적인 취업이 이뤄질 수 있도록 본인에게 맞는 직무 활용 프로그램으로 운영된다. 크루즈 관련 직업군 탐색, 본인의 직무스타일 분석, 크루즈 연관산업 이해, 월드와이드크루즈 선상투어 등 이론교육과 현장교육이 동시에 진행된다. 교육생에게는 해외 크루즈 승선 및 체험기회, 봉사활동 시간 부여, 수료증 발급 등 특전이 제공된다. GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 “발렛 직원이 준 차 몰았다”…신혜성, 음주운전에 절도 혐의까지 버스타는 女, 신체 만지고 도망…6급 교육공무원이었다 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 ‘풀소유’ 논란후 2년, 혜민 근황…“따가운 시선에 상처” [영상] 삼성전자 우크라 지사 건물, 러 미사일에 파손 ‘90년대 강남 큰 손’ 조춘자, 또 사기 행각…징역 7년 ‘무주 일가족 중독’ 합동감식 “보일러 연통, 그을음으로 막혀” [단독] 시중은행도 당했다… 신종 전세사기 일당 검거 14살 제자와 성관계 후 “진짜 사랑”… 전문가 “그냥 범죄” 박수홍, 父폭행 직후 녹화서 “제가 속병 전문가” 넉살 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 포항시, 자연재난 피해 공동주택 복구비용 최대 5억원 지원 성 상납 무고 혐의 이준석, 2차 경찰 소환… 경찰 “조만간 결론” 포천시, 신재생에너지 융복합지원사업 공모 선정 특별법 개정 “너무 느리다”…제주도, 포괄적 권한이양 추진 남양주시 ‘불법 주정차 단속 CCTV 통합 시스템’ 운영 의정부서 14~16일 ‘2022 아시아 모델 페스티벌’ 열려 경남도, 가을 행락 철 야영 장 인명 사고 예방 총력 올 무역적자 327억 달러…반도체·대중 수출 ‘먹구름’ 아시아엔 적수 없다… 韓펜싱 U-23 亞선수권 7연속 우승 이동환 고양시장 “일산, 신도시 선도지역 지정 조건 가장 좋아” 4조원대 인천e음 대행사 코나아이·신한·KT…3파전 치열 ‘지적장애인 살인·암매장’ 일당, 판결 불복해 항소 감사원 국감, “착하게 좀 살라” 말폭탄 속 9분만에 중지 스물네살 미드필더 음웨푸, 은퇴 선언… ‘유전성 심장 질환’이 원인 尹 “청년에 임대주택 줄 게 아니라 내 집 마련 도와야”</t>
+  </si>
+  <si>
+    <t>제주도, 소수 언어권 관광통역안내사 교육생 모집 &lt; 정치종합 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도, 소수 언어권 관광통역안내사 교육생 모집 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 정치종합 제주도, 소수 언어권 관광통역안내사 교육생 모집 기자명 이은지 수습기자 입력 2017.09.21 17:42 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도와 제주관광공사는 9월말부터 소수언어 관광통역안내사 양성 기초 교육생을 모집한다.  이는 중국인 관광객이 줄고 무슬림 등 소수언어권 관광객이 늘어나고 있지만 관광통역 안내사가 부족해 전문가 양성 필요성이 대두됨에 따라 진행하는 것이다.    교육언어는 마인어, 태국어, 베트남어, 러시아어로 구성됐으며 인원은 각 어권별 15명 내외다. 소수언어 기초반 교육은 9월 말부터 10월 중순까지 제주관광공사 홈페이지(www.ijto.or.kr)를 통해 도민 누구나 신청할 수 있다.  앞서 도는 3월 관광통역안내사 자격증 소지자를 대상으로 기초반, 중급반을 운영했으며 98명이 교육을 이수했다. 이은지 수습기자 ez1707@daum.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>[황금연휴 추천 관광지] 10월에 제주도 아이와 함께 가볼 만한 곳⑨ 바람을 기다리는 섬 '추자도' &lt; 리빙 &lt; 라이프 &lt; 기사본문 - 문화뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 매체소개 기사제보 구독하기 보도자료 등록 naverpost facebook instargram twitter navertv MHN 편집 : 2022-10-11 11:46 (화) 문화 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 인터뷰 포토 오피니언 기고·칼럼 리뷰 커뮤니티 보도자료 회원정보 로그인 회원가입 전체메뉴 버튼 최신뉴스 현대차그룹, 부산세계박람회 글로벌 SNS 콘텐츠 4천만뷰 돌파 난민 이의신청 절차, 더 투명해지고 공정해 진다 '2022 서울여성합창페스티벌' 개최...코로나19 이후 3년 만에 재개 안방에서 즐기는 궁궐체험 ‘2022 궁온 프로젝트’ 2차 접수 [22 가을 패션 추천] 제니→크리스탈 '패셔니스타'는 다 입었다...'바시티 자켓' 추천 5 문체부, ‘2022 문화의 달’ 기념행사 개최...다양한 공연 열려 [공연소식] 10월 둘째 주, 주목할 만한 클래식/무용 공연 2022년 10월11일(화) 오늘의운세 띠별, 별자리 [이번주뭐입지?] 힙한 룩부터 프레피 룩 까지...'부츠' 활용한 가을 코디 추천 뮤지컬 '캣츠', 오리지널 연출 부활과 함께 내한 공연 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 [황금연휴 추천 관광지] 10월에 제주도 아이와 함께 가볼 만한 곳⑨ 바람을 기다리는 섬 '추자도' 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 라이프 리빙 [황금연휴 추천 관광지] 10월에 제주도 아이와 함께 가볼 만한 곳⑨ 바람을 기다리는 섬 '추자도' 기자명 전서현 입력 2017.09.22 12:06 수정 2017.10.30 14:10 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [문화뉴스 MHN 전서현 기자] 섬의 숙명은 순한 바람을 기다리는 것. 추자도는 순풍을 기다린다는 뜻의 후풍도로 불리며 섬의 숙명을 받아들였다. 육지와 제주의 중간에 위치해 바람이 거칠어져 피할 데 없는 배들의 피난처가 되는 숙명도 안았다. ▲ ©제주관광공사 바람이 순해야 섬에 닿을 수 있고, 또 순한 바람이 있어야 닻을 올릴 수 있어 추자도는 늘 그리움을 안고 있다. 그래서일까. 추자도는 사람이 그리운 가을에 더 가고 싶은 섬이기도 하다.4개의 유인도와 38개의 무인도로 이뤄진 추자도는 쾌속선을 타고 한 시간가량 걸리며, 섬을 한 바퀴 돌아보는데 넉넉잡고 8시간 정도 걸린다. 제대로 알고 싶다면 하루 1박을 하는 것이 좋다. 나바론 하늘길, 추자군도를 둘러볼 수 있는 봉글레산, 최영장군사당, 몽돌이 깔린 모진이 몽돌해변 등이 유명하고, 일몰과 일출을 볼 수 있는 등대전망대, 썰물 때만 길이 연결되는 다무래미, 해가 질 때의 묵리는 절경 중의 하나다. 낚시 포인트가 많아 낚시꾼들이 늘 즐겨 찾는 곳이기도 하다. jun0206@mhns.co.kr 주요기사 연금복권의 현재가치 계산! 연금복권 720 +, 일시불로 따지면 얼마? 제임스 웹 망원경이 보내온 첫 번째 사진...허블 망원경과 차이점은? 2022년 9급 공무원 월급과 연봉...과연 최저시급보다 적을까? [포토] 한소희 '예쁜 미소' 관련기사 "그레잇" 기대했던 '킹스맨: 골든 서클' 내한 행사 "스투핏"이 된 사연'화이트리스트'에 오른 배우와 개그맨 어떤 혜택 받았나?속시원히 말한 '아이 캔 스피크', 꼭 봐야하는 이유는?[MHN TV] 황치열 '반가움이 두배가 되는 포즈'(2017소리바다어워즈)[MHN TV] 레드벨벳 '여름이 지나도 여전한 청순미'(2017소리바다어워즈) 전서현의 다른 기사 보기 전서현 jun0206@mhns.co.kr 독자와 공감을 통해 더 나은 내일을 만들겠습니다. 최신기사 인기기사 저작권자 © 문화뉴스 무단전재 및 재배포 금지 포토 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 한지민, '욘더' 색다른 변신 기대하세요 [포토] 한지민, 러블리 가을 패션 [포토] 이정은, 부산국제영화제 첫 참석 [포토] 정진영, '욘더'로 인사드려요 [포토] 신하균, 목폴라도 품격있게 만든다 [포토] '욘더' 이준익 감독 [포토] 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 러브컨템포러리아트, 닥설랍 개인전 'Blurry Romanticism' 개최 [이상진 디렉터의 캘리문화] (6) 첩첩석중(疊疊石中) 아르코미술관, 대만과 한국-대만 비디오 교류 프로그램 개최 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 (04050) 서울특별시 마포구 양화로 156 (LG팰리스빌딩) 1727 대표전화 : 0269593256 팩스 : 023221666 법인명 : (주)엠에이치앤미디어 제호 : 문화뉴스 등록번호 : 서울 아 03015 등록일 : 2014-02-18 발행일 : 2014-02-18 발행·편집인 : 주진노 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.고충처리인 권혁재 02-6959-3256 press@mhns.co.kr Copyright © 2022 문화뉴스. All rights reserved. mail to eveleva@naver.com 위로 전체메뉴 전체기사 문화 전체 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 전체 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 전체 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 전체 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 전체 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 전체 인터뷰 오피니언 전체 기고·칼럼 리뷰 포토 보도자료 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>[황금연휴 추천 관광지] 10월에 제주도 아이와 함께 가볼 만한 곳②'책과 함께 힐링을'...제주 북카페 &lt; 리빙 &lt; 라이프 &lt; 기사본문 - 문화뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 매체소개 기사제보 구독하기 보도자료 등록 naverpost facebook instargram twitter navertv MHN 편집 : 2022-10-11 11:46 (화) 문화 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 인터뷰 포토 오피니언 기고·칼럼 리뷰 커뮤니티 보도자료 회원정보 로그인 회원가입 전체메뉴 버튼 최신뉴스 현대차그룹, 부산세계박람회 글로벌 SNS 콘텐츠 4천만뷰 돌파 난민 이의신청 절차, 더 투명해지고 공정해 진다 '2022 서울여성합창페스티벌' 개최...코로나19 이후 3년 만에 재개 안방에서 즐기는 궁궐체험 ‘2022 궁온 프로젝트’ 2차 접수 [22 가을 패션 추천] 제니→크리스탈 '패셔니스타'는 다 입었다...'바시티 자켓' 추천 5 문체부, ‘2022 문화의 달’ 기념행사 개최...다양한 공연 열려 [공연소식] 10월 둘째 주, 주목할 만한 클래식/무용 공연 2022년 10월11일(화) 오늘의운세 띠별, 별자리 [이번주뭐입지?] 힙한 룩부터 프레피 룩 까지...'부츠' 활용한 가을 코디 추천 뮤지컬 '캣츠', 오리지널 연출 부활과 함께 내한 공연 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 [황금연휴 추천 관광지] 10월에 제주도 아이와 함께 가볼 만한 곳②'책과 함께 힐링을'...제주 북카페 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 라이프 리빙 [황금연휴 추천 관광지] 10월에 제주도 아이와 함께 가볼 만한 곳②'책과 함께 힐링을'...제주 북카페 기자명 전서현 입력 2017.09.22 11:30 수정 2017.10.30 14:12 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [문화뉴스 MHN 전서현 기자] 서점만큼 인간의 심성이 그토록 약해지는 곳이 어디 있는가? 라는 헨리 워드 비처의 말처럼 사람들은 책 앞에서 무너지기도 하고 훌훌 털고 일어서기도 한다. ©제주관광공사 서점에 진열된 다양한 삶들은 우리가 삶에 대해 가졌던 질문들에 대한 답을 갖고 있어, 공허한 마음으로 서점에 들어갔다가도 지도를 손에 넣은 사람처럼 기쁘게 밖으로 나서기도 한다. 책 읽기 좋은 10월, 인생길을 잃은 여행자라면, 자연 속에 움튼 제주의 북카페를 가보면 어떨까.오래된 귤 창고를 개조한 서점, 양옥 건물을 개조해 만든 카페 등 옛 인테리어를 그대로 살린 제주의 북카페는 어디를 가든 낭만을 품고 있다. 아늑한 다락방 같은 공간에서 시 한편을 읽으며 쉼을 얻거나, 카페 주인이 추천한 기상천외한 책을 읽어보며 삶에 대한 새로운 아이디어를 얻어보자. 만화책, 소설, 디자인 서적이 비치된 한경면의 유람위드북스, 전통 돌집을 개조해 옛날 가정집의 분위기가 고스란히 남아있는 월정리 책다방, 북카페지기가 책을 추천해주는 달리북카페, 쿠션에 편안히 앉아 탑동 방파제와 바다를 보며 책을 읽는 에이팩토리, 인도철학책을 읽을 수 있는 바라나시 책골목 등이 있다. jun0206@mhns.co.kr 주요기사 연금복권의 현재가치 계산! 연금복권 720 +, 일시불로 따지면 얼마? 제임스 웹 망원경이 보내온 첫 번째 사진...허블 망원경과 차이점은? 2022년 9급 공무원 월급과 연봉...과연 최저시급보다 적을까? [포토] 한소희 '예쁜 미소' 관련기사 "그레잇" 기대했던 '킹스맨: 골든 서클' 내한 행사 "스투핏"이 된 사연'화이트리스트'에 오른 배우와 개그맨 어떤 혜택 받았나?속시원히 말한 '아이 캔 스피크', 꼭 봐야하는 이유는?[MHN TV] 황치열 '반가움이 두배가 되는 포즈'(2017소리바다어워즈)[MHN TV] 레드벨벳 '여름이 지나도 여전한 청순미'(2017소리바다어워즈) 전서현의 다른 기사 보기 전서현 jun0206@mhns.co.kr 독자와 공감을 통해 더 나은 내일을 만들겠습니다. 최신기사 인기기사 저작권자 © 문화뉴스 무단전재 및 재배포 금지 포토 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 한지민, '욘더' 색다른 변신 기대하세요 [포토] 한지민, 러블리 가을 패션 [포토] 이정은, 부산국제영화제 첫 참석 [포토] 정진영, '욘더'로 인사드려요 [포토] 신하균, 목폴라도 품격있게 만든다 [포토] '욘더' 이준익 감독 [포토] 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 러브컨템포러리아트, 닥설랍 개인전 'Blurry Romanticism' 개최 [이상진 디렉터의 캘리문화] (6) 첩첩석중(疊疊石中) 아르코미술관, 대만과 한국-대만 비디오 교류 프로그램 개최 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 (04050) 서울특별시 마포구 양화로 156 (LG팰리스빌딩) 1727 대표전화 : 0269593256 팩스 : 023221666 법인명 : (주)엠에이치앤미디어 제호 : 문화뉴스 등록번호 : 서울 아 03015 등록일 : 2014-02-18 발행일 : 2014-02-18 발행·편집인 : 주진노 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.고충처리인 권혁재 02-6959-3256 press@mhns.co.kr Copyright © 2022 문화뉴스. All rights reserved. mail to eveleva@naver.com 위로 전체메뉴 전체기사 문화 전체 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 전체 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 전체 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 전체 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 전체 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 전체 인터뷰 오피니언 전체 기고·칼럼 리뷰 포토 보도자료 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 서부권 여행코스 '유리의성', 곶자왈 숲길 체험 가능한 가족여행객 선호 관광지 &lt; 핫이슈 &lt; 기사본문 - 충청일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 UPDATED : 2022-10-11 12:43 (화) 제보 로그인버튼 로그인 회원가입 실시간뉴스 맛 가격 최고 …청원생명축제 60만명 찾았다 최근 5년간 부정승차 123만건, 부가운임만 208억원 대통령 집무실 동측에 새 진입로 건설 중…"도어스테핑 피하기?" 정우택 "작년 서울 극단선택, 20대 9.3% 증가…30·40대보다 많아" 10일, 단양 소백산에 ‘첫눈’ [동정] 김창규 제천시장 제천소방서, 의용소방대기술경연대회 ‘성료’ 이장우 시장, 베트남 빈증성 보반민 성장 접견 세종대왕과 초정약수 축제 성료 공주 석장리박물관, 기획전 '한글과 구석기' 전체메뉴 버튼 뉴스 정치 경제 사회 교육 문화 포토뉴스 연예 스포츠 핫이슈 비주얼뉴스 사람과일 우리지역소식 ONLY 충청 지역 충북 충남 대전·세종 오피니언·기획 오피니언 지난오피니언 자랑스러운 忠淸人 충북 독립운동가 열전 파워인터뷰 방과후 학교 우수사례 미주알고주알 CC온라인뉴스룸 명인열전 다시 보는 충청일보, 50년 전 오늘 김명기 편집인의 오늘 이 사람 지난기획연재 충청일보TV 동영상뉴스 미니다큐 문화행사 낮은의자 충청 문화산책 뉴스있슈! 사설 돋보기 우리말툰 노메이크업 웹드라마 [도플갱어] 모션뉴스 이슈톡톡 안녕, 오늘! 부동산리포트 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 서부권 여행코스 '유리의성', 곶자왈 숲길 체험 가능한 가족여행객 선호 관광지 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 핫이슈 제주도 서부권 여행코스 '유리의성', 곶자왈 숲길 체험 가능한 가족여행객 선호 관광지 기자명 온라인충청일보. 입력 2017.09.21 12:31 수정 2017.10.12 10:02 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도는 국내 뿐 아니라 해외 여행객들이 많이 찾아오는 자연관광 휴양지이다. 올해 추석을 맞이하는 많은 관광객들을 대상으로 최근 제주도는 다양한 여행명소가 존재하고 있다. 한편 제주도 내에서 서부권에 위치한 여행코스로 알맞은 '유리의성'은 곶자왈 숲길 체험이 가능한 가족여행객의 선호 관광지로써 알려져 있다. 이 곳은 최근 유리공예 체험을 할 수 있기 때문에 가족 및 연인 단위로 많이 찾는 관광지이다. '유리의성' 관광지에는 곶자왈 숲길 체험이 가능한데, 곶자왈은 세계에서 유일하게 열대 북방한계 식물과 한대 남방한계 식물이 공존하는 제주도의 독특한 숲 또는 지형을 일컫는다. 그리고 곶자왈은 나무 및 덩굴식물, 암석 등이 뒤섞여 수풀처럼 어수선하게 된 곳을 일컫는 제주도 방언으로써 독특한 생김새로 가족단위 여행객이 많이 찾는 명소이기도 하다.  한편, '유리의성' 유리공예 체험 중 램프워킹 유리목걸이 만들기 체험은 현재 17시30분부터 21시30분까지 밖으로 나와서 진행이 가능하다. 또한 최대 한번에 2명까지 체험이 가능하다. 이 곳은 저녁에도 곶자왈 걷기가 가능한 곳인데 조명이 다 켜져 있어 그 분위기가 더욱 산책하며 감상하기에 좋다. 또한 나무에 달려있는 풍선모양의 유리조형물 안에는 조명이 있기 때문에 풍선이 둥둥 떠있는 기분을 흡사 재현한다. '유리의성' 관계자는 "현재 야외공연은 22시까지 관람이 가능하지만 그 전에 나오실 수 있도록 안내멘트를 전하고 있고 커피숍은 21시30분에 마감을 진행하고 있다"라고 전했다. 온라인충청일보. news1946@naver.com 다른기사 보기 저작권자 © 충청일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 [10월 1일은 국군의날] 3대 9명이 494개월 복무... 병역명문가의 나라 사랑 청원생명축제 개막…청주 오창서 내달 10일까지 [초점] KTX 세종역 신설 '세 번째' 도전 청주 조정대상지역 해제 불구…쌓여가는 아파트 매물 [속보]개량백신 예약 저조, 접종대상 확대 검토 충북자치연수원 제천이전, ‘왜 늦어지나’ [단독]국립공원 탐방로 예약제 정부간 '엇박자' [10월 1일은 국군의날] 3대 9명이 494개월 복무... 병역명문가의 나라 사랑 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 103회 전국체전서 충북선수단 선전 국립대병원 출산비용 편차 크다... 충북대병원 전국 두 번째 '언론 화합 한마당' 2022 충북기자협회 한마음체육대회 성료 세계 한인회장단 초청 충북 발전 간담회 개최 [속보]개량백신 접종 예약 '비상' 독감 환자 1주일새 45% 급증 실시간 뉴스 맛 가격 최고 …청원생명축제 60만명 찾았다 최근 5년간 부정승차 123만건, 부가운임만 208억원 대통령 집무실 동측에 새 진입로 건설 중…"도어스테핑 피하기?" 정우택 "작년 서울 극단선택, 20대 9.3% 증가…30·40대보다 많아" 10일, 단양 소백산에 ‘첫눈’ [동정] 김창규 제천시장 제천소방서, 의용소방대기술경연대회 ‘성료’ 이장우 시장, 베트남 빈증성 보반민 성장 접견 세종대왕과 초정약수 축제 성료 공주 석장리박물관, 기획전 '한글과 구석기' 인기뉴스 1 이제는 부동산 취득세 중과를 풀어야 할 시기 2 계룡세계군문화엑스포 7일 개막 3 [속보]개량백신 예약 저조, 접종대상 확대 검토 4 은행동·대흥동 일원 '대전 0시 뮤직페스티벌' 개최 5 충북자치연수원 제천이전, ‘왜 늦어지나’ 6 [단독]국립공원 탐방로 예약제 정부간 '엇박자' 7 예산군, '6회 예산장터 삼국축제' 14~20일까지 개최 8 코로나 주춤, 가장 센 독감 온다 포토뉴스 10일, 단양 소백산에 ‘첫눈’ 이장우 시장, 베트남 빈증성 보반민 성장 접견 [장문석의 발길 디카詩] 부들어린이집 이상래 의장, 동구 노인의 날 기념행사 참석 하단영역 하단메뉴 매체소개 기사제보 광고문의 구독문의 이용약관 고충처리인 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 충청북도 청주시 흥덕구 직지대로 769 충청일보빌딩 (우편번호 28470) 대표전화 : 043)279-2000 팩스 : 043)279-2020 청소년보호책임자 : 천정훈 법인명 : 충청일보 제호 : 충청일보 등록번호 : 충북 가 00001 충청일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 충청일보. All rights reserved. mail to news1948@naver.com 위로 전체메뉴 전체기사 정치 전체 정치일반 청와대·외교 행정·지자체 국회·정당 선거현장 6.1지방선거 경제 전체 경제일반 산업·기업 건설·부동산 생활경제·유통 금융·증권 취업·창업 분양광고 사회 전체 사회일반 사건·사고 여성·복지 환경 국제 현장속으로 초록우산이야기 교육 전체 충청돋보기 문화 전체 문화일반 건강·의료 여행·레져 뷰티·패션 공연·전시 문학·출판 미스코리아 미스인터콘티넨탈 문화산업 충북 전체 보은 옥천 영동 괴산 진천 음성 충주 제천 단양 증평 종합 충남 전체 천안 공주 보령 아산 서산 논산 금산 부여 서천 청양 홍성 예산 태안 당진 계룡 내포 대전·세종 전체 대전 세종 포토뉴스 전체 충청포토 전국포토 포토스토리 장문석의 발길:디카詩 스포츠 전체 스포츠 일반 육상‧ 마라톤 축구 야구 농구 연예 전체 방송·연예 가요·음악 영화 핫트렌드 핫이슈 社告 사람과일 전체 동정 운세 우리지역소식 전체 인사·동정 모임·행사 결혼·축하 개업·홍보 부음·애사 오신 손님 알림·기타 기획연재 전체 파워인터뷰 방과후 학교 우수사례 미주알고주알 재경 출향인사를 만나다 건곤 화백(乾坤 畵伯) 영화 피터安의 골프이야기 오마이펫(PET) 자랑스러운 忠淸人 충북 독립운동가 열전 다시 보는 충청일보, 50년 전 오늘 명인열전 충청일보 2021 어젠다 '위기를 넘어 희망찬 내일로' 농촌을 살리자 '꿈나래 학교'를 가다 우리 語源 이야기 김명기 편집인의 오늘 이 사람 창간 76주년 특집 6.1지방선거 후보자 인터뷰 지난기획연재 전체 정종진교수의 속담여행 김경민의 미술이야기 동학농민혁명현장을 찾아 밥상레시피 직지포럼 경제특별도 건설 잘되고 있나? 우리동네스타 충북도, 대규모 스포츠대회유치 가능한가! 명인열전 대덕연구개발특구, 이대로는 안된다 내멋에산다 세계조정선수권 충주유치 가능한가 어린이 보호구역 안전한가 충주 세계무술축제 성공조건은? 르포 - 잊혀져가는 풍경 충청일보 연중캠페인 17대 대선공약 대전 서남부권 개발 이대론 안된다 우리동네 금고 주간낙수·도토리 한만수의 대하 장편소설 금강 대를잇는 맛자랑 선거법바로알기 Weekend 신충청기행 충북의 성씨를 찾아서 사학의 뿌리를 찾아 중국어 기본은 한다 전원학교 우수사례 고사성어 기행 충청맛집기행 발따라길따라 충청인의 젖줄 대청호500리길 한국고유의 사이언스 충청일보지상갤러리 파워인터뷰 경제특별도충북건설 행정중심복합도시 긴급제언 행정중심복합도시건설 무엇이 문제인가 우리학교최고! 18대총선후보자토론회 2008총선현장리포트 장호봉의 약초기행 꿈을 이루는 농업의 역군들 충청교육100년 희망을위해 뛰는사람들 대형마트 지역경제 상생방안은? 충청권홀대론 극복 송태호의 실크로드여행기 브랜드파워 도심 속 문화공간 김태인의 주간증시전망 이문학의 관상으로 보는 세상 불혹 앞둔 청주산단 경쟁력 강화방안은 의학칼럼 충북미술지도를 바꾸다 인물탐구 민선 4기 반환점…단체장에 듣는다 만평요지경 총선 첫 도전인물들 창간 75주년 특집 20대총선 선택! 21대 총선 지난오피니언 전체 직지포럼 시론 목민의창 성직마당 경제인칼럼 신길수칼럼 변광섭칼럽 김미혜칼럼 정현웅칼럼 의학상식 법률상식 세무상식 물이야기 한방산책 노무상식 무심천 삶의향기 문화칼럼 우리고장의역사한담 객석에서 어경선칼럼 오영미칼럼 평화의샘 전태익칼럼 권영정칼럼 운천동단상 충청포럼 김영대칼럼 김춘길 칼럼 아침의 단상 김정렬칼럼 발언대 이정칼럼 조무주칼럼 기자의눈 홍익칼럼 역술이야기 이광형의시각 이진영칼럼 세월에 새긴 그림 신찬인칼럼 똑똑한 임신 행복한 출산 김종원의 생각너머 신수용의 쓴소리 칼럼 오피니언 전체 사설 기고 데스크시각 교육의눈 충청논단 충청칼럼 충청광장 충청의창 세상을보며 월요일아침에 수요단상 목요사색 충청시론 충청시평 살며생각하며 생활안전이야기 내일을열며 우리말알기 오병익칼럼 김진웅칼럼 백목련 의학칼럼 김재영칼럼 김효겸의 세상바라보기 충청산책 건강칼럼 충청돋보기 박별 칼럼 김명기의 톺아보기 중장년 일자리 이야기 이규철의 100세 대학 장중식의 뉴스&amp;스토리 CC라이프뉴스 전체 트래블메이커 대학생의 눈 인생은 아름다워 사업·행사 충청일보TV 전체 동영상뉴스 미니다큐 낮은의자 문화행사 핫이슈영상 메디컬충청 충청 문화산책 뉴스있슈! 사설 돋보기 우리말툰 노메이크업 웹드라마 [도플갱어] 모션뉴스 이슈톡톡 안녕, 오늘! 지면보기 국제뉴스 CC온라인뉴스룸 전체 "쏙쏙" 식의약 생활정보 경제야 놀자! 1분 우리말 퀴즈 카드뉴스 똑똑한 수요일 오마이펫 미디어데스크 위클리 연예 통(通) 오늘의 충청일보 헤드라인충청 반찬뉴스 PICK 북 비주얼뉴스 동영상 전체 동영상뉴스 충청 문화산책 뉴스있슈! 이슈톡톡! 안녕, 오늘! 웹드라마[도플갱어] 우리말툰 노메이크업 문화 행사 사설 돋보기 모션뉴스 메디컬충청 미니다큐 낮은의자 충청일보어린이합창단 전체 영상갤러리 미스코리아영상 전체 세종&amp;충북 대전&amp;충남 영상사업부 전체 항공 촬영 의료 영상 토목·건축 영상 인터넷 방송 제작 CF·홍보 영상 중계영상 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>[황금연휴 추천 관광지] 10월에 제주도 아이와 함께 가볼 만한 곳⑧ 욜로족의 문화 감성 터치...제주비엔날레 &lt; 리빙 &lt; 라이프 &lt; 기사본문 - 문화뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 매체소개 기사제보 구독하기 보도자료 등록 naverpost facebook instargram twitter navertv MHN 편집 : 2022-10-11 11:46 (화) 문화 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 인터뷰 포토 오피니언 기고·칼럼 리뷰 커뮤니티 보도자료 회원정보 로그인 회원가입 전체메뉴 버튼 최신뉴스 현대차그룹, 부산세계박람회 글로벌 SNS 콘텐츠 4천만뷰 돌파 난민 이의신청 절차, 더 투명해지고 공정해 진다 '2022 서울여성합창페스티벌' 개최...코로나19 이후 3년 만에 재개 안방에서 즐기는 궁궐체험 ‘2022 궁온 프로젝트’ 2차 접수 [22 가을 패션 추천] 제니→크리스탈 '패셔니스타'는 다 입었다...'바시티 자켓' 추천 5 문체부, ‘2022 문화의 달’ 기념행사 개최...다양한 공연 열려 [공연소식] 10월 둘째 주, 주목할 만한 클래식/무용 공연 2022년 10월11일(화) 오늘의운세 띠별, 별자리 [이번주뭐입지?] 힙한 룩부터 프레피 룩 까지...'부츠' 활용한 가을 코디 추천 뮤지컬 '캣츠', 오리지널 연출 부활과 함께 내한 공연 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 [황금연휴 추천 관광지] 10월에 제주도 아이와 함께 가볼 만한 곳⑧ 욜로족의 문화 감성 터치...제주비엔날레 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 라이프 리빙 [황금연휴 추천 관광지] 10월에 제주도 아이와 함께 가볼 만한 곳⑧ 욜로족의 문화 감성 터치...제주비엔날레 기자명 전서현 입력 2017.09.22 12:03 수정 2017.10.30 14:10 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [문화뉴스 MHN 전서현 기자] 문화적 감성을 충만하게 누리고 싶다면 제주비엔날레를 눈여겨보자. 알뜨르비행장, 제주도립미술관, 제주현대미술관, 제주시 원도심, 서귀포시 원도심 등에서 '투어리즘'이라는 주제로 9월 2일부터 시작된 비엔날레가 12월 3일까지 열린다. ▲ ©제주관광공사 제주도립미술관에서는 팝아트 1세대인 강영민 작가가 제주 올레길을 60일 동안 걸으며 핸드폰으로 담은 영상을 담은 '암체어 트래블러', 8미터 벽에 30여 명의 작가들의 시선으로 바라본 60개의 한라산을 전시해놓은 '한라살롱' 등을 볼 수 있다.일제강점기의 아픔이 서린 알뜨르비행장에서는 역사의 교훈과 오늘을 살아가는 이들이 경험하는 치유를 이야기한다. 제주종합경기장, 제주도립미술관, 제주현대미술관, 알뜨르비행장을 순환하는 셔틀버스가 무료로 운영되며 현장에는 오디오 가이드가 준비되어 있다. jun0206@mhns.co.kr 주요기사 연금복권의 현재가치 계산! 연금복권 720 +, 일시불로 따지면 얼마? 제임스 웹 망원경이 보내온 첫 번째 사진...허블 망원경과 차이점은? 2022년 9급 공무원 월급과 연봉...과연 최저시급보다 적을까? [포토] 한소희 '예쁜 미소' 관련기사 "그레잇" 기대했던 '킹스맨: 골든 서클' 내한 행사 "스투핏"이 된 사연'화이트리스트'에 오른 배우와 개그맨 어떤 혜택 받았나?속시원히 말한 '아이 캔 스피크', 꼭 봐야하는 이유는?[MHN TV] 황치열 '반가움이 두배가 되는 포즈'(2017소리바다어워즈)[MHN TV] 레드벨벳 '여름이 지나도 여전한 청순미'(2017소리바다어워즈) 전서현의 다른 기사 보기 전서현 jun0206@mhns.co.kr 독자와 공감을 통해 더 나은 내일을 만들겠습니다. 최신기사 인기기사 저작권자 © 문화뉴스 무단전재 및 재배포 금지 포토 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 한지민, '욘더' 색다른 변신 기대하세요 [포토] 한지민, 러블리 가을 패션 [포토] 이정은, 부산국제영화제 첫 참석 [포토] 정진영, '욘더'로 인사드려요 [포토] 신하균, 목폴라도 품격있게 만든다 [포토] '욘더' 이준익 감독 [포토] 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 러브컨템포러리아트, 닥설랍 개인전 'Blurry Romanticism' 개최 [이상진 디렉터의 캘리문화] (6) 첩첩석중(疊疊石中) 아르코미술관, 대만과 한국-대만 비디오 교류 프로그램 개최 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 (04050) 서울특별시 마포구 양화로 156 (LG팰리스빌딩) 1727 대표전화 : 0269593256 팩스 : 023221666 법인명 : (주)엠에이치앤미디어 제호 : 문화뉴스 등록번호 : 서울 아 03015 등록일 : 2014-02-18 발행일 : 2014-02-18 발행·편집인 : 주진노 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.고충처리인 권혁재 02-6959-3256 press@mhns.co.kr Copyright © 2022 문화뉴스. All rights reserved. mail to eveleva@naver.com 위로 전체메뉴 전체기사 문화 전체 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 전체 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 전체 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 전체 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 전체 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 전체 인터뷰 오피니언 전체 기고·칼럼 리뷰 포토 보도자료 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>[황금연휴 추천 관광지] 10월에 제주도 아이와 함께 가볼 만한 곳③ 드라이브 코스 '금백조로-중산간도로' &lt; 리빙 &lt; 라이프 &lt; 기사본문 - 문화뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 매체소개 기사제보 구독하기 보도자료 등록 naverpost facebook instargram twitter navertv MHN 편집 : 2022-10-11 11:46 (화) 문화 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 인터뷰 포토 오피니언 기고·칼럼 리뷰 커뮤니티 보도자료 회원정보 로그인 회원가입 전체메뉴 버튼 최신뉴스 현대차그룹, 부산세계박람회 글로벌 SNS 콘텐츠 4천만뷰 돌파 난민 이의신청 절차, 더 투명해지고 공정해 진다 '2022 서울여성합창페스티벌' 개최...코로나19 이후 3년 만에 재개 안방에서 즐기는 궁궐체험 ‘2022 궁온 프로젝트’ 2차 접수 [22 가을 패션 추천] 제니→크리스탈 '패셔니스타'는 다 입었다...'바시티 자켓' 추천 5 문체부, ‘2022 문화의 달’ 기념행사 개최...다양한 공연 열려 [공연소식] 10월 둘째 주, 주목할 만한 클래식/무용 공연 2022년 10월11일(화) 오늘의운세 띠별, 별자리 [이번주뭐입지?] 힙한 룩부터 프레피 룩 까지...'부츠' 활용한 가을 코디 추천 뮤지컬 '캣츠', 오리지널 연출 부활과 함께 내한 공연 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 [황금연휴 추천 관광지] 10월에 제주도 아이와 함께 가볼 만한 곳③ 드라이브 코스 '금백조로-중산간도로' 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 라이프 리빙 [황금연휴 추천 관광지] 10월에 제주도 아이와 함께 가볼 만한 곳③ 드라이브 코스 '금백조로-중산간도로' 기자명 전서현 입력 2017.09.22 11:35 수정 2017.10.30 14:12 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [문화뉴스 MHN 전서현 기자] 여름의 끝자락에 봉곳이 솟아나기 시작하는 억새는 10월부터 11월 사이 제주 전역을 황금빛으로 뒤덮으며 장관을 이룬다. 태양 빛을 받아 반짝거리는 풍경 속을 드라이브 하다보면 내가 바람이 된 듯한 느낌으로 충만해진다. ▲ 주말에 데이트 코스로도 안성맞춤인 제주의 금백조로와 중간산도로 ©제주관광공사 특히 제주시 구좌읍부터 성산읍 수산리까지 약 10km에 이르는 금백조로는 억새를 가장 아름답게 볼 수 있는 곳으로 꼽히는 곳. 왕복 2차선의 좁은 도로를 드라이브하고 나면 풍요로운 기쁨으로 마음이 가득 차게 될 것이다.1100도로에서 동쪽으로 펼쳐진 산록남로(1115)를 달리면 바다를 품은 억새 풍경을 볼 수 있다. 납읍관광목장에서 어승생수원지까지, 또 천왕사와 관음사까지의 산록북로(1117)나 새별오름부근의 평화로도 드라이브하면서 찬란한 억새를 볼 수 있는 곳이다. jun0206@mhns.co.kr 주요기사 연금복권의 현재가치 계산! 연금복권 720 +, 일시불로 따지면 얼마? 제임스 웹 망원경이 보내온 첫 번째 사진...허블 망원경과 차이점은? 2022년 9급 공무원 월급과 연봉...과연 최저시급보다 적을까? [포토] 한소희 '예쁜 미소' 관련기사 "그레잇" 기대했던 '킹스맨: 골든 서클' 내한 행사 "스투핏"이 된 사연'화이트리스트'에 오른 배우와 개그맨 어떤 혜택 받았나?속시원히 말한 '아이 캔 스피크', 꼭 봐야하는 이유는?[MHN TV] 황치열 '반가움이 두배가 되는 포즈'(2017소리바다어워즈)[MHN TV] 레드벨벳 '여름이 지나도 여전한 청순미'(2017소리바다어워즈) 전서현의 다른 기사 보기 전서현 jun0206@mhns.co.kr 독자와 공감을 통해 더 나은 내일을 만들겠습니다. 최신기사 인기기사 저작권자 © 문화뉴스 무단전재 및 재배포 금지 포토 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 한지민, '욘더' 색다른 변신 기대하세요 [포토] 한지민, 러블리 가을 패션 [포토] 이정은, 부산국제영화제 첫 참석 [포토] 정진영, '욘더'로 인사드려요 [포토] 신하균, 목폴라도 품격있게 만든다 [포토] '욘더' 이준익 감독 [포토] 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 러브컨템포러리아트, 닥설랍 개인전 'Blurry Romanticism' 개최 [이상진 디렉터의 캘리문화] (6) 첩첩석중(疊疊石中) 아르코미술관, 대만과 한국-대만 비디오 교류 프로그램 개최 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 (04050) 서울특별시 마포구 양화로 156 (LG팰리스빌딩) 1727 대표전화 : 0269593256 팩스 : 023221666 법인명 : (주)엠에이치앤미디어 제호 : 문화뉴스 등록번호 : 서울 아 03015 등록일 : 2014-02-18 발행일 : 2014-02-18 발행·편집인 : 주진노 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.고충처리인 권혁재 02-6959-3256 press@mhns.co.kr Copyright © 2022 문화뉴스. All rights reserved. mail to eveleva@naver.com 위로 전체메뉴 전체기사 문화 전체 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 전체 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 전체 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 전체 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 전체 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 전체 인터뷰 오피니언 전체 기고·칼럼 리뷰 포토 보도자료 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>[황금연휴 추천 관광지] 10월에 제주도 아이와 함께 가볼 만한 곳⑤ 나를 위한 득템...편집샵 _ 함덕 멘도롱장 _ 일장추몽 &lt; 리빙 &lt; 라이프 &lt; 기사본문 - 문화뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 매체소개 기사제보 구독하기 보도자료 등록 naverpost facebook instargram twitter navertv MHN 편집 : 2022-10-11 11:46 (화) 문화 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 인터뷰 포토 오피니언 기고·칼럼 리뷰 커뮤니티 보도자료 회원정보 로그인 회원가입 전체메뉴 버튼 최신뉴스 현대차그룹, 부산세계박람회 글로벌 SNS 콘텐츠 4천만뷰 돌파 난민 이의신청 절차, 더 투명해지고 공정해 진다 '2022 서울여성합창페스티벌' 개최...코로나19 이후 3년 만에 재개 안방에서 즐기는 궁궐체험 ‘2022 궁온 프로젝트’ 2차 접수 [22 가을 패션 추천] 제니→크리스탈 '패셔니스타'는 다 입었다...'바시티 자켓' 추천 5 문체부, ‘2022 문화의 달’ 기념행사 개최...다양한 공연 열려 [공연소식] 10월 둘째 주, 주목할 만한 클래식/무용 공연 2022년 10월11일(화) 오늘의운세 띠별, 별자리 [이번주뭐입지?] 힙한 룩부터 프레피 룩 까지...'부츠' 활용한 가을 코디 추천 뮤지컬 '캣츠', 오리지널 연출 부활과 함께 내한 공연 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 [황금연휴 추천 관광지] 10월에 제주도 아이와 함께 가볼 만한 곳⑤ 나를 위한 득템...편집샵 _ 함덕 멘도롱장 _ 일장추몽 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 라이프 리빙 [황금연휴 추천 관광지] 10월에 제주도 아이와 함께 가볼 만한 곳⑤ 나를 위한 득템...편집샵 _ 함덕 멘도롱장 _ 일장추몽 기자명 전서현 입력 2017.09.22 11:44 수정 2017.10.30 14:11 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [문화뉴스 MHN 전서현 기자]한해를 열심히 달려온 당신. 아끼고 절약하느라 고생한 당신에게 특별하고 좋은 선물을 하나 해보는 건 어떨까. 제주에 생긴 편집샵들은 제주의 상징들을 유니크한 아이디어로 담아낸 제품들을 판매하는 것으로 유명하다. ▲ ©제주관광공사 바다에 버려져있는 유리조각을 수거해 만든 액세서리나 제주 바다를 표현해낸 캔들, 돌고래와 해녀 모빌, 에코백과 엽서 등 다양한 제품들이 있다.함덕 바닷가에서 열리는 멘도롱장이나 세화 해녀박물관 근처에서 열리는 일장추몽은 플리마켓에서 득템하고 싶은 사람들을 위한 곳. 규모는 작지만 아름다운 풍광이 더해져 운치가 있다. 제주시에는 고블락 제주, 당근가게, 더 아일랜더, 동쪽으로는 달리센트, 산호상점, B일상잡화점, 시간의 무늬, 서쪽으로는 응스테이&amp;샵, 디자인 AB, 베리제주 등이 있다. jun0206@mhns.co.kr 주요기사 연금복권의 현재가치 계산! 연금복권 720 +, 일시불로 따지면 얼마? 제임스 웹 망원경이 보내온 첫 번째 사진...허블 망원경과 차이점은? 2022년 9급 공무원 월급과 연봉...과연 최저시급보다 적을까? [포토] 한소희 '예쁜 미소' 관련기사 "그레잇" 기대했던 '킹스맨: 골든 서클' 내한 행사 "스투핏"이 된 사연'화이트리스트'에 오른 배우와 개그맨 어떤 혜택 받았나?속시원히 말한 '아이 캔 스피크', 꼭 봐야하는 이유는?[MHN TV] 황치열 '반가움이 두배가 되는 포즈'(2017소리바다어워즈)[MHN TV] 레드벨벳 '여름이 지나도 여전한 청순미'(2017소리바다어워즈) 전서현의 다른 기사 보기 전서현 jun0206@mhns.co.kr 독자와 공감을 통해 더 나은 내일을 만들겠습니다. 최신기사 인기기사 저작권자 © 문화뉴스 무단전재 및 재배포 금지 포토 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 한지민, '욘더' 색다른 변신 기대하세요 [포토] 한지민, 러블리 가을 패션 [포토] 이정은, 부산국제영화제 첫 참석 [포토] 정진영, '욘더'로 인사드려요 [포토] 신하균, 목폴라도 품격있게 만든다 [포토] '욘더' 이준익 감독 [포토] 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 러브컨템포러리아트, 닥설랍 개인전 'Blurry Romanticism' 개최 [이상진 디렉터의 캘리문화] (6) 첩첩석중(疊疊石中) 아르코미술관, 대만과 한국-대만 비디오 교류 프로그램 개최 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 (04050) 서울특별시 마포구 양화로 156 (LG팰리스빌딩) 1727 대표전화 : 0269593256 팩스 : 023221666 법인명 : (주)엠에이치앤미디어 제호 : 문화뉴스 등록번호 : 서울 아 03015 등록일 : 2014-02-18 발행일 : 2014-02-18 발행·편집인 : 주진노 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.고충처리인 권혁재 02-6959-3256 press@mhns.co.kr Copyright © 2022 문화뉴스. All rights reserved. mail to eveleva@naver.com 위로 전체메뉴 전체기사 문화 전체 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 전체 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 전체 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 전체 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 전체 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 전체 인터뷰 오피니언 전체 기고·칼럼 리뷰 포토 보도자료 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>[황금연휴 추천 관광지] 10월에 제주도 아이와 함께 가볼 만한 곳⑥바람에 실은 소망 하나...광치기해변, 새별오름 연날리기 체험 &lt; 리빙 &lt; 라이프 &lt; 기사본문 - 문화뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 매체소개 기사제보 구독하기 보도자료 등록 naverpost facebook instargram twitter navertv MHN 편집 : 2022-10-11 11:46 (화) 문화 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 인터뷰 포토 오피니언 기고·칼럼 리뷰 커뮤니티 보도자료 회원정보 로그인 회원가입 전체메뉴 버튼 최신뉴스 현대차그룹, 부산세계박람회 글로벌 SNS 콘텐츠 4천만뷰 돌파 난민 이의신청 절차, 더 투명해지고 공정해 진다 '2022 서울여성합창페스티벌' 개최...코로나19 이후 3년 만에 재개 안방에서 즐기는 궁궐체험 ‘2022 궁온 프로젝트’ 2차 접수 [22 가을 패션 추천] 제니→크리스탈 '패셔니스타'는 다 입었다...'바시티 자켓' 추천 5 문체부, ‘2022 문화의 달’ 기념행사 개최...다양한 공연 열려 [공연소식] 10월 둘째 주, 주목할 만한 클래식/무용 공연 2022년 10월11일(화) 오늘의운세 띠별, 별자리 [이번주뭐입지?] 힙한 룩부터 프레피 룩 까지...'부츠' 활용한 가을 코디 추천 뮤지컬 '캣츠', 오리지널 연출 부활과 함께 내한 공연 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 [황금연휴 추천 관광지] 10월에 제주도 아이와 함께 가볼 만한 곳⑥바람에 실은 소망 하나...광치기해변, 새별오름 연날리기 체험 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 라이프 리빙 [황금연휴 추천 관광지] 10월에 제주도 아이와 함께 가볼 만한 곳⑥바람에 실은 소망 하나...광치기해변, 새별오름 연날리기 체험 기자명 전서현 입력 2017.09.22 11:49 수정 2017.10.30 14:11 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [문화뉴스 MHN 전서현 기자]맑고 청아한 하늘 위, 선을 그리며 자유롭게 유영하는 연을 보며 소망을 실어 보낸다. ▲ 새별오름 연날리기 체험은 자녀들의 체험학습에도 좋아 주말에 아이와 함께 가볼 만한 곳으로 안성맞춤이다 ©제주관광공사 연이 바람을 타며 높이 날아오를수록 깨우치게 되는 것은 맞바람은 나를 가로막는 방해꾼이 아니라 내가 더 높이 날 수 있는 도구가 된다는 사실. 마음에 짊어진 짐이 조금은 가벼워질 지도 모른다.고려 최영장군이 제주도의 몽골세력을 축출할 때 연을 이용했다는 이야기가 전해질 정도로 제주와 연은 관계가 깊다. 연박물관이 있는 한울랜드나 새별오름, 너른 벌판 등 복잡한 구조물이 없는 지역에서 종종 연 날리는 모습을 볼 수 있다. 가을 여행주간인 10월21일부터 11월5일까지 16일 동안 새별오름과 광치기해변에서는 연날리기를 할 수 있는 키트 100개를 선착순으로 무료 제공해준다. jun0206@mhns.co.kr 주요기사 연금복권의 현재가치 계산! 연금복권 720 +, 일시불로 따지면 얼마? 제임스 웹 망원경이 보내온 첫 번째 사진...허블 망원경과 차이점은? 2022년 9급 공무원 월급과 연봉...과연 최저시급보다 적을까? [포토] 한소희 '예쁜 미소' 관련기사 "그레잇" 기대했던 '킹스맨: 골든 서클' 내한 행사 "스투핏"이 된 사연'화이트리스트'에 오른 배우와 개그맨 어떤 혜택 받았나?속시원히 말한 '아이 캔 스피크', 꼭 봐야하는 이유는?[MHN TV] 황치열 '반가움이 두배가 되는 포즈'(2017소리바다어워즈)[MHN TV] 레드벨벳 '여름이 지나도 여전한 청순미'(2017소리바다어워즈) 전서현의 다른 기사 보기 전서현 jun0206@mhns.co.kr 독자와 공감을 통해 더 나은 내일을 만들겠습니다. 최신기사 인기기사 저작권자 © 문화뉴스 무단전재 및 재배포 금지 포토 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 한지민, '욘더' 색다른 변신 기대하세요 [포토] 한지민, 러블리 가을 패션 [포토] 이정은, 부산국제영화제 첫 참석 [포토] 정진영, '욘더'로 인사드려요 [포토] 신하균, 목폴라도 품격있게 만든다 [포토] '욘더' 이준익 감독 [포토] 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 러브컨템포러리아트, 닥설랍 개인전 'Blurry Romanticism' 개최 [이상진 디렉터의 캘리문화] (6) 첩첩석중(疊疊石中) 아르코미술관, 대만과 한국-대만 비디오 교류 프로그램 개최 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 (04050) 서울특별시 마포구 양화로 156 (LG팰리스빌딩) 1727 대표전화 : 0269593256 팩스 : 023221666 법인명 : (주)엠에이치앤미디어 제호 : 문화뉴스 등록번호 : 서울 아 03015 등록일 : 2014-02-18 발행일 : 2014-02-18 발행·편집인 : 주진노 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.고충처리인 권혁재 02-6959-3256 press@mhns.co.kr Copyright © 2022 문화뉴스. All rights reserved. mail to eveleva@naver.com 위로 전체메뉴 전체기사 문화 전체 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 전체 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 전체 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 전체 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 전체 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 전체 인터뷰 오피니언 전체 기고·칼럼 리뷰 포토 보도자료 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>[황금연휴 추천 관광지] 10월에 제주도 아이와 함께 가볼 만한 곳⑦ '중문진실캠핑장 제주 삼무의 밤'...마음의 실타래를 풀어가는 밤 &lt; 리빙 &lt; 라이프 &lt; 기사본문 - 문화뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 매체소개 기사제보 구독하기 보도자료 등록 naverpost facebook instargram twitter navertv MHN 편집 : 2022-10-11 11:46 (화) 문화 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 인터뷰 포토 오피니언 기고·칼럼 리뷰 커뮤니티 보도자료 회원정보 로그인 회원가입 전체메뉴 버튼 최신뉴스 현대차그룹, 부산세계박람회 글로벌 SNS 콘텐츠 4천만뷰 돌파 난민 이의신청 절차, 더 투명해지고 공정해 진다 '2022 서울여성합창페스티벌' 개최...코로나19 이후 3년 만에 재개 안방에서 즐기는 궁궐체험 ‘2022 궁온 프로젝트’ 2차 접수 [22 가을 패션 추천] 제니→크리스탈 '패셔니스타'는 다 입었다...'바시티 자켓' 추천 5 문체부, ‘2022 문화의 달’ 기념행사 개최...다양한 공연 열려 [공연소식] 10월 둘째 주, 주목할 만한 클래식/무용 공연 2022년 10월11일(화) 오늘의운세 띠별, 별자리 [이번주뭐입지?] 힙한 룩부터 프레피 룩 까지...'부츠' 활용한 가을 코디 추천 뮤지컬 '캣츠', 오리지널 연출 부활과 함께 내한 공연 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 [황금연휴 추천 관광지] 10월에 제주도 아이와 함께 가볼 만한 곳⑦ '중문진실캠핑장 제주 삼무의 밤'...마음의 실타래를 풀어가는 밤 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 라이프 리빙 [황금연휴 추천 관광지] 10월에 제주도 아이와 함께 가볼 만한 곳⑦ '중문진실캠핑장 제주 삼무의 밤'...마음의 실타래를 풀어가는 밤 기자명 전서현 입력 2017.09.22 11:53 수정 2017.10.30 14:11 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [문화뉴스 MHN 전서현 기자]중문진실캠핑장에서는 가을밤을 밝혀줄 작은 공연이 펼쳐진다. 10월 21일, 28일, 11월 4일 토요일 사흘간 '제주 삼무의 밤'이라는 주제로 인디밴드의 공연, 바비큐 등이 어우러진 문화관광파티가 진행된다. ▲ ©제주관광공사 중문관광단지 천제연공원내에 위치한 중문진실캠핑장은 모든 시설이 세팅되어 있는 캠프장으로 캠핑장비가 없어도 캠핑의 재미와 멋을 느껴볼 수 있는 곳이다.캠핑장에 숙박하며 파티에 참여해도 되고, 이벤트에만 참여할 수도 있다. 따뜻한 불 옆에 둘러앉아 함께 식사를 하고 이야기를 나누는 시간 속에서 마음에 얽혔던 실타래가 풀어지지 않을까. jun0206@mhns.co.kr 주요기사 연금복권의 현재가치 계산! 연금복권 720 +, 일시불로 따지면 얼마? 제임스 웹 망원경이 보내온 첫 번째 사진...허블 망원경과 차이점은? 2022년 9급 공무원 월급과 연봉...과연 최저시급보다 적을까? [포토] 한소희 '예쁜 미소' 관련기사 "그레잇" 기대했던 '킹스맨: 골든 서클' 내한 행사 "스투핏"이 된 사연'화이트리스트'에 오른 배우와 개그맨 어떤 혜택 받았나?속시원히 말한 '아이 캔 스피크', 꼭 봐야하는 이유는?[MHN TV] 황치열 '반가움이 두배가 되는 포즈'(2017소리바다어워즈)[MHN TV] 레드벨벳 '여름이 지나도 여전한 청순미'(2017소리바다어워즈) 전서현의 다른 기사 보기 전서현 jun0206@mhns.co.kr 독자와 공감을 통해 더 나은 내일을 만들겠습니다. 최신기사 인기기사 저작권자 © 문화뉴스 무단전재 및 재배포 금지 포토 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 한지민, '욘더' 색다른 변신 기대하세요 [포토] 한지민, 러블리 가을 패션 [포토] 이정은, 부산국제영화제 첫 참석 [포토] 정진영, '욘더'로 인사드려요 [포토] 신하균, 목폴라도 품격있게 만든다 [포토] '욘더' 이준익 감독 [포토] 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 러브컨템포러리아트, 닥설랍 개인전 'Blurry Romanticism' 개최 [이상진 디렉터의 캘리문화] (6) 첩첩석중(疊疊石中) 아르코미술관, 대만과 한국-대만 비디오 교류 프로그램 개최 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 (04050) 서울특별시 마포구 양화로 156 (LG팰리스빌딩) 1727 대표전화 : 0269593256 팩스 : 023221666 법인명 : (주)엠에이치앤미디어 제호 : 문화뉴스 등록번호 : 서울 아 03015 등록일 : 2014-02-18 발행일 : 2014-02-18 발행·편집인 : 주진노 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.고충처리인 권혁재 02-6959-3256 press@mhns.co.kr Copyright © 2022 문화뉴스. All rights reserved. mail to eveleva@naver.com 위로 전체메뉴 전체기사 문화 전체 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 전체 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 전체 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 전체 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 전체 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 전체 인터뷰 오피니언 전체 기고·칼럼 리뷰 포토 보도자료 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-11 12:33 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N2 이전 다음 제주도관광협회 홍보관, 부산국제관광전 ‘최우수’ 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 경제 관광 제주도관광협회 홍보관, 부산국제관광전 ‘최우수’ 김형훈 기자 승인 2017.09.12 11:11 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도관광협회가 제20회 부산국제관광전에 참가, 최우수 홍보상을 받았다. 도관광협회는 지난 8일부터 부산벡스코에서 열린 관광전에서 제주관광홍보관을 운영하며 제주 상품을 적극 홍보했다. 특히 제주여행 오픈마켓인 ‘탐나오’ 회원가입 이벤트를 진행, 홈페이지 신규 가입회원을 1100명 이상 모집하는 성과도 거뒀다. &lt;김형훈 기자 / 저작권자 ⓒ 미디어제주 무단전재 및 재배포 금지&gt; 저작권자 © 미디어제주 무단전재 및 재배포 금지 김형훈 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 실시간 댓글 동굴 몇개 살리자구 하수처리장 이전하면 그돈은 니그들이 낼거냐 일본 후쿠시마 원전페수 방수하는데가서 아주 죽 욱 살면서 대모혀라 실제 월정리 주민들은 그간 동굴과 하수처리장 문제로 골머리를 앓고 있어 새로운 동굴이 발견되면 보호구역 확대에 의한 토지 수용이나 제한으로 재산상 손해가 생길까봐 동굴이 없는게 오히려 좋겠다는 분들도 계십니다. 월정리가 동굴마을로 지정되어 제한만 할께 아니라 하수처리장 철거로 완전한 동굴보호 마을의 역할을 하게해서 마을에 실질적 도움이 될 수 있는 조처도 취해져야 합니다 오늘 강순석 제주지질연구소장님의 새로운 본류 동굴 존재 할 수 있다는 기자회견은 다년간 지질연구하시면서 현장에서 느끼는 전문가의 촉이 있으신것 같습니다. 제주의회 정밀탐사 촉구도 있었으니 하수처리장 존재에 영향을 받지 않을 학술적 가치에 중점인 정밀 지질 탐사가 다시 이루어지기를 기대해 봅니다. 2009년 이후 탐사기법도 더욱 발전 했으니 더 정밀한 탐사가 가능할 것 입니다. 월정리는 만장굴. 사굴과도 마을 경계상에 위치해 있고 그 밑으로 용천굴. 당처물 동굴. 남지미 동굴이 계속 발견되었는데 올 6월에는 제주 의회에서도 정밀 탐사가 필요하다는 의견이 있었습니다만 구체적 탐사 움직임은 보이지 않는것 같습니다 2007년 탐사 ~2009년 보고서는 매우 과학적 동굴탐사인 지표투과 레이더 탐사도 했다지만 그 당시 현장을 지켜본 마을분 증언에 의하면 하수처리장 근처로는 탐사를 회피하는 듯 했다고도 합니다. 지금까지 과정을 보면 보호구역도 하수처리장 경계로 갑자기 2구역에서 4구역으로 완화되게 설정되어 있습니다. 문제의 하수처리장 보호를 위해 안간힘을 써 온것 같은데 하수처리장 철거가 되어야 동굴 탐사도 객관적으로 학술적으로 실제적으로 가능한게 아닌가 의구심을 가져 봅니다 가장 많이 읽은 기사 1제주시, 청년월세 월 20만원씩 최대 12개월 지원 2일상의 배려, 성숙된 시민의식 빛낸다. 3서귀포시, 올해 교통유발부담금 21억 원 부과 4‘2022 Trans Jeju 국제 트레일러닝대회’ 성황리에 폐막 5코로나19 이후 큰 폭 증가 제주 실업자수, 점차 회복세 6&lt;정정보도&gt; 해수부 규정 어긴 영상 공모전 입상 의혹, 사실 아닌 것으로 확인 7최고가 다투는 제주 휘발유 값, 제주도 2차 민간조사 돌입 SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
+  </si>
+  <si>
+    <t>제주관광공사 사장에 박홍배 前 제주도 국장 내정 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주관광공사 사장에 박홍배 前 제주도 국장 내정 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주관광공사 사장에 박홍배 前 제주도 국장 내정 기자명 고병수 기자 입력 2017.09.07 14:08 수정 2017.09.07 14:12 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 제주관광공사 사장에 내정된 박홍배 前 제주도 특별자치행정국장. (제주=국제뉴스) 고병수 기자 = 제주특별자치도는 제4대 제주관광공사 사장 임용후보자에 제주시 애월읍 출신의 박홍배 前 제주도 특별자치행정국장을 내정했다.박홍배 임용후보자는 41년간 공직사회에 근무하면서 투자정책과장, 국제자유도시과장, 경제산업국장, 특별자치행정국장 등 주요요직을 역임했다.또한 조직관리 전반에 대한 지식과 경력을 가진 행정 전문가이자 제주 지역특성을 잘 이해하고 있고 제주관광공사의 위기관리는 물론 명실상부한 도민의 기업으로 육성해 나갈 수 있는 적임자라는 평가다. 관계자는 "신임 박홍배 사장내정자는 9월 신원조사와 사장 내정자 인사 청문회를 거쳐 10월 사장으로 임명된다"고 말했다.   ◆ 주요경력- 제주특별자치도 투자정책과장 (10~11년)- 제주특별자치도 국제자유도시과장(11~13년)- 제주특별자치도 서울본부장 (13~14년)- 제주특별자치도 교통제도개선단장 (14~15년)- 제주특별자치도 경제산업국장 (15~16년)- 제주특별자치도 특별자치행정국장(16년)- 제주자치도 공로연수 (17년~현재) 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>[황금연휴 추천 관광지] 10월에 제주도 아이와 함께 가볼 만한 곳⑩제주의 청정 자연을 식탁으로...'명도암 참살이 마을, 아침미소목장, 까망고띠' &lt; 리빙 &lt; 라이프 &lt; 기사본문 - 문화뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 매체소개 기사제보 구독하기 보도자료 등록 naverpost facebook instargram twitter navertv MHN 편집 : 2022-10-11 11:46 (화) 문화 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 인터뷰 포토 오피니언 기고·칼럼 리뷰 커뮤니티 보도자료 회원정보 로그인 회원가입 전체메뉴 버튼 최신뉴스 현대차그룹, 부산세계박람회 글로벌 SNS 콘텐츠 4천만뷰 돌파 난민 이의신청 절차, 더 투명해지고 공정해 진다 '2022 서울여성합창페스티벌' 개최...코로나19 이후 3년 만에 재개 안방에서 즐기는 궁궐체험 ‘2022 궁온 프로젝트’ 2차 접수 [22 가을 패션 추천] 제니→크리스탈 '패셔니스타'는 다 입었다...'바시티 자켓' 추천 5 문체부, ‘2022 문화의 달’ 기념행사 개최...다양한 공연 열려 [공연소식] 10월 둘째 주, 주목할 만한 클래식/무용 공연 2022년 10월11일(화) 오늘의운세 띠별, 별자리 [이번주뭐입지?] 힙한 룩부터 프레피 룩 까지...'부츠' 활용한 가을 코디 추천 뮤지컬 '캣츠', 오리지널 연출 부활과 함께 내한 공연 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 [황금연휴 추천 관광지] 10월에 제주도 아이와 함께 가볼 만한 곳⑩제주의 청정 자연을 식탁으로...'명도암 참살이 마을, 아침미소목장, 까망고띠' 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 라이프 리빙 [황금연휴 추천 관광지] 10월에 제주도 아이와 함께 가볼 만한 곳⑩제주의 청정 자연을 식탁으로...'명도암 참살이 마을, 아침미소목장, 까망고띠' 기자명 전서현 입력 2017.09.22 12:11 수정 2017.10.30 14:10 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [문화뉴스 MHN 전서현 기자] 나를 위하는 삶은 좋은 것을 먹는 것에서부터 시작한다. 식사는 물론 디저트까지, 청정자연에서 얻은 재료들로 만든 음식들은 나의 삶을 윤택하게 해준다. ▲ ©제주관광공사 아침미소목장에서는 우유로 아이스크림을 직접 만들어 먹을 수 있다. 체험비는 5천원으로 아이들이 좋아한다. 우유를 10배 농축한 커드를 이용해 치즈를 만드는 체험 또한 가능한데 단체만 예약이 가능하다.거문오름 블랙푸드육성사업단 까망고띠에서는 제주 특산물인 오메기떡을 만드는 체험이 가능하다. 체험비는 1만5천원으로 차조가루를 반죽해 찌고 빚는 등 직접 오메기떡을 만들어 먹을 수 있다. 가족이나 친구끼리 4명 이상 신청하면 예약이 가능하다. 소요시간은 한 시간에서 한 시간 반 정도. 명도암 참살이 마을에서는 겉절이, 열무김치 등 김장체험이 가능하다. 제주산 멸치젓, 조기육수, 고춧가루 및 항아리에서 숙성시킨 효소를 사용해서 웰빙김치를 만든다. 비용은 12,000원이며 원하는 사람에 한해 1kg정도를 갖고 갈 수 있다. 11월부터는 된장, 고추장 등 장담그기 체험도 가능하다. jun0206@mhns.co.kr 주요기사 연금복권의 현재가치 계산! 연금복권 720 +, 일시불로 따지면 얼마? 제임스 웹 망원경이 보내온 첫 번째 사진...허블 망원경과 차이점은? 2022년 9급 공무원 월급과 연봉...과연 최저시급보다 적을까? [포토] 한소희 '예쁜 미소' 관련기사 "그레잇" 기대했던 '킹스맨: 골든 서클' 내한 행사 "스투핏"이 된 사연'화이트리스트'에 오른 배우와 개그맨 어떤 혜택 받았나?속시원히 말한 '아이 캔 스피크', 꼭 봐야하는 이유는?[MHN TV] 황치열 '반가움이 두배가 되는 포즈'(2017소리바다어워즈)[MHN TV] 레드벨벳 '여름이 지나도 여전한 청순미'(2017소리바다어워즈) 전서현의 다른 기사 보기 전서현 jun0206@mhns.co.kr 독자와 공감을 통해 더 나은 내일을 만들겠습니다. 최신기사 인기기사 저작권자 © 문화뉴스 무단전재 및 재배포 금지 포토 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 한지민, '욘더' 색다른 변신 기대하세요 [포토] 한지민, 러블리 가을 패션 [포토] 이정은, 부산국제영화제 첫 참석 [포토] 정진영, '욘더'로 인사드려요 [포토] 신하균, 목폴라도 품격있게 만든다 [포토] '욘더' 이준익 감독 [포토] 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 러브컨템포러리아트, 닥설랍 개인전 'Blurry Romanticism' 개최 [이상진 디렉터의 캘리문화] (6) 첩첩석중(疊疊石中) 아르코미술관, 대만과 한국-대만 비디오 교류 프로그램 개최 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 (04050) 서울특별시 마포구 양화로 156 (LG팰리스빌딩) 1727 대표전화 : 0269593256 팩스 : 023221666 법인명 : (주)엠에이치앤미디어 제호 : 문화뉴스 등록번호 : 서울 아 03015 등록일 : 2014-02-18 발행일 : 2014-02-18 발행·편집인 : 주진노 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.고충처리인 권혁재 02-6959-3256 press@mhns.co.kr Copyright © 2022 문화뉴스. All rights reserved. mail to eveleva@naver.com 위로 전체메뉴 전체기사 문화 전체 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 전체 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 전체 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 전체 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 전체 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 전체 인터뷰 오피니언 전체 기고·칼럼 리뷰 포토 보도자료 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>[황금연휴 추천 관광지] 10월에 제주도 아이와 함께 가볼 만한 곳④ 효리네 민박 손님처럼 제주 속살 탐험하기... 제주 지질 탐험 &amp; 현무암 체험 &lt; 리빙 &lt; 라이프 &lt; 기사본문 - 문화뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 매체소개 기사제보 구독하기 보도자료 등록 naverpost facebook instargram twitter navertv MHN 편집 : 2022-10-11 11:46 (화) 문화 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 인터뷰 포토 오피니언 기고·칼럼 리뷰 커뮤니티 보도자료 회원정보 로그인 회원가입 전체메뉴 버튼 최신뉴스 현대차그룹, 부산세계박람회 글로벌 SNS 콘텐츠 4천만뷰 돌파 난민 이의신청 절차, 더 투명해지고 공정해 진다 '2022 서울여성합창페스티벌' 개최...코로나19 이후 3년 만에 재개 안방에서 즐기는 궁궐체험 ‘2022 궁온 프로젝트’ 2차 접수 [22 가을 패션 추천] 제니→크리스탈 '패셔니스타'는 다 입었다...'바시티 자켓' 추천 5 문체부, ‘2022 문화의 달’ 기념행사 개최...다양한 공연 열려 [공연소식] 10월 둘째 주, 주목할 만한 클래식/무용 공연 2022년 10월11일(화) 오늘의운세 띠별, 별자리 [이번주뭐입지?] 힙한 룩부터 프레피 룩 까지...'부츠' 활용한 가을 코디 추천 뮤지컬 '캣츠', 오리지널 연출 부활과 함께 내한 공연 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 [황금연휴 추천 관광지] 10월에 제주도 아이와 함께 가볼 만한 곳④ 효리네 민박 손님처럼 제주 속살 탐험하기... 제주 지질 탐험 &amp; 현무암 체험 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 라이프 리빙 [황금연휴 추천 관광지] 10월에 제주도 아이와 함께 가볼 만한 곳④ 효리네 민박 손님처럼 제주 속살 탐험하기... 제주 지질 탐험 &amp; 현무암 체험 기자명 전서현 입력 2017.09.22 11:40 수정 2017.10.30 14:12 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [문화뉴스 MHN 전서현 기자] 제주를 상징하는 현무암은 제주 전역에 있지만, 좀더 가까이 들여다 보고 싶다면 지질 탐험이나 현무암 체험을 추천한다. ▲ ©제주관광공사 섬 전체가 지질트레일이라고 부를 수 있을 정도로 제주는 지질공부를 많이 할 수 있는 곳이다. 지오트레일로 유명한 산방산, 용머리 해안과 성산, 오조 지역을 걸으며 거대한 시간의 흔적 속에 서보자.거대한 자연의 시공간 앞에서 나를 돌아보는 시간을 갖기에 지질 트레일은 좋은 소재다.조금 더 본격적으로 공부해보고 싶다면 가을 여행 주간인 10월 21일부터 11월 5일까지 지질공원해설사의 강의를 들으며 진행하는 지오스쿨에 등록해 제주의 지질을 탐험해보자. 탐험에 참여한 관광객들은 수료증도 받을 수 있다. 또, 이 기간 동안 제주의 돌을 직접적으로 체험하는 돌체험학교도 열린다. 제주의 상징인 돌담 쌓기를 비롯해 원담 체험, 잣질 걷기, 명월진성걷기 등이 돌빛나예술학교에서 열린다. jun0206@mhns.co.kr 주요기사 연금복권의 현재가치 계산! 연금복권 720 +, 일시불로 따지면 얼마? 제임스 웹 망원경이 보내온 첫 번째 사진...허블 망원경과 차이점은? 2022년 9급 공무원 월급과 연봉...과연 최저시급보다 적을까? [포토] 한소희 '예쁜 미소' 관련기사 "그레잇" 기대했던 '킹스맨: 골든 서클' 내한 행사 "스투핏"이 된 사연'화이트리스트'에 오른 배우와 개그맨 어떤 혜택 받았나?속시원히 말한 '아이 캔 스피크', 꼭 봐야하는 이유는?[MHN TV] 황치열 '반가움이 두배가 되는 포즈'(2017소리바다어워즈)[MHN TV] 레드벨벳 '여름이 지나도 여전한 청순미'(2017소리바다어워즈) 전서현의 다른 기사 보기 전서현 jun0206@mhns.co.kr 독자와 공감을 통해 더 나은 내일을 만들겠습니다. 최신기사 인기기사 저작권자 © 문화뉴스 무단전재 및 재배포 금지 포토 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 한지민, '욘더' 색다른 변신 기대하세요 [포토] 한지민, 러블리 가을 패션 [포토] 이정은, 부산국제영화제 첫 참석 [포토] 정진영, '욘더'로 인사드려요 [포토] 신하균, 목폴라도 품격있게 만든다 [포토] '욘더' 이준익 감독 [포토] 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 러브컨템포러리아트, 닥설랍 개인전 'Blurry Romanticism' 개최 [이상진 디렉터의 캘리문화] (6) 첩첩석중(疊疊石中) 아르코미술관, 대만과 한국-대만 비디오 교류 프로그램 개최 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 (04050) 서울특별시 마포구 양화로 156 (LG팰리스빌딩) 1727 대표전화 : 0269593256 팩스 : 023221666 법인명 : (주)엠에이치앤미디어 제호 : 문화뉴스 등록번호 : 서울 아 03015 등록일 : 2014-02-18 발행일 : 2014-02-18 발행·편집인 : 주진노 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.고충처리인 권혁재 02-6959-3256 press@mhns.co.kr Copyright © 2022 문화뉴스. All rights reserved. mail to eveleva@naver.com 위로 전체메뉴 전체기사 문화 전체 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 전체 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 전체 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 전체 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 전체 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 전체 인터뷰 오피니언 전체 기고·칼럼 리뷰 포토 보도자료 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도렌트카협동조합, 제주관광공사와 업무협약…중문 면세점 최대 15%할인 가능 - IT조선 &gt; 모빌리티 제주도렌트카협동조합, 제주관광공사와 업무협약…중문 면세점 최대 15%할인 가능 0 0 북마크 완료! 마이페이지의 ‘북마크한 기사’에서 읽으실 수 있습니다. 북마크한 기사 보러가기 온라인뉴스팀 입력 2017.09.18 18:07 올바른 제주도 렌트카 시장을 선도하는 제주도렌트카협동조합(JRCOOP)이 지난달 제주관광공사와 업무 협약을 체결, 자사 렌트카 이용 고객에게 면세점 제품을 최대 15%까지 할인해 주는 행사를 진행 중이라고 밝혔다. 제주도렌트카협동조합은 지난달 2일부터 제주관광공사가 운영하는 중문단지 내국인 면세점에서 제품을 구매할 경우, 렌트카협동조합에서 전달한 렌트카 예약 안내 문자('JRCOOP·제주도렌트카협동조합을 통해서 OO렌트카로 배정')를 제시하면 7~8% 할인받을 수 있는 쿠폰을 받을 수 있다. 해당 면세점 할인은 협약이 진행되는 기간 내내 가능하다. 협약은 올 12월말까지다. 특별한 결격사유가 없는 한 연장될 가능성이 높다고 회사 측은 내다봤다.이와는 별도로 제주도 중문단지 내국민 면세점도 9월부터 10월 말까지, 2개월동안 제주도렌트카협동조합 이용고객만을 대상으로 최대 15%까지 할인해 주는 자체행사도 열고 있다. 제주도 중문단지 내국인 면세점은 SK2, LANCOME, 오휘, 빌리프, 정관장 등 국내외 50여개 명품 브랜드가 입점해 있다. 제주를 찾는 관광객 누구나 이용가능하며, 운영시간은 오전 10시부터 저녁 8시까지다.제주도렌트카협동조합은 제주도내 중소렌트카 전문기업 11개 기업이 함께 만든 협동조합으로 에코렌트카, 타시오렌트카, 레인보우렌트카, 제주유명렌트카, 예스렌트카, 통일렌트카, 얄렌트카, 메이저렌트카, 썬렌트카, 오라렌트카, 갤럭시렌트카 등이 함께 하고 있다. 협동조합 관계자는 "제주도 중문단지 면세점 할인혜택은 '오직 협동조합 이용고객에게만'해당된다"며 "앞으로도 다양한 제주도 관광단와 기관들과 협약을 체결해 협동조합 고객들에게 다양한 혜택을 줄 수 있도록 노력하겠다"고 말했다. 0 주요 뉴스 지금 주목할 뉴스</t>
+  </si>
+  <si>
+    <t>[그시절] 1963년 제주도관광호텔 개장식 - 울산매일 2022.10.11 화 로그인 회원가입 페이스북 트위터 인스타그램 카카오스토리채널 기사제보독자투고 광고신청 구독신청 전체 뉴스Now 오피니언 사설 반구대 매일시론 경제칼럼 자치시대 문화산책 현장소리 사는이야기 기고 뉴스에세이 아침을 여는 시 데스크 칼럼 기자의 눈 울산의 창 남은우의 시산책 흑백사진 속으로 하주의 공연읽기 박용하의 문화읽기 배창호의 영화읽기 기타 오나경의 21세기미술관 김병길주필 회상록 울매詩選 허명·이인호의 문화 줌인 예채영의 미술읽기 매일통신 독자투고 에너지칼럼 자치시대 김동수의 세상만사 황일순 칼럼 풍력칼럼 울산을 읊다 정치 종합 지방의회 국회/정당 행정/외교 북한/통일 대통령실 선거 기타 경제 기업 경제단체 금융/증권 유통 건설/부동산 해운/항만 농축수산업 중소기업 기타 사회 노동 환경/생태 교육 자치단체 검찰/법조 사건/사고 사회단체 기타 문화 공연 전시 축제/행사 향토문화사 문화재 문학/출판 영화 울산맛집 종교 울산 방송가 김일훈의 민속을 말하다 김창일의 울산 농어촌 사계 박영식 시인의 육필의 향기 드론으로 보는 울산의 문화재 민용기의 POP과 JAZZ 태화강재즈페스티벌 음악에세이 연재 문화정책 육필의 향기 렌즈속 이야기 기타 김태환 연재소설 수상 집콕문화생활즐기기 울산 여성독립운동 톺아보기 울산 지질지형유산 둘러보기 포토 포토뉴스 만평 이슈포토 그래픽 카드뉴스 그시절 산속 풍경 렌즈 속 이야기 화보 남북정상회담 U TV 공간 울림 우당탕탕 · 체인지 같이 밥먹을래요? · 백썰기 기획 특집 뉴스 VR 매일+ 독자 영상 영상스케치 여행영상 맛집 카드뉴스 415 중구 415 남구갑/을 415 북구 415 동구 415 울주군 덕질의 세계 사람과삶 사람과삶 외신 연예 방송 연예가 영화 음악 기타 스포츠 축구 야구 농구 골프 울산체육 기타 지방 부산 양산 기타 기획 기획특집 대한민국 인류유산 대곡천암각화군 울산옛터비에 담긴 기억들 울산이 부른다 Life&amp;Joy 와이드인터뷰 부동산 해오름 문화유산탐방 건강의료 울산야생화 탐사 기타 생활정보 날씨 행사 경제지표 오늘운세 로또 건강생활Q&amp;A 경매 생활법률 회화-중국어 회화-영어 고용/노동 Q&amp;A 증권 정보과학 기타 열린마당 본사알림 알림 부음 결혼 인사 모집 독자권익위원회 청소년기자 뉴스 뉴스NOW 정치 지방선거 경제 사회 문화 사람과삶 외신 연예 스포츠 지방 공공기관장 사퇴 종용 · 5급 이상 무한경쟁 ‘폭탄 발언’ ‘함께뛰는 울산 하나되는 대한민국’ 7일간의 열전 돌입 삼동면 관광농원 특혜 보따리? … 이번엔 글램핑 분양 논란 "발로뛰는 현장소통 의정활동 민생 공감 총력 다할 것" 오피니언 사설 매일시론 경제칼럼 자치시대 문화산책 사는이야기 현장소리 기고 뉴스에세이 반구대 울산의 창 데스크 칼럼 기자의 눈 아침을 여는 시 오나경의 21세기 미술관 김병길주필 회상록 매일통신 독자투고 에너지칼럼 자치시대 김동수의 세상만사 황일순 칼럼 풍력칼럼 울산을 읊다 [기고] 국민건강보험 안정적 정부지원 법 개정 필요 [문화산책] 코스모스 [반구대] ‘이예로’ [현장소리] 청년들의 미래 이대로 괜찮은가? 포토 포토뉴스 만평 이슈포토 그래픽 카드뉴스 그시절 산속풍경 렌즈 속 이야기 화보 ‘전국(장애인)체전 개·폐회식 관람객 편의물품 후원 전달식‘ ‘전국(장애인)체전 개·폐회식 관람객 편의물품 후원 전달식‘ 전국체전 최종 리허설 배호 그림세상(2022.10.7) 기획 기획특집 대한민국 인류유산 대곡천암각화군 울산옛터비에 담긴 기억들 울산이 부른다 Life&amp;Joy 와이드인터뷰 해오름 문화유산탐방 건강의료 기타 국산모델 수출 등 기술력은 충분 … 상용화 머지않았다 소비에 ‘가치’ 부여 … 다이닝에도 ‘제로웨이스트’ 바람 대중교통 선진지 이끄는 트램, 관광자원 역할도 ‘톡톡’ "누구든 ‘유쾌한 고발자’될때 ‘탄소 발자국’도 줄어" 신문보기 PDF 보기 4-15 총선공약 "질문 배달 왔어요" 중구 남구갑/을 북구 동구 울주군 공간 울림 우당탕탕 · 체인지 같이 밥먹을래요? · 백썰기 기획 특집 뉴스 VR 매일+ 독자 영상 영상스케치 여행영상 맛집 [MZ뉴스] '도로위 빌런' 모음 [MZ뉴스]내년부터 싹 다 바뀌는 군부대 [태권도 시범단 풀영상] 성화만큼 뜨거운 태권도 퍼포먼스에 박수갈채 [울산전국체전]박상영 선수, 신들린 찌르기로 펜싱 에뻬 개인전 4강 진출, 부상투혼에도 졌잘싸 인터랙티브+ 통합검색 기사검색 상세검색 상세검색 검색기간 전체 1년 한달 일주일 3일 오늘 ~ 섹션별 섹션을 선택해주세요. 뉴스Now 오피니언 정치 경제 사회 문화 포토 U TV 사람과삶 외신 연예 스포츠 지방 기획 생활정보 열린마당 핫이슈 라이프 21대 국회의원선거 지방선거 엔디테스트 검색영역 전체 제목 부제목 제목+부제목 제목 + 본문 본문 기자 콘텐츠 범위 전체 기사내 사진 포함 기사내 동영상 포함 검색어 검색 초기화 상단여백 다음 이전 Home 포토 그시절 [그시절] 1963년 제주도관광호텔 개장식 페이스북 트위터 카카오스토리 밴드 메일 프린트 HOME 포토 그시절 [그시절] 1963년 제주도관광호텔 개장식 Online 디지털미디어국 승인 2017.09.29 09:30 댓글 0 구글+ 블로그 밴드 카카오스토리 트위터 페이스북 메일보내기 인쇄하기 뉴스NOW 美, 김정은 '대화 불필요'에 "외교적 접근 전념"러 우크라 전역 대규모 공습…주요 인프라 파괴北, 전투기·폭격기 등 12대 무력시위…F-15K 등으로 대응이준석 '당원권 정지 1년' 추가 징계… 총선 어려울 듯北, 이틀만에 또 탄도미사일…美항모 재출동에 무력시위강원도 예미산 1천ｍ 지하에 지하실험실 조성바이든, 尹대통령에 친서…'인플레법' 협의"4분기 수출도 먹구름…"환율 변동·경기 둔화 애로 급증"북, 일본 통과 중거리미사일 쐈다與 "전직 대통령이라고 성역 있을 순 없어"사원 서면조사 요구에 문 "대단히 무례한 짓"'박진 해임안' 與 불참 속 野 단독 본회의 처리이틀 연속 탄도미사일 발사한 北, 이번에도 '침묵'尹대통령, 오늘 해리스 美부통령 접견…북핵 논의北, 도발수위 높이나…美, 주시 속 北 핵실험 경고'러 탈출 러시' 위성사진 확인…16㎞ 차량 행렬 '쌍방울 뇌물 협의' 이화영 구속'위례신도시 211억 특혜' 유동규·남욱·정영학 기소오늘부터 오미크론 대응 개량백신 접종 사전예약尹 "中 대만 공격시 北도 도발 가능성…北대응이 최우선" 열기/닫기 닫기 뉴스NOW 美, 김정은 '대화 불필요'에 "외교적 접근 전념" 5시간 전 러 우크라 전역 대규모 공습…주요 인프라 파괴 5시간 전 北, 전투기·폭격기 등 12대 무력시위…F-15K 등으로 대응 4일 전 이준석 '당원권 정지 1년' 추가 징계… 총선 어려울 듯 4일 전 北, 이틀만에 또 탄도미사일…美항모 재출동에 무력시위 5일 전 강원도 예미산 1천ｍ 지하에 지하실험실 조성 5일 전 바이든, 尹대통령에 친서…'인플레법' 협의" 5일 전 4분기 수출도 먹구름…"환율 변동·경기 둔화 애로 급증" 6일 전 북, 일본 통과 중거리미사일 쐈다 6일 전 與 "전직 대통령이라고 성역 있을 순 없어" 7일 전 사원 서면조사 요구에 문 "대단히 무례한 짓" 7일 전 '박진 해임안' 與 불참 속 野 단독 본회의 처리 11일 전 이틀 연속 탄도미사일 발사한 北, 이번에도 '침묵' 11일 전 尹대통령, 오늘 해리스 美부통령 접견…북핵 논의 12일 전 北, 도발수위 높이나…美, 주시 속 北 핵실험 경고 12일 전 '러 탈출 러시' 위성사진 확인…16㎞ 차량 행렬 13일 전 '쌍방울 뇌물 협의' 이화영 구속 13일 전 '위례신도시 211억 특혜' 유동규·남욱·정영학 기소 14일 전 오늘부터 오미크론 대응 개량백신 접종 사전예약 14일 전 尹 "中 대만 공격시 北도 도발 가능성…北대응이 최우선" 15일 전 행정안전부 국가기록원은 '이달의 기록' 주제를 '기록으로 보는 그때 그 시절 관광풍경'으로 정하고 1950~90년대 관광의 발전을 보여주는 관광용 숙박시설, 관광열차와 관광버스의 등장, 관광단지 조성, 국내외 관광객들의 모습 등이 담긴 기록물 40건을 홈페이지를 통해 공개한다고 26일 전했다. 사진은 1963년 제주도관광호텔 개장식.   [국가기록원 제공=연합뉴스] &lt;저작권자 © 울산매일, 무단 전재 및 재배포 금지&gt; 저작권 문의 디지털미디어국 다른기사 보기 webmaster@iusm.co.kr 페이스북 이메일 icon오늘의 인기기사 조선소 선박 검댕 피해...불기둥 솟구친 SK에너지vs현대미포조선 책임 공방[경제칼럼] ESG 경영과 해비타트운동연휴 체전 맞춰 다양한 축제 … 경기장 안팎으로 ‘들썩’공권력까지 출동시킨 남구 웨딩홀 임대-임차인 갈등문인극회 '쫄병전선', 소설가 오영수 선생'화산댁이'무대위에 조선소 선박 검댕 피해...불기둥 솟구친 SK에너지vs현대미포조선 책임 공방 댓글 (200자평) 0개 전체보기 200자까지 쓰실 수 있습니다. 등록 ※ 비속어와 인신공격성 글 등은 바로 삭제됩니다. 특히, 근거 없는 글로 타인의 명예를 훼손하면 민·형사상 처벌을 받을 수 있습니다. [댓글(200자평)운영규칙 보기] 첫번째 댓글을 남겨주세요. 여백 회원사 한국신문협회 한국기자협회 한국사진기자협회 한국ABC 제휴사 중앙일보 워싱턴포스트 블룸버그 중국 長春日報 노컷뉴스 회사소개 광고안내 불편신고 제휴안내 개인정보취급방침 이메일무단수집거부 청소년보호정책 청탁금지법 현황 울산광역시 남구 두왕로 337-1 리더스파크  |  대표전화 : 052-243-1001  |  팩스 : 052-271-8790  |  사업자번호 : 620-81-14006 등록번호 : 울산,아01104  |   등록날짜 : 2017년 7월 13일  |  발행·편집인 : 이연희   |  청소년보호책임자 : 강정원 Copyright © 2022 울산매일. All rights reserved. 온라인 컨텐츠 및 뉴스저작권 문의 webmaster@iusm.co.kr RSS 서비스 Back to Top</t>
+  </si>
+  <si>
+    <t>[황금연휴 추천 관광지] 가을에 제주도 아이와 함께 가볼 만한 곳①'오조리(쌍월) ·송당마을 · 다랑쉬오름 달맞이'...한가위 달이 주는 두 배의 행복을 만끽 &lt; 리빙 &lt; 라이프 &lt; 기사본문 - 문화뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 매체소개 기사제보 구독하기 보도자료 등록 naverpost facebook instargram twitter navertv MHN 편집 : 2022-10-11 11:46 (화) 문화 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 인터뷰 포토 오피니언 기고·칼럼 리뷰 커뮤니티 보도자료 회원정보 로그인 회원가입 전체메뉴 버튼 최신뉴스 현대차그룹, 부산세계박람회 글로벌 SNS 콘텐츠 4천만뷰 돌파 난민 이의신청 절차, 더 투명해지고 공정해 진다 '2022 서울여성합창페스티벌' 개최...코로나19 이후 3년 만에 재개 안방에서 즐기는 궁궐체험 ‘2022 궁온 프로젝트’ 2차 접수 [22 가을 패션 추천] 제니→크리스탈 '패셔니스타'는 다 입었다...'바시티 자켓' 추천 5 문체부, ‘2022 문화의 달’ 기념행사 개최...다양한 공연 열려 [공연소식] 10월 둘째 주, 주목할 만한 클래식/무용 공연 2022년 10월11일(화) 오늘의운세 띠별, 별자리 [이번주뭐입지?] 힙한 룩부터 프레피 룩 까지...'부츠' 활용한 가을 코디 추천 뮤지컬 '캣츠', 오리지널 연출 부활과 함께 내한 공연 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 [황금연휴 추천 관광지] 가을에 제주도 아이와 함께 가볼 만한 곳①'오조리(쌍월) ·송당마을 · 다랑쉬오름 달맞이'...한가위 달이 주는 두 배의 행복을 만끽 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 라이프 리빙 [황금연휴 추천 관광지] 가을에 제주도 아이와 함께 가볼 만한 곳①'오조리(쌍월) ·송당마을 · 다랑쉬오름 달맞이'...한가위 달이 주는 두 배의 행복을 만끽 기자명 전서현 입력 2017.09.21 17:04 수정 2017.10.30 14:14 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [문화뉴스 MHN 전서현 기자] 어쩌면 성산은 일출보다 월출을 보기 위해 가야하는 곳일 지도 모른다. 두 개의 달이 일출봉의 밤하늘과 바다에 뜨고 지며 어두운 밤을 서로 위로하는 광경은 성산 오조리 마을에서만 유일하게 볼 수 있는 장면이기 때문. ▲ 10월에 제주도 가볼 만한 곳으로 오조리와 송당마을 그리고 다랑쉬오름 달맞이를 적극 추천한다. 가을 정취 속에서 황금휴가를 즐길 수 있어 아이와 함께 주말에 가볼 만한 곳으로도 인기다 ©제주관광공사 성산일출봉과 식산봉 위에 뜨기 시작한 달이 잔잔한 내수면 위에도 떠오르면 사람들 사이에서 탄성이 새어나온다. 보름달이 뜨는 날이면 그 기쁨은 더욱 커진다. 두 개의 달이 선물하는 두 배의 행복을 경험하고 싶다면, 한가위에는 성산으로 가야한다. 달을 관측하기 가장 좋은 곳은 식산봉 근처의 쌍월동산. 날씨가 맑다면 추석에는 초저녁부터 두 개의 달을 볼 수가 있다.소원비는 마을 송당리의 아부오름은 메밀꽃으로 뒤덮여 달빛을 받은 메밀꽃밭의 풍경을 감상할 수 있다. 지난 24일까지 열린 송당 메밀꽃축제 이후에도 관광객들에게 꽃밭을 개방해 10월에도 꽃이 피어있는 한 촬영할 수 있다. 또한 다랑쉬오름에서는 10월 6일 저녁 5시부터 달맞이체험행사가 열린다. 공연을 보며 부럼도 먹고 다랑쉬오름 위로 떠오른 달을 보며 소원을 빌어보자. jun0206@mhns.co.kr 주요기사 연금복권의 현재가치 계산! 연금복권 720 +, 일시불로 따지면 얼마? 제임스 웹 망원경이 보내온 첫 번째 사진...허블 망원경과 차이점은? 2022년 9급 공무원 월급과 연봉...과연 최저시급보다 적을까? [포토] 한소희 '예쁜 미소' 관련기사 "그레잇" 기대했던 '킹스맨: 골든 서클' 내한 행사 "스투핏"이 된 사연'화이트리스트'에 오른 배우와 개그맨 어떤 혜택 받았나?[MHN화보] '스윗가이' 박보검 '눈동자 속엔 언제나 달콤한 사랑이~'[MHN TV] 황치열 '반가움이 두배가 되는 포즈'(2017소리바다어워즈)[MHN TV] 레드벨벳 '여름이 지나도 여전한 청순미'(2017소리바다어워즈) 전서현의 다른 기사 보기 전서현 jun0206@mhns.co.kr 독자와 공감을 통해 더 나은 내일을 만들겠습니다. 최신기사 인기기사 저작권자 © 문화뉴스 무단전재 및 재배포 금지 포토 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 한지민, '욘더' 색다른 변신 기대하세요 [포토] 한지민, 러블리 가을 패션 [포토] 이정은, 부산국제영화제 첫 참석 [포토] 정진영, '욘더'로 인사드려요 [포토] 신하균, 목폴라도 품격있게 만든다 [포토] '욘더' 이준익 감독 [포토] 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 러브컨템포러리아트, 닥설랍 개인전 'Blurry Romanticism' 개최 [이상진 디렉터의 캘리문화] (6) 첩첩석중(疊疊石中) 아르코미술관, 대만과 한국-대만 비디오 교류 프로그램 개최 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 (04050) 서울특별시 마포구 양화로 156 (LG팰리스빌딩) 1727 대표전화 : 0269593256 팩스 : 023221666 법인명 : (주)엠에이치앤미디어 제호 : 문화뉴스 등록번호 : 서울 아 03015 등록일 : 2014-02-18 발행일 : 2014-02-18 발행·편집인 : 주진노 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.고충처리인 권혁재 02-6959-3256 press@mhns.co.kr Copyright © 2022 문화뉴스. All rights reserved. mail to eveleva@naver.com 위로 전체메뉴 전체기사 문화 전체 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 전체 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 전체 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 전체 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 전체 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 전체 인터뷰 오피니언 전체 기고·칼럼 리뷰 포토 보도자료 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 관광시장 트렌드 맞춘 SNS마케팅 교육 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 관광시장 트렌드 맞춘 SNS마케팅 교육 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회, 관광시장 트렌드 맞춘 SNS마케팅 교육 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2017.09.14 15:24 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회(회장 김영진)와 제주국제자유도시개발센터(이사장 이광희)는 다음달 11일까지 매주 수요일 제주관광대학교 평생교육원에서 도내 관광사업체를 대상으로 'SNS 마케팅'교육을 실시하고 있다.이번 교육은 JDC 상생협력 프로그램 일환으로 추진되고 있는 가운데, 도내 영세 관광사업체들의 홍보·마케팅 비용 증가 등으로 인한 경영악화 마져 우려되는 상황에서 이를 극복해 자체적인 대외 경쟁력 강화와 함께 사업체 경영환경 개선을 위해 시행되고 있다. 특히, 급변하는 관광 트렌드에 맞는 마케팅 교육이 중요해지는 현 시점에서 이번 SNS마케팅 교육은 기본적인 개념 이해를 시작으로 컨텐츠 제작까지 진행함으로써 도내 관광사업체들이 보다 효율적인 마케팅을 전개할 수 있을 것으로 관광협회측은 기대하고 있다.제주도관광협회 관계자는 "도내 관광사업체의 자체적인 마케팅 능력 강화를 통한 경쟁력을 확보하기 위해 블로그마케팅 등 다양한 교육을 지속 실시해 제주관광 질적성장에 기여해 나갈 계획"이라고 말했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 관광정책 논의 유관기관 합동워크숍 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 관광정책 논의 유관기관 합동워크숍 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 관광정책 논의 유관기관 합동워크숍 개최 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2017.09.14 15:20 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 2018년도 관광정책 방향과 신규 사업 발굴 논의를 위해 지난 13일 제주웰컴센터 2층 회의실에서 제주관광 유관기관 7개 기관 관계자 40여명이 참석하여 합동워크숍을 개최했다고 밝혔다.이날 워크숍에서는 2017년도 주요업무 추진상황과 2018년도 사업계획에 대한 유관기관별 발표와 논의가 있었다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>요우커 빈자리 내국인이 메운다... 올 추석 제주도 관광객 52만명 예상 - 화이트페이퍼 × 전체기사 종합 전체 국제 정치 교육 빅데이터 WP포토 경제 전체 경제일반 IT 생활경제 산업 부동산 아이엠리치 Money 전체 금융 증권 보험 부동산 소비•재테크 정책 이슈 사회/문화 전체 문화∙일반 라이프 책도시락 전체 책속의 지식·명문장 성공·아이디어 책속에 이런일이? 책속의 포스트잇 책속의 퀴즈 출판계 소식 삶의 향기 북데일리 전체 문학 인문·과학 경제경영 청소년 육아 여행 취미 레저 에세이 자기계발 추천! 이 책 북밴 글쓰기훈련소 출판계 소식 인터뷰 명사추천 이달의 책 올해의 책 베스트셀러랭킹 여론광장 전체 논쟁 더 칼럼 블로그 스토리 북콘서트 글쓰기훈련소 전체 글쓰기정보 연예 기타 전체 북토마토 CEO 직장인 여성/학부모 대학생 기업PR 라이프 전체 방송/연예 사회/일반 정치/경제 스포츠 UPDATED. 2022-10-11 12:45 (화) 로그인 회원가입 모바일웹 전체 종합 국제 정치 교육 빅데이터 WP포토 경제 경제일반 IT 생활경제 산업 부동산 아이엠리치 Money 금융 증권 보험 부동산 소비•재테크 정책 이슈 사회/문화 문화∙일반 책도시락 책속의 지식·명문장 성공·아이디어 책속에 이런일이? 책속의 포스트잇 책속의 퀴즈 출판계 소식 삶의 향기 북데일리 문학 인문·과학 경제경영 청소년 육아 여행 취미 레저 에세이 자기계발 추천! 이 책 북밴 글쓰기훈련소 출판계 소식 인터뷰 명사추천 이달의 책 여론광장 논쟁 더 칼럼 블로그 스토리 자유게시판 공지사항 기업PR 라이프 방송/연예 사회/일반 정치/경제 스포츠 검색버튼 기사검색 검색 이전 다음 요우커 빈자리 내국인이 메운다... 올 추석 제주도 관광객 52만명 예상 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 산업 요우커 빈자리 내국인이 메운다... 올 추석 제주도 관광객 52만명 예상 오예인 기자 승인 2017.09.21 09:41 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × ▲ 이번 추석 연휴 기간 동안 제주도를 찾는 관광객이 내국인을 중심으로 52만명에 달할 전망이다. (사진=픽사베이) [화이트페이퍼=오예인 기자] 열흘에 달하는 올 추석 연휴 기간 동안 제주도를 찾는 관광객이 52만명에 달할 것으로 전망된다. 21일 제주도관광협회는 황금연휴 첫날을 앞둔 29일부터 한글날인 연휴 마지막 9일까지 11일간 관광객 51만8천여명이 찾을 것으로 예상한다고 밝혔다. 지난해 같은 기간 51만2천492명이 방문한 것에 견줘 5천여명 늘어난 규모다. 특히 내국인이 49만7천명으로 전년 같은 기간 39만5985명과 비교해 25.5％ 증가했다. 반면 중국인 관광객 감소로 외국인 관광객은 2만1천여명으로 대폭 줄었다. 전년 같은 기간 11만6507명에 비해 82％ 급감했다. 이 기간 항공사들은 국내 제주 노선에 특별기 61편 등 총 2506편(도착기준)을 투입한다. 날짜별 항공편 예약률은 평균 89∼94％로 만석 수준이다. 연휴 기간 관광 관련 예약도 크게 늘었다. 도내 렌터카 예약률은 60∼90％, 콘도미니엄 80％ 이상, 전세버스 65％ 이상, 골프장 41％ 이상, 관광호텔, 40％ 등이다. 하지만 중국 등 국제선 여객편수는 지난해 282편이었지만 올 연휴 기간 76편으로 73％ 감소했다. 국제 크루즈선 역시 제주 입항 계획이 없다. 문명호 도 관광협회 종합관광안내센터 소장은 "올해 추석은 개천절과 한글날, 대체 휴일 등으로 인해 휴일이 길어졌다는 기대감으로 국내선 항공 및 선박 예약률이 증가했다"고 말했다. 저작권자 © 화이트페이퍼 무단전재 및 재배포 금지 화이트페이퍼, WHITEPAPER 오예인 기자 y3in5@whitepaper.co.kr 다른기사 보기 관련기사 제동 걸린 중국 전기차...'친환경차 판매' 미국 1위 탈환 올 연휴 600만 중국인 해외로... '인기관광지'에 한국·일본 쏙 빠져 도시바, '한미일 연합' 택했다... "반도체 시장 큰 변화 없을 것" 유통업계, 오프라인 매장에 AI 기술 더한다... 쇼핑안내 로봇 속속 등장 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1온라인에서 오프라인으로…영토 넓히는 게임사들 2같은 음식 주문해도 배달비 달라... '최고 배달비' 많은 앱은 배민1 3SPC그룹, 무연고 아동 돕기 ‘SPC해피쉐어 캠페인’ 진행 4라인게임즈, 내달 '언디셈버' 글로벌 서비스 돌입…"운영 방식 차별 없어" 5농심켈로그 ‘켈로그 오트로드 by 연희’ 개최 6우리은행, 무주택 청년 위한 '우리 청년약속 통장' 출시 7신한은행, 청각장애인 일자리 지원 '카페스윗' 명동점 개점 8카카오뱅크, 디지털 정보 격차 해소 위한 IT기기 기부 참여 9내부통제 점검 나선 권준학 NH농협은행장 10태양광 대출·펀드 22.7조…금감원 "면밀 점검·조치 예정" 최신기사 롯데홈쇼핑 5000억원 규모 쇼핑축제 ‘대한민국 광클절’ 개최 롯데홈쇼핑 5000억원 규모 쇼핑축제 ‘대한민국 광클절’ 개최 이복현 금감원장 "금융사고·불법 공매도 강력 대응" 이복현 금감원장 "금융사고·불법 공매도 강력 대응" 뉴 쏠 출범 앞둔 신한은행 어텐션…새 광고모델에 '뉴진스' 발탁 뉴 쏠 출범 앞둔 신한은행 어텐션…새 광고모델에 '뉴진스' 발탁 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울시 영등포구 국제금융로 6길 33, 1212호 (여의도동, 맨하탄빌딩) 대표전화 : 02-323-1905 팩스 : 02-6007-1812 청소년보호책임자 : 박경화 법인명 : 주식회사 화이트페이퍼 제호 : 화이트페이퍼 등록번호 : 서울 아 03165 등록일 : 2014-05-22 발행일 : 2014-05-22 발행인 : 임정섭 편집인 : 임정섭 화이트페이퍼 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 화이트페이퍼. All rights reserved. mail to white@whitepaper.co.kr 위로</t>
+  </si>
+  <si>
+    <t>[포토] 제주도관광협회, 추석연휴 대비 올레길 환경정화 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 [포토] 제주도관광협회, 추석연휴 대비 올레길 환경정화 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 [포토] 제주도관광협회, 추석연휴 대비 올레길 환경정화 기자명 고병수 기자 입력 2017.09.10 17:38 수정 2017.09.10 17:42 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수 기자 = 제주특별자치도관광협회(김영진 회장)는 9일 올레길 15코스 일대 환경정화에 나섰다. 이날 환경정화에 협회 임직원 40여명이 참가해 추석연휴기간 방문 관광객을 위해 올레길 훼손 점검, 이정표 확인, 주변 잡목 및 쓰레기 수거 등 환경정화활동을 실시했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>中 사드 갈등 장기화,제주도 중국인 관광객 150만 명 감소 Internet Explorer 지원 종료 안내 사용 중이신 인터넷 익스플로러(Internet Explorer)에서는 일부 기능 사용에 제한이 발생할 수 있습니다.크롬(Google Chrome), 엣지(Microsoft Edge) 등 최신 브라우저에 최적화되어 있습니다. 오늘 하루 열지 않기 메뉴 바로가기 본문 바로가기 푸터 바로가기 KBS NEWS 제보 ON AIR 재난포털 로그인 마이페이지 유튜브 페이스북 인스타그램 kbs 찾기 전체메뉴 분야별 뉴스9 TV뉴스 디지털K 스포츠 시사다큐 지역뉴스 어떤 기사를 찾으시나요? 뉴스 검색 검색어 입력 검색 버튼 많이 본 뉴스 동영상 - 검색창 숨기기 분야별 분야별- 대분류타이틀 전체 정치 경제 사회 문화 IT·과학 국제 생활·건강 스포츠 연예 날씨 특보 이슈 TV뉴스 1TV 뉴스 06:00 뉴스광장 1부 07:00 뉴스광장 2부 09:30 930뉴스 12:00 뉴스 12 14:00 뉴스 2 16:00 사사건건 17:00 뉴스 5 19:00 뉴스 7 21:00 뉴스 9 23:30 뉴스라인 2TV 뉴스 09:00 아침뉴스타임 10:40 지구촌뉴스 15:00 뉴스타임 17:50 통합뉴스룸ET 1TV 경인 뉴스광장(경인) 930 뉴스(경인) 뉴스7(경인) 뉴스9(경인) 디지털K 취재K 취재후·사건후 여심야심 데이터룸 팩트체크K 탐사K 스포츠K 글로벌K 특파원 리포트 세계는 지금 영상K 현장영상 속보영상 친절한뉴스K 기타 제대로 보겠습니다 크랩 용감한라이브 속고살지마 News Today(영어뉴스) 시사·다큐 시사 시사기획 창 일요진단 라이브 남북의 창 시사멘터리 추적 특파원 보고 세계는 지금 재난방송센터 인사이드 경인 라디오 최경영의 최강시사 주진우 라이브 최영일의 시사본부 성공예감 김방희입니다 지역뉴스 지역별- 대분류 부산 울산 창원 진주 대구 안동 포항 광주 목포 지역별- 대분류 순천 전주 대전 청주 충주 춘천 강릉 원주 제주 바로가기 바로가기 메뉴 좋아요 클립 제보 재난포털 ON AIR 뉴스 아카이브 정치합시다 글로벌 돋보기 경제한방 2022 지방선거 질문하는 기자들Q 2022 대통령선거 2022 베이징올림픽 2022 베이징패럴림픽 2020 도쿄올림픽 2020 도쿄패럴림픽 4·7 재보궐선거 저널리즘 토크쇼 J 박광식의 건강 365 한국언론 오도독 GO현장 고봉순 여의도 책방 2020 총선 2019 북미정상회담 3.1운동 100년 2018 남북정상회담 2018 북미정상회담 6.13 지방선거 러시아 월드컵 [특집] 평창동계올림픽 [특집] 평창동계패럴림픽 지진대피요령 뉴스 검색 검색어 입력 검색 버튼 기사 본문 영역 상세페이지 中 사드 갈등 장기화,제주도 중국인 관광객 150만 명 감소 입력 2017.09.04 (11:32) 사회 댓글 좋아요 공유하기 인쇄하기 글씨 크게보기 가 글씨 작게보기 고화질 표준화질 자동재생 키보드 컨트롤 안내 동영상영역 시작 동영상 시작 동영상영역 끝 동영상설명 동영상 고정 취소 '사드 배치'를 문제 삼아 중국의 금한령이 장기화하면서 제주를 찾는 중국인 관광객이 150만 명 이상 크게 줄어든 것으로 나타났습니다. 제주도는 지난 3월 사드 배치 이후 지난달까지 6개월 동안 제주 관광객은 모두 993만 8천명으로 지난해 같은 기간보다 6.7% 줄었다고 밝혔습니다. 내국인 관광객은 896만 4천명으로 10% 가량 늘었지만, 외국인은 97만 4천명으로 61%나 줄었습니다. 특히 중국인 관광객은 62만 5천여 명으로 153만 3천여 명이나 크게 줄었습니다. 中 사드 갈등 장기화,제주도 중국인 관광객 150만 명 감소 입력 2017-09-04 11:32:20 사회 '사드 배치'를 문제 삼아 중국의 금한령이 장기화하면서 제주를 찾는 중국인 관광객이 150만 명 이상 크게 줄어든 것으로 나타났습니다. 제주도는 지난 3월 사드 배치 이후 지난달까지 6개월 동안 제주 관광객은 모두 993만 8천명으로 지난해 같은 기간보다 6.7% 줄었다고 밝혔습니다. 내국인 관광객은 896만 4천명으로 10% 가량 늘었지만, 외국인은 97만 4천명으로 61%나 줄었습니다. 특히 중국인 관광객은 62만 5천여 명으로 153만 3천여 명이나 크게 줄었습니다. ■ 제보하기 ▷ 카카오톡 : 'KBS제보' 검색 ▷ 전화 : 02-781-1234 ▷ 이메일 : kbs1234@kbs.co.kr ▷ 뉴스홈페이지 : https://goo.gl/4bWbkG 기자 정보 양석현 기자 burok@kbs.co.kr 양석현 기자의 기사 모음 댓글 좋아요 공유하기 오늘의 HOT클릭! 동영상 Ai pick 맞춤 뉴스 8개 더보기 이 시각 헤드라인 배너 많이 본 뉴스 푸터영역 KBS소개 주소/연락처 수신료 채용 About KBS KBS소개 시청자권익센터 사이버 감사실 광고 이용약관 법적고지 개인정보처리방침 KBS N 채널 KBS Drama KBS W KBS Kids KBS N Sports KBS Joy KBS N 채널 KBS WORLD Global KBS WORLD KBS WORLD KBS / 07235 서울특별시 영등포구 여의공원로 13(여의도동) / 대표전화 02-781-1000 / 기사배열 책임자, 청소년보호책임자 : 윤상 KBS뉴스 인터넷 서비스 / 서울특별시 마포구 매봉산로 45 KBS미디어센터 / 시청자상담실 02-781-1000 / 등록번호 서울 자00297 (2010년 6월 23일) Copyright © KBS All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>제주도 성산일출봉 관광 후 찾는 맛집 ‘성산가든’에서 흑돼지생고기 판매 실시 : 100세시대의 동반자 브릿지경제 로그인 회원가입 검색창 닫기 전체 메뉴 산업 금융 증권 부동산 생활경제 정치 전국 오피니언 l 비바100 피플 문화·연예 전체기사 Health(건강) Encore Career(일) Money(돈) Leisure(여가) Life(라이프) Education(교육) Welfare(복지서비스) 사설 칼럼 외부기고 비주얼 포토 카드뉴스 세상에 이런일이 스포츠 이모저모 연예·뮤직비디오 IT / 산업 라이프 사회 뉴스 산업·IT·과학 기업경영·재계 자동차·부품·타이어 전기·전자·반도체 항공·해운·물류·무역 조선·철강·기계금속·방산 석유화학·정유·가스·전력 섬유·제지·광고·건자재 IT·모바일·방송통신·인터넷 게임·SW·포털·제약·바이오·과학 중견·중소·벤처 경제일반 경제일반 통상 공기업 경제정책 금융 정책 은행 보험 제2금융 외환 재테크 증권 정책 종목분석 투자전략 시황·증시분석 증권가 브리핑 해외 증시 부동산 분양정보 경매 부동산 칼럼 부동산 뉴스 건설산업 뉴스테이 정치·정책 정책 정치일반 청와대 국회·정당 외교·통일 생활경제 유통 식음료·주류 주거·생활 패션·뷰티·화장품 프렌차이즈 창업 중견·중소·벤처 사회 사회일반 노동·환경 교육·행정 사건·사고 법원·검찰 국방 국제 국제일반 국제경제 토픽 헬스 의료 생활건강 식품의약품 보건복지 피플 인터뷰 인사 동정 부음 社告 문화 영화 이슈&amp;이슈 음악 축제 전시 연극·뮤지컬 Book 라이프스타일 방송·연예 문화배우기 정책 웹툰 여행·취미 여행 취미 레저 스포츠 스포츠 종합 골프 축구 야구 격투기 농구·배구 전국 서울·수도권 강원 충청 영남 호남 제주 오피니언 사설 칼럼 데스크칼럼 새문안通 기자수첩 원 클릭 時事 외부기고 브릿지칼럼 명의칼럼 전문가 기고 시장경제칼럼 비바100 건강 일 돈 여가 라이프 교육 복지서비스 비주얼 포토 카드뉴스 동영상 세상에 이런일이 스포츠 이모저모 연예·뮤직비디오 IT / 산업 라이프 사회 회사소개 회사소개 조직도 찾아오시는길 회원약관 개인정보취급방침 이메일무단수집거부 신문구독신청 검색버튼 산업 금융 증권 부동산 생활경제 정치 전국 오피니언 비바100 피플 문화·연예 검색창 닫기 전체기사ㅣ유통 ㅣ 식음료 · 주류 ㅣ 주거 · 생활 ㅣ 패션 · 뷰티 · 화장품 ㅣ 프렌차이즈 창업 ㅣ 중견 · 중소 · 벤처 현재위치 : 홈 &gt; 뉴스 &gt; 생활경제 &gt; 식음료 · 주류 제주도 성산일출봉 관광 후 찾는 맛집 ‘성산가든’에서 흑돼지생고기 판매 실시 입력 2017-09-11 13:52 연관검색어 제주 성산일출봉 맛집 점차 선선해지는 9월 들어 가을계절이 찾아왔다. 이에 막바지 여름 휴가를 아직도 떠나지 못한 여행객들의 휴가계획이 점차 늘어나고 있는 추세다. 늦은 휴가인 만큼 지친 일상에서 벗어나 수려한 자연환경 속에서 맛있는 음식을 먹으며 휴식을 취하는 '힐링'이 관광객들에게 비로소 알려지고 있다. 이에 천혜의 자연관경을 가지고 있는 우리나라 대표 여행지로는 제주도를 꼽을 수 있다. 가을 뿐만 아니라 사계절 모두 아름다운 경치를 가지고 있는 관광 명소가 이 곳에 많이 위치해 있고 뿐만 아니라 다양한 특산물로 음식을 제공하여 유명한 여행코스로 손꼽히곤 한다. 실제로 제주도관광협회 통계에 따르면 올해 방문한 내국인 관광객의 경우 지난해 같은 기간보다 14.8% 증가했다. 또한, 급증하는 중국인 관광객들을 비롯해 외국인 관광객도 지속해서 늘어나고 있으며 올해 제주도를 찾은 외국인 방문자의 수는 벌써 약 500만 명을 넘겼다. 한편 성산 일출봉은 관광객들의 필수 여행 코스로 자리 잡았다. 성산 일출봉은 천연기념물 제420호로 오름이 많은 제주도에서 해 뜨는 오름으로 불리며 아름다운 절경과 제주도 특산물 음식을 활용한 음식점들이 많고 지역주민들도 많이 찾는 곳이기 때문이다. 위치한 성산 일출봉 관광을 마친 후 지역주민들이 많이 찾아오는 곳이며 계절마다 새로운 메뉴가 개발되어 가는 관광객들의 발길을 이끄는 제주 성산일출봉 맛집 ‘성산가든’은 최근 새로운 메뉴를 개발하여 식사를 제공한다고 밝혔다. 현재 이 곳에서는 메인으로써 흑돼지두루치기를 2인분 제공하고 날치알볶음밥도 제공하여 식사를 준비한다고 한다. 대체로 고기의 맛을 최대한 살리기 위해서 얼리지 않은 생고기를 사용하고 양념된 고기와 야채가 따로나와 식사를 제공하여 관광객들의 상차림에 올려진다고 한다. 밑반찬으로는 배추김치부터 미역무침까지 수시로 바뀌는 다양한 찬이 준비되어 있으며 날치볶음밥을 통해 밥 한공기에 채썬김치, 양파, 김가루와 날치알 등 고기도 함께 볶아서 먹을 수 있도록 서비스를 하고 있다. 또한 이 곳은 잔치한상이나 수육등의 메뉴는 없어지고 흑돼지두루치기와 솥뚜껑 흑오겹/생오겹만 판매하여 진행한다고 한다. 한편 “현재 15시부터 16시30분까지는 브레이크타임이 생겨 서비스를 제공하고 두루치기는 아침부터 저녁까지 주문이 가능하니 많은 관심 바란다”고 밝혔다. 김현정 기자  press@viva100.com 기자의 다른기사보기 &gt; 이 기사에 댓글달기 댓글 접기 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 온라인 핫클릭 ·8년 만에 BIFF 방문한 진가신 감독 "영화감독이 아닌 삶은 상상할 수 없다"·‘그랜드 엑스페디션’ 정인석 프로듀서 “우리 창작진이 꾸린 이머시브 다이닝도 선보이고 싶어요!”·"자녀와 '상호작용'하면 5분 놀아줘도 1시간 효과"·은퇴 초반 철칙… 노후자금 수익률 높이고 인출은 줄여라·직장인 대상 '토론 프로그램'…지식 쌓고, 소통·분석 능력↑·신화 신혜성, 도난차량서 음주측정 거부하다 경찰에 체포 스포츠 월드 ·KLPGA 투어 1인자 박민지, 여자 골프 세계 랭킹 16위·김주형, PGA 투어 슈라이너스 칠드런스 오픈 ‘노보기’ 우승…두 달 만에 통산 2승·김세영, LPGA 투어 메디힐 챔피언십 7위·‘1인자’ 박민지, KLPGA 투어 하이트진로 챔피언십서 연장전 끝에 우승·김영수, 코리안 투어 제네시스 챔피언십서 역전 우승…107번째 출전 만에 첫 승·김세영·강혜지, LPGA 메디힐 챔피언십 3라운드 공동 13위…‘톱 10’에 한국 선수 들지 못해 김규리, 완벽 옆태 아이즈원 출신 이채연, ‘허쉬 러쉬’ 첫 콘셉트 포토 공개…12일 솔로 데뷔 체리블렛 채린, ‘슈룹’ 출연 확정…김혜수 과거 시절 연기 정시아, ‘이츠 마이 라이프’ MC 발탁…“일상 속 정보 전달” YG엔터, 제니 사진 유출 관련 ‘법적 대응’…“경찰에 수사 의뢰” 기획시리즈 ESG 경영이 미래다 “순환경제가 탄소중립 현실적 해결 방안…신기술로 새시장 개척해야” KT&amp;G, 지구온도 낮추는 녹색경영… 지속가능한 생태계 키운다 이희연 KT&amp;G ESG기획팀장 "객관적 성과 측정… 이해관계자 소통 강화할 것" 人더컬처 8년 만에 BIFF 방문한 진가신 감독 "영화감독이 아닌 삶은 상상할 수 없다" 장동윤이 영화 '늑대사냥'에 미친 이유! 염정아에게 춤과 노래란? 맘 with 베이비 "자녀와 '상호작용'하면 5분 놀아줘도 1시간 효과" 광명시의회 안성환 의장 “경력단절 없도록… 육아휴직 대체인력 지원 늘려야” "밤 오줌 못 가리는 아이, 실수해도 야단치지 마세요" 직장인 2막 직장인 대상 '토론 프로그램'…지식 쌓고, 소통·분석 능력↑ 실패땐 복직 보장… 창업, 걱정 말고 도전하세요 농작물 재해 손해평가… 2차 합격률 20%대 '좁은문' 스타트업 "더 빠르고 정확하게"… 심정지 환자 소생률 높인다 컴투스 창업자의 새로운 도전… "해긴은 모두가 행복한 게임회사를 꿈꿉니다" "인테리어는 곧 공간에 대한 이해… 건축주 니즈 최선" 열정으로 사는 사람들 윈골드 류홍열·김탁종 대표 “金거래시장 틈새 발견… 변호사 둘이 일냈죠” "건설일용직도 모바일 매칭… 새벽 줄서기 없앴죠" 창업 생존율 확대…실습·실무 '창업교육' 나선 넥스트랩 김진태 대표 테크리포트 현존 최고 자물쇠 채워라!… 국내 이통사 '양자암호통신' 개발 경쟁 10분 이상 버텨라! 불에 강한 단열재 생산 불붙었다 K수소 무한 확장… 블루수소 만들고 UAM 띄운다 안종배 회장의 인공지능과 메타버스 미래세상 "세계가 주목하는 메타버스 리더, 누구나 될 수 있죠" 우리는 메타버스 시대에 살고 있다 메타버스, 미래 핵심기술 선도한다 스마트 라이프 ‘뉴 스페이스’ 시대 성큼… 제약·바이오도 우주 시장 ‘눈독’ "학습자 누구나 시험 합격때 수강료 100% 환급해드려요" "수하물 탑재 완료됐어요"…AI 챗봇이 다 알려드려요 많이본뉴스 최신뉴스 이시각 주요뉴스 코로나19 신규 확진자 1만5476명…사망자 91일만에 최소 코스피, 장 초반 2%대 하락…2200선 붕괴 [대통령의 한마디] "담대한 구상, 비핵화 이끌어 내기에 유효 할 것" 글로벌 경제위기에 국민연금 올해 상반기 적자 77조원… “투자다변화 전략 필요” 한경연 “법인세율 3.3%p 인하하면 GDP 10년간 연평균 1.4%↑” 3분기 단기사채 자금조달 250.9조…전년比 22.2%↓ 창립 70주년 맞은 한화…김승연 회장 "지속적 혁신" 주문 올해 아울렛서 화재 세 차례…노동부, 대규모 유통업체 불시점검 [오늘의 1면] 아파트 매매가·전세가 급락세··· 부동산 지표 '사상 최악' 러시아 미사일공습에 삼성 입주건물 피해…삼성 “직접 피격 아냐” TODAY TOPIC 1 2 공효진·케빈오, 12일 미국 뉴욕서 비공개 결혼식 “변명의 여지 없어” 신혜성, 음주운전 사과…차량 절도는 아냐 반환점 돈 영화제, 폐막까지 D-3… 올해 부국제는 어땠나? 선우은숙, 4세 연하 유영재 아나운서와 결혼…“혼인신고 마쳐” '죽음 권하는 사회', 영화 '플랜75'가 주는 리얼함 8년만에 BIFF 찾은 진가신 "영화감독이 아닌 삶은 상상할 수 없다" “우리 창작진이 꾸린 이머시브 다이닝도 선보이고 싶어요” 누가 뭐래도 갓병헌! "감독님 그때 저에게 왜 그러셨어요?" 뉴스 산업·IT·과학 기업경영·재계 자동차·부품·타이어 전기·전자·반도체 항공·해운·물류·무역 조선·철강·기계금속·방산 석유화학·정유·가스·전력 섬유·제지·광고·건자재 IT·모바일·방송통신·인터넷 게임·SW·포털·제약·바이오·과학 중견·중소·벤처 경제일반 경제일반 통상 공기업 경제정책 금융 정책 은행 보험 제2금융 외환 재테크 증권 정책 종목분석 투자전략 시황·증시분석 증권가 브리핑 해외 증시 부동산 분양정보 경매 부동산 칼럼 부동산 뉴스 건설산업 뉴스테이 정치·정책 정책 정치일반 청와대 국회·정당 외교·통일 생활경제 유통 식음료·주류 주거·생활 패션·뷰티·화장품 프렌차이즈 창업 중견·중소·벤처 사회 사회일반 노동·환경 교육·행정 사건·사고 법원·검찰 국방 국제 국제일반 국제경제 토픽 헬스 의료 생활건강 식품의약품 보건복지 피플 인터뷰 인사 동정 부음 社告 문화 영화 이슈&amp;이슈 음악 축제 전시 연극·뮤지컬 Book 라이프스타일 방송·연예 문화배우기 정책 웹툰 여행·취미 여행 취미 레저 스포츠 스포츠 종합 골프 축구 야구 격투기 농구·배구 전국 서울·수도권 강원 충청 영남 호남 제주 오피니언 사설 칼럼 데스크칼럼 새문안通 기자수첩 원 클릭 時事 외부기고 브릿지칼럼 명의칼럼 전문가 기고 시장경제칼럼 비바100 건강 일 돈 여가 라이프 교육 복지서비스 비주얼 포토 카드뉴스 영상 영상 세상에 이런일이 스포츠 이모저모 연예·뮤직비디오 IT·산업 라이프 사회 회사소개 회사소개 조직도 찾아오시는길 회원약관 개인정보취급방침 이메일무단수집거부 신문구독신청 회사소개 | 조직도 | 찾아오시는길 | 회원약관 | 개인정보취급방침 | 이메일무단수집거부 | 신문구독신청 | 저작권 규약 | 청소년보호정책 | 원격지원 | 고충처리인 | 윤리강령 및 기자준칙 서울특별시 종로구 새문안로5길 13, 9층(당주동, 변호사회관) / 인터넷신문등록번호 : 서울,아03028 / 등록일자 : 2014년 3월 3일 / 제호 : 브릿지경제신문 / 발행인·편집인 : 김현수 / 청소년보호책임자 : 조진래 / TEL : 02-2070-0200 l FAX : 0303)0952-0200 / 한국신문협회, 한국온라인신문협회 회원사 / 매체사 자체 윤리 강령, 규제 제도에 의해 윤리강령을 준수합니다. / 인터넷신문위원회 자율심의 준수서약사 Copyright by Bridgenews Co.,Ltd. All Rights Reserved</t>
+  </si>
+  <si>
+    <t>제주도, 이색종목 스포츠대회 유치 스포츠관광 확대역할 '톡톡' &lt; 스포츠 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 이색종목 스포츠대회 유치 스포츠관광 확대역할 '톡톡' 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 스포츠 제주도, 이색종목 스포츠대회 유치 스포츠관광 확대역할 '톡톡' 기자명 고병수 기자 입력 2017.09.07 13:33 수정 2017.09.07 13:34 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 스포츠저변 확대...론볼, 파크골프, 플로어볼 등 이색스포츠 다변화 바람 (제주=국제뉴스) 고병수 기자 = 제주도에 론볼, 파크골프, 플로어볼 등 이색종목 스포츠대회 유치로 스포츠관광 확대에 대한 효과를 톡톡히 보고 있다.7일 제주도에 따르면 론볼, 파크골프, 플로어볼 등 일반인에게는 생소한 이색 스포츠 대회가 제주에서 연이어 개최돼 제주 생활체육의 다변화에도 큰 역할을 하고 있다고 밝혔다.이런 이색 스포츠 대회의 제주유치는 스포츠인의 화합은 물론 건강과 스포츠에 대한 관심을 고조시키고 지역경제에도 적지 않은 도움을 주고 있다는 것.지난 8월 22일부터 24일까지 한림읍 론볼경기장에서 전국 15개 시·도 선수단 300여명이 참가했다.이어 8월 27일부터 제주시 회천동 파크골프장에서 전국 14개 시·도 선수단 및 임원, 관계자 1000여명이 참가해 파크골프가 대중 스포츠로 새롭게 자리 잡을 수 있는 가능성을 보여줬다.이어 9월 5일부터 회천동 파크골프장에서 전국 파크골프협회 동호인 및 임원 700여명이 참가한 가운데 제4회 제주특별자치도지사배 전국 파크골프대회가 개최됐다. 이와 함께 9월 1일부터 5일까지 한라체육관에서 동남아 12개국 1000여명의 선수단 및 임원이 참가한 가운데 개최된 제3회 제주 오픈 플로어볼 대회도 펼쳐졌다.道는 이런 생소한 종목들이 생활체육에 대한 참여율을 높힐 수 있는 전기를 마련하는 견인차 역할을 수행하고 있어 의의가 큰 것으로 평가했다.  관계자는 "내년 국내·외 스포츠대회를 적극적으로 유치하며 이들 이색종목에 대한 유치도 지속 추진하고 이를 통해 내년 4.3 70주년 제주방문의 해가 제주를 방문하는 스포츠인들에게 더욱 더 뜻깊게 다가가도록 전력을 다해 나갈 방침"이라고 했다.한편 론볼 경기는 경기장에서 볼을 굴려가며 행해지는 스포츠로 장애인도 충분히 참여할 수 있고 표적이 되는 공인 ‘잭’을 먼저 굴려 놓고 공을 근접시켜 겨루는 방식으로 진행되고 파크골프는 나무로 된 채를 이용해 역시 나무로 만든 공을 쳐 잔디 위 홀에 넣는 말 그대로 공원에서 치는 골프놀이다.그리고 플로어볼은 실내 마루바닥에서 남녀노소 누구나 하키의 재미를 즐기도록 만든 스포츠종목으로 하키 형식을 변형한 경기이다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
   </si>
   <si>
     <t>제주도 중문관광단지에 위치한 맛집, ‘중문대들보’에서 성게미역국 리필 서비스 실시 주메뉴 바로가기 본문 바로가기 시작페이지로 즐겨찾기 2022.08.11 (목) 흐림동두천 22.1℃ 흐림강릉 24.4℃ 비서울 23.7℃ 흐림대전 25.6℃ 흐림대구 25.6℃ 흐림울산 27.9℃ 비광주 26.0℃ 흐림부산 27.3℃ 흐림고창 26.2℃ 흐림제주 28.4℃ 흐림강화 21.8℃ 흐림보은 23.6℃ 흐림금산 26.3℃ 흐림강진군 27.5℃ 흐림경주시 25.5℃ 흐림거제 26.7℃ 기상청 제공 회원가입 로그인 검색어를 입력해주세요. 검색하기 정치 청와대 대통령실 국회 정당 정부 선거 통일·외교 경제 경제일반 폴리경제인터뷰 폴리경제이슈 금융·증권 산업·재계 교통·유통·물류 IT·통신 생활경제 건설·부동산 바이오 소상공인 공기업 오피니언·이슈 이슈·기획 정국진단 인터뷰 좌담회 스페셜 인터뷰 칼럼 기고 기자수첩 카드뉴스 여론조사 여론조사 Bank 폴리 여론조사 사회·문화 사회 문화 교육 국제 연예 스포츠 생활 사회·문화 인터뷰 공공지방 지방자치 공공기관 단체장 인터뷰 호남 취재본부 부산·울산·경남 대구·경북 폴리TV 폴리인터뷰 폴리현장 폴리 좌담회 정치를 알려주마 경제브리핑 들어보이소 포토뉴스 직격인터뷰 김능구와이강윤의 여론조사대해부 폴리경제인터뷰 직격인터뷰 기획특집 4.7 재보궐선거 21대 총선 7회 지방선거 19대 대선 한국정당실록60년 상생과통일포럼 18차 금융포럼 창간 21주년 17차 경제산업포럼 16차 경제포럼 15차 경제산업포럼 창간 20주년 14차 경제산업포럼 13차 경제산업포럼 창간 19주년 12차 경제포럼 11차 경제포럼 창간 18주년 10차 경제포럼 8차 경제포럼 창간 17주년 7차 경제포럼 6차 경제포럼 창간 16주년 5차 금융포럼 4차 경제포럼 3차 금융포럼 2차 통일세미나 1차 경제세미나 리더십과정 서비스 알립니다 인사·동정·부고 소상공인 홈 경제 소상공인 제주도 중문관광단지에 위치한 맛집, ‘중문대들보’에서 성게미역국 리필 서비스 실시 강유라 기자 news@pcss.co.kr 등록 2017.09.08 18:49:25 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 9월 점점 가을이 다가오며 날씨는 선선해지고 있다. 이에 사계절 온화한 기후를 가진 제주도 중문관광단지로 축제 혹은 여행이 선사하는 즐거움을 만끽하기 위해 찾아오는 사람들이 점차 늘어나고 있다고 한다. 이곳에는 다양한 프로그램을 구성하고 있어 더욱 다채롭게 가을 밤을 즐길 수 있을 것으로 기대된다. 이곳에 위치한 ‘박물관은 살아있다’라는 투어코스 프로그램은 찾아오는 사람들에게는 주연의 위치로 바라보며 그림은 조연으로써 역할을 함으로 진행이되는 것이다. LED 전등 작품부터 시크릿하우스 등 여러 착시현상을 일으키는 그림 작품들로 인하여 찾는 관광객마다 즐거움을 선사한다. 비현실 체험이 가능한 것이다. 한편 이러한 관광을 마친 후에는 근처 제주도의 중문에 위치한 맛집을 찾곤 한다. 최근 성게미역국 리필 서비스를 실시하며 중문관광단지에서도 저렴한 밥집으로 알려진 ‘중문대들보’에는 도민들 외에도 다양한 외부 여행객들이 함께 찾아온다고 한다. 이곳은 보통 2인 식사가 가능한 A2세트를 제공하고 있는데 구성으로는 전복뚝배기와 고등어구이(노르웨이산), 그리고 현재 리필 서비스가 진행중인 성게미역국과 돼지볶음이 제공된다. 전복뚝배기의 경우에는 25미의 전복을 재료로 사용하고 가리비와 딱새우, 바지락등을 함께 요리하여 뚝배기로 상차림에 올려진다. 또한 멸치육수에는 된장맛을 내고 있다고 한다. 한편 ‘중문대들보’ 관계자 말에 따르면 “현재 1~2회정도 리필이 가능한 성게미역국의 경우 오래 끓여두면 퍼져서 맛이 없기 때문에 수시로 조금씩 끓여서 사용하는 것이 유익하다”라고 전했다. 강유라 기자 의 전체기사 보기 관련태그 #제주도 중문 맛집 #저렴한 밥집 강유라 기자 기업현장을 찾고 있습니다. 알아두면 쓸모있는 우리 주변의 정보를 모으겠습니다. 이메일news@pcss.co.kr 페이스북 트위터 카카오톡 카카오스토리 라인 네이버블로그 밴드 네이트온 쪽지 보내기 ⓒ 폴리뉴스(www.polinews.co.kr), 무단전재 및 재배포금지폴리뉴스는 인터넷신문위원회의 인터넷신문 윤리강령을 준수합니다. 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 추천기사 이슈·기획 [김능구와 이강윤의 여론조사 대해부 8월②] “비대위 체제의 국힘, ‘여당 다움’ 회복하는 변화 기회 될까?” [정연아 칼럼] 윤석열 대통령의 패션에는 상식이 없다(2) 尹대통령 “국민안전에 대해 국가는 무한책임, 모든 공직자는 꼭 알고 있어야” 尹정부 첫 주택공급대책 16일 발표…폭우에 한 주 연기 김동연 첫 도정연설서 '경기도 여야정 협치모델' 제안... 尹정부 "일 제대로 못해" '이준석 키즈' 박민영 대통령실 발탁 "상징적인 의미, 대변인실에서 실무적인 일 하게 될 것” 많이 본 기사 1"시키면 시키는 대로 해라" 오거돈, 점령군처럼 호통쳐... 2금융투자협회 "7월 글로벌 경기 침체 우려로 금리 하락…개인 채권투자 큰폭 증가, 외국인 순투자 지속" 3[한길리서치] 尹대통령 지지율31% 6.8%p↓ 부정67%, ‘국힘38.4%-민주32.1%’ 4[알앤써치] 차기 ‘이재명39.6%-오세훈13.3%-한동훈12.8%’ 5[한길리서치] 민주당 대표 지지도 ‘이재명44.9%-박용진28.8%-강훈식4.5%’ 6[알앤써치] 尹대통령 지지율29.5% 부정평가68%, 취임후 처음 20%대 7홍준표 “사면은 검찰 아닌 정치 잣대…국민통합 대사면 해야” 8[한길리서치] 국힘 당대표 ‘유승민23%-이준석16.5%-안철수13.4%-나경원10.4%’ 이슈 더보기 [이슈] 비대위에 “윤핵관 NO” 외친 주호영, 당내 부정기류까지…‘권성동 배제론’ 대두 [폴리뉴스 김유경 기자] 국민의힘이 '당 비상상황'으로 규정하고주호영 비상대책위원장을 내세운 비대위 체제로 전환했다. 주 위원장은 비대위원장으로 첫 일성으로비대위원에 '윤핵관 배제' 입장을 밝혔다. 집권여당이 이 같은 위기 상황에 놓이게 된 데에는 이준석 대표뿐 아니라 ‘윤핵관(윤석열 대통령 핵심 관계자)’에도 책임이 있는 비판이 당내에서 나오고 있다. 특히 당지도부인 권성동 원내대표의 책임론이 거론되면서 '권성동 비대위 배제론'이 대두되고 있다. 비대위 체제 전환과 이준석대표 자동해임 상황에 이르기까지 그 출발점은 이 대표의 성상납 및 증거인멸 시도 의혹 관련한 윤리위원회 징계 결정이다.'윤심' 개입설, '윤핵관 음모론'이 퍼져있는 가운데윤 대통령과 권성동 원내대표의‘내부총질’ 문자 파동이 터지면서 '윤핵관 대 이준석'의내분 사태는일파만파로 커져갔다. 게다가 권 원내대표는 대통령실 사적 채용·9급공무원 임금 발언 문제도 안고 있다. 무엇보다 '원내대표'와 '대표직무대행'까지 당대표와 원내대표 권한을 모두 갖고 있었던 '원톱'이었음에도 당을 결국 비대위 체제로 만들었다는 비판을 면키는 어려워졌다. 주호영 비대위원장은 지난 9일 비대위원장 취임 연설에서 “상 [김능구와 이강윤의 여론조사 대해부 8월②] “비대위 체제의 국힘, ‘여당 다움’ 회복하는 변화 기회 될까?” [폴리TV][김능구와 이강윤의 여론조사 대해부 8월②] “비대위 체제의 국힘, ‘여당 다움’ 회복하는 변화 기회 될까?” [이슈] 이준석, 결국 '비대위 효력정지' 가처분 신청, 법적 전면전 선포...국민의힘 격랑 [김능구와 이강윤의 여론조사 대해부 8월①] “국정지지율 반전의 기회, 윤 대통령의 초심 ‘공정과 상식’에 답이 있다” 인터뷰 더보기 [폴리TV][스페셜 인터뷰] 씽크풀 김동진 대표가 전하는 고물가 고금리 고환율 시대의 투자 전략 [폴리뉴스 강경우 PD] 폴리뉴스는 씽크풀 김동진 대표를 만나 하반기 경제 전망과 한미 금리 인상, 국내 증시 전망과 투자 전략 등에 대해 들어봤다. 김동진 대표는 연세대학교 경영학과와 대학원을 졸업하고 1986년 한국은행에 입행해 조사부와 은행감독원에 8년 간 근무하고 1994년 씽크풀을 설립해 대표직을 맡고 있다. [스페셜 인터뷰] 씽크풀 김동진 대표가 전하는 고물가 고금리 고환율 시대의 투자 전략 [폴리TV][스페셜 인터뷰] 씽크풀 김동진 대표 전하는 하반기 주식시장 전망 [폴리TV][김능구의 정국진단] 이원욱 의원이 진단하는 민주당 대선 패배의 원인 ② [폴리TV][스페셜 인터뷰]② 이용섭 전 광주시장 “국가균형발전 핵심 정책으로 초광역화 사업 반영돼야” [폴리TV][스페셜 인터뷰]① 이용섭 전 광주시장 “尹정부, 부자감세 비판 면하기 어려워… MB정부 낙수효과 실패 교훈 삼아야” 카드뉴스 더보기 [카드뉴스] KT&amp;G의 '바다 환경'을 지키기 위한 노력을 소개합니다 [폴리뉴스 김상준 기자] "여름철이면 생각나는 바다. 우리 모두가 환경 오염의 심각성을 환기하고 생태계 보호의 중요성을 공감해 환경보호를 실천하도록 KT&amp;G도 함께 노력하겠습니다" 지구 표면 2/3 이상을 차지하며 30만여 종의 생물이 살고 있다는 생명의 보고, 바다! 특히 여름철, 휴가를 갈곳으로 가장 먼저 떠올리곤 합니다. 2015년 세계자연기금(WWF)에서 발표한 자료에 따르면 바다의 자산 가치는 24조달러(2경9000조) 이상입니다. 휴가철에 보는 아름다운 경관뿐만 아니라 경제적 자산으로서도 바다는 매우 소중하고 가치있다고 할 수 있습니다. 하지만 이렇게 소중한 바다가 환경오염으로 인해 심각한 위험에 처해 있습니다. 일회용품 소비가 급증하면서 해양 쓰레기로 인한 생태계 피해가 심각한 수준입니다. 여러 단체가 바다를 위한 노력을 기울이는 가운데, KT&amp;G 역시 '바다환경 지키기'에 적극 동참하고 있습니다. KT&amp;는 2022년해양환경공단, 사단법인, 동아시아바다공동체 오션과 함께 바다를 지키기 위한 업무협약을 체결했습니다. 이 협약은 올해 다양한 해양 환경 활동을 추진하는 내용을 담고 있습니다. 특히 해양 오염 심각지역 실태조사 [카드뉴스] 팽팽한 찬반 논란의 '지역상권법'…뭐길래 [폴리뉴스 김미현 기자] ‘지역상권 상생 및 활성화에 관한 법률안(지역상권법)’제정을 놓고 찬반 의견이 팽팽하게 맞붙고 있습니다. 이 법은 지역상생구역이나 자율상권구역으로 지정된 지역에 스타벅스 같은 대기업 계열 점포의 출점을 제한하는 것이 골자입니다. 대상은 유통산업발전법(유통법)과 중소기업 적합업종제도 등에 포함되지 않아 규제를 받지 않는 대기업입니다. 법안이 시행될 경우대기업이 운영하는 직영 점포의 신규 매장을 열기 위해서는 지역상인의 동의를 받아야 합니다. 이는 임대료 상승에 따른 소상공인의 내몰림 현상(젠트리피케이션) 문제를 막고자 마련됐습니다. 복합 쇼핑몰이 들어오면 주변 임대료가 뛰는 경향이 있습니다. 하지만 이를 두고 유통업계는 소비자들의 편의성을 떨어뜨리는 과도한 중복 규제라고 반발에 나섰습니다. 또 재산권과 영업의 자유를 침해하는데다 대기업 프랜차이즈보다 자영업체의 고용률이 낮아질 가능성도 우려하고 있습니다. 하지만 지역상권의 특색을 유지하기 위해서는 해당 법안의 제정이 필요하다는 의견도 나옵니다. 소상공인과 대기업 모두'상생'을 이룰 수 있는정책이 절실한 때입니다. 트렌드&amp;토픽 더보기 尹대통령, 윤희근 경찰청장 임명 재가…청문보고서 없는 11번째 임용 [폴리뉴스 한지희 기자] 윤석열 대통령이 윤희근 경찰청장 임명안에 재가했다. 이에 야당에서는 “국민은 안중에도 없는 독선과 독주”라고 힐난했다. 윤 대통령은 10일 윤 청장에게 임명장을 수여했다. 지난 8일 오전 10시부터 오후 7시까지 장장 9시간동안의 인사청문회을 거쳤지만 더불어민주당의 반대로 채택되지 못했음에도다. 청문보고서 채택 없이 임명된 인선으론 박진 외교부·이상민 행정안전부·박보균 문화체육관광부·원희룡 국토교통부·한동훈 법무부·김현숙 여성가족부·박순애 교육부 장관과 김창기 국세청장, 김승겸 합참의장, 김주현 금융위원장 등이다. 지난 8일 박순애 사회부총리 겸 교육부 장관은 결국 사퇴했다. 윤 경찰청장은 이날 오후 취임사에서 "경찰권은 엄격한 견제와 감시 아래 행사돼야 하지만 경찰의 중립성과 책임성 또한 결코 훼손돼선 안 된다. 어떠한 바람에도 중심을 잡고 나아가도록 최선을 다하겠다"고 밝혔다. 또 "안전은 국민의 기본권이자 경찰의 존재 이유인 만큼 든든한 민생안전을 확보하겠다"며 "법질서는 국민 안전의 기초이며 사회통합과 국가발전의 원동력이다. 집회 시위 현장에서도 균형 있고 일관된 법 집행이 이뤄져야 한다"고 강조했다. 그러면서 “환경변화에 선 홍준표 “사면은 검찰 아닌 정치 잣대…국민통합 대사면 해야” 박진 장관, 中에 "사드3불, 합의·약속 아니다…한중관계는 사드가 전부 아냐" "31년의 외침, 할머니들에게 인권을"…'위안부' 기림일 맞아 세계연대집회로 열려 '비구름 남하' 충청권 최대 300mm 이상 물폭탄 비상…8일 이후 폭우로 16명 사망·실종 폴리TV 더보기 [폴리TV][김능구와 이강윤의 여론조사 대해부 8월②] “비대위 체제의 국힘, ‘여당 다움’ 회복하는 변화 기회 될까?” [폴리TV][김능구와 이강윤의 여론조사 대해부 8월①] “국정지지율 반전의 기회, 윤 대통령의 초심 ‘공정과 상식’에 답이 있다” [폴리TV][스페셜 인터뷰] 씽크풀 김동진 대표가 전하는 고물가 고금리 고환율 시대의 투자 전략 [폴리TV][스페셜 인터뷰] 씽크풀 김동진 대표 전하는 하반기 주식시장 전망 매체소개 이용약관 개인정보취급방침 청소년보호방침 (책임자 : 한유성) 기사제보 이메일 무단수집거부 (07327) 서울 영등포구 여의나루로 71 동화빌딩 1607호 | 대표전화 02-780-4392등록번호 : 서울아00050 | 등록일자 : 2005년 9월 12일 | 발행인 : (주)이윈컴 김능구 | 편집인 : 박혜경 폴리뉴스의 모든 콘텐츠는 저작권법의 보호를 받는바, 무단 전재·복사·배포 등은 법적 제재를 받을 수 있습니다. Copyright © 2000 (주)이윈컴. All rights reserved. mail to polinews@polinews.co.kr UPDATE: 2022년 08월 11일 00시 18분 최상단으로</t>
   </si>
   <si>
-    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-04 10:12 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N2 이전 다음 사드 이후 … 제주도내 관광사업체 오히려 증가 “왜?” 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 경제 관광 사드 이후 … 제주도내 관광사업체 오히려 증가 “왜?” 홍석준 기자 승인 2017.09.04 11:17 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 8월말 기준 신규 128곳, 휴·폐업 83곳으로 업체 수 45곳 늘어 사드 여파로 인한 제주도내 관광업계 위기가 장기화되고 있는 가운데, 관련 업체수는 오히려 늘어난 것으로 나타났다. ⓒ 미디어제주 제주도가 사드 위기 극복을 위한 관광시장 질적 개선을 위해 역량을 집중하고 있는 가운데, 도내 관광 관련 사업체는 오히려 늘어난 것으로 나타났다. 4일 제주특별자치도에 따르면 8월말까지 제주를 찾은 관광객은 993만8000명으로 지난해보다 6.7% 감소한 것으로 나타났다. 이 중 내국인은 896만4000명으로 지난해보다 9.7% 증가했지만 외국인은 97만4000명으로 60.7% 감소, 사드 여파로 줄어든 외국인 관광객 감소 충격을 국내 관광객 증가로 상당 부분 완화시키고 있는 것으로 분석됐다. 외국인 관광객 중에서는 일본 관광객이 5년만에 증가세로 돌아섰고 아시아권 주력 국가들이 두 자리수 증가세를 보이는 등 시장 다변화 노력의 성과가 조금씩 나타나고 있다. 사드 이후 도내 관광업체는 휴업 또는 아예 문을 닫는 업체가 속출하고 있는 가운데, 신규 업체도 크게 늘어나면서 전체 업체 수는 오히려 늘어난 것으로 나타났다. 실제로 여행업은 3월 1081곳 중 휴업 5곳 폐업 54곳 등 모두 59곳이 감소했지만 신규 업체도 73곳이나 돼 8월말 현재 여행업 업체 수는 오히려 14곳이 늘었다. 관광숙박업도 휴업 1곳, 폐업 7곳 등 8곳이 줄어들었지만 14곳이 새롭게 문을 열면서 전체 업체 수는 종전 394곳에서 399곳으로 늘어났다. 특히 유원시설업은 종전 32곳 중 2곳이 문을 닫았지만 새롭게 문을 연 곳이 27곳이나 돼 전체적으로는 57곳으로 급증한 것으로 나타났다. 이에 대해 도 관계자는 “중국 관광객에 의존하던 업체들이 타깃 시장을 전환하거나 인력을 감축하는 등 자구책을 마련하고 있다”면서 “도에서도 관광진흥기금을 지원하는 등 사드 극복을 위한 공동 노력을 기울이고 있다”고 말했다. &lt;홍석준 기자 / 저작권자 ⓒ 미디어제주 무단전재 및 재배포 금지&gt; 저작권자 © 미디어제주 무단전재 및 재배포 금지 홍석준 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 실시간 댓글 밥을 같이 먹는 식구가 서로 살아갈 힘을 주고 받듯 책을 함께 공유하는 것이 같은 원리라는 말이 깊이 와 닿네요~ 아이들 어릴적 책을 읽어 주면서 정서적 교감했던 행복한 기억이 있네요. 요즘은 바쁘다는 핑계로 책 읽어주기를 못했는데 다시 도전해봐야 겠네요. 혼자보다 함께 해야 하는 현 시대에 필요한 맞춤형 독서지도라는 생각이 듭니다 잘 읽었습니다. 내년엔 저도 참여해보고 싶네요~~ 여러 권 읽는 것보다 한 권을 여러 명이 토론하는 것이 낫다는 말 공감합니다^^ 가장 많이 읽은 기사 1제19회 賢테니스회장배 전도클럽대항 테니스대회 ‘후끈’ 2한글서예 ‘한평생 한길’, 한곬 현병찬 선생 세종문화상 수상 3서귀포시, '중장년 스타트업 부트캠프' 참가자 모집 4제주의 얼을 담다 ... 탐라문화제, 3년만에 대면행사로 5선흘 동백동산에서 평화의 노래를 "제주4.3 평화음악축제" SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
-  </si>
-  <si>
-    <t>제주도, 아태지역 지속가능 발전 문화관광 워크숍 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 아태지역 지속가능 발전 문화관광 워크숍 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도, 아태지역 지속가능 발전 문화관광 워크숍 개최 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2017.09.07 12:02 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 유엔훈련연구기구(UNITAR) 제주국제연수센터, 세계지방정부연합 아태지부(UCLG-ASPAC), 제주관광공사와 공동으로 오는 12일부터 15일까지 제주국제연수센터와 부영호텔에서 '아태지역 지속가능한 발전을 위한 문화관광 워크숍'을 개최한다고 밝혔다.워크숍에서는‘아태지역의 문화관광을 위한 문화관광'을 주제로 해 유엔연구훈련기관(UNITAR), 뉴캐슬 국제연수센터, 상하이 국제연수센터, 필리핀 국제연수센터, 유엔관광기구, 지속가능관광위원회, 문화개발네트워크, 제주올레에서 초청된 8명의 전문가가 참여한 가운데 토론이 진행된다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도 가을여행! 서귀포 중문 관광 후 흑돼지 맛집 돈가득 탐방까지 &lt; 보도자료 &lt; 기사본문 - 디트NEWS24 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 뉴스 칼럼 디트TV 충남 naver-tv youtube facebook 로그인 검색버튼 기사검색 검색 본문영역 현재위치 홈 보도자료 제주도 가을여행! 서귀포 중문 관광 후 흑돼지 맛집 돈가득 탐방까지 이전 기사보기 다음 기사보기 기자명 박길수 기자 입력 2017.09.01 16:51 댓글 0 SNS 기사보내기 기사저장 카카오톡(으)로 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 이 기사를 공유합니다 카카오톡(으)로 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 바로가기 본문 글씨 키우기 본문 글씨 줄이기 어느새 선선해진 날씨와 높은 하늘이 성큼 다가온 가을을 실감하게 한다. 나들이하기 좋은 계절 가을에 환상의 섬 제주도로 떠나는 여행은 누구나 꿈꾸기 마련. 제주도 안에서도 ‘중문관광단지’는 제주도의 이국적이면서도 웅장한 자연 절경과 함께 테마 박물관, 맛집 등 다양하게 제주도를 느끼고 즐길 수 있는 요소가 많은 제주 관광의 핫플레이스다.3단으로 쏟아져 내려오는 ‘천제연 폭포’와 오랜 시간 파도에 부딪혀 만들어낸 ‘주상절리’에 들러 자연이 주는 거대한 감동과 힐링을 만끽하고 사진으로 남겼다면 반달모양의 ‘색달해변’을 따라 가을바다를 거니는 산책을 권한다. 푸른 제주바다와 파란 하늘, 색달해변의 가장 큰 특징인 4가지 색깔을 띄는 ‘진모살’ 모래를 밟으며 걸으면 색다른 여유를 느낄 수 있을 것이다.가족들 특히 아이들과 함께 하는 여행이라면 테디베어박물관, 초콜릿랜드, 트릭아트뮤지엄 등 다양한 테마의 박물관 관람도 좋다.도심에서는 보기 힘든 큰 규모의 박물관에서 색다른 경험을 할 수 있어 아이에게다 어른에게나 좋은 추억이 될 것이다. 이렇게 이곳저곳 돌아다니며 관광을 한 후 흑돼지 맛집에서 든든한 식사 한 끼로 알차게 마무리 해보자. 중문동 2025-1에 위치한 ‘돈가득’은 복분자를 뿌린 흑돼지로 유명한 곳이다. 품질 좋은 제주도산 흑돼지를 국내산 참숯에 굽는데, 굽기 직전 복분자를 뿌려주어 고기의 잡내를 없앤다.미리 뿌려두면 고기가 흐물흐물해지기 때문에 굽기 직전 뿌리는 것이 비법인데, 참숯 향과 함께 달달한 복분자 향까지 더해져 직접 맛을 본 손님들의 만족도가 높다.또 잘 구워진 흑돼지와 함께 먹는 ‘돈가득’만의 특제양파절임은 양파와 간장 조합이 아닌 양파와 식초, 고춧가루만 넣은 깔끔한 맛으로 흑돼지와 환상의 궁합을 자랑한다.‘복분자 흑돼지’로 인기를 끌면서 최근 MBC에브리원 ‘맛있을 지도’라는 방송에도 소개된바 있는 ‘돈가득’. 진행자인 개그맨 김경식과 일본여자연예인 사유리의 까다로운 입맛을 사로잡으며 푸짐한 먹방을 완성했다는 후문이다.‘돈가득’에서 푸짐한 복분자 흑돼지 한상으로 제주도 중문에서 맛있는 추억을 남겨보는 것은 어떨까. 예약 및 문의 가능하다. 박길수 기자 bluysky2002@hanmail.net 기자의 다른기사 저작권자 © 디트NEWS24 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 추천뉴스 지하에 갇힌 사람들, 그리고 지상의 정치인들 감사원 ‘文 서면 조사 통보’에 여야 ‘정면 충돌’ 제40회 금산인삼축제 개막, '다양한 볼거리 먹거리' 대박예감 정진석·이재명 '균형발전' 공언, 충청권 메가시티 '기대감' [현장] “백제문화제가 돌아왔다” 들썩이는 부여 인기기사 주간 일간 1 [현장] “백제문화제가 돌아왔다” 들썩이는 부여 2 3년 만에 만나는 백제문화제 ‘100배 즐기기’ 3 한화이글스, 퓨처스리그 및 U-23 대표팀 연습경기 생중계 4 터크먼 라미레즈 페냐, 한화이글스 '외국인 3인방'의 운명 5 천안 원룸 여자친구 살해 조현진, 항소심서 징역 30년 6 한국타이어 금산공장 다물단, 소년소녀가장 가정에 생필품 전달 7 용산초 학부모들 "모듈러 교실 절대 반대, 등교 거부 하겠다" 8 세종시 비알티 도로 '4시간 집중 단속'... 위험천만 현장 노출 9 서산시 동문2동 다가구주택 화재 10 대전은 소유권 이전 등기 전까지 전매제한 1 제1회 세종시 ‘어울링 바이크’ 투어... 오는 7일 접수 마감 2 세종서 시행 앞둔 '일회용 컵 보증금 반환제' 불편 우려 3 조승래 “연구비 부정 사용 과기부 연구개발사업 350건” 4 박영순 “정부까지 언론 상대 소송, 윤 정권 언론 길들이기 노골화” 5 천안시, 대규모 점포와 상생 도모 6 천안시설관리공단, 지역사회 화재 예방을 위한 ‘안전지킴이’ 7 새마을문고충남도지부, 2022 새마을문고지도자 교육 및 워크숍 실시 8 천안상록리조트, 수신면 독거노인 가구 사랑의 집수리 봉사활동 9 대덕구-나눔복지재단, 육아복합마더센터 운영 위수탁 협약 10 충남대, 2022년 세종도서 7권 선정 실시간 댓글 최신댓글 댓글많은기사 1 삼가 고인의 명복을 빕니다. 2 높아지기는 모습도 연출했다. 오타가 있네요 3 듣기 싫고 거북하면 , 안 하면 댜 !~~~ 4 자세한 내용은 모르지만 시민단체 어쩌고 하는 떨거지들과 거리를 유지하는 건 정말 잘하는 일이다 5 모듈라가 대전뿐이아니고 전국적으로다가 다허고있는디 대전만 금태둘럿네 6 애들 돈주는거는 좌파우파 안가리고 모든지로다가 대찬성이여 7 흐미 물감 아까워 8 손자라고 해서 그렇지 아들이라고 했으면 기분좋아서 그날 기분째졌을듯 9 오전부터 회의 영상 보면서 교육청직원들의 업무처리능력에 감탄 했어요 일을 그리 못하면서 월급 받는 능력자 시의원의 질의에 한 건도 명확한 답변이 없는 일 처리 능력이 정말 대단하십니다 10 모듈러교실이 있는곳으로 꼬옥 이사가서 손주들을 보내라 저런 분이 국회의원 되야 교육이 살아남을것인데. 아직 보수가 죽지 않았구려. 내 그대의 팬이 되겠소 1 용산초 학부모들 "모듈러 교실 절대 반대, 등교 거부 하겠다" 2 "손주들 모듈러 교실로 꼭 보내라"..대전시의회, 시교육청 '난타' 3 이상래 대전시의장, 외유논란 사과...제주연수는 취소 4 대덕구의원 8명, 세비 반납도 구정질문도 안한다 5 서철모 서구청장, 본회의장에서 대놓고 의회 무시? 6 위태로운 9대 대전시의회, 애꿎은 사무처에 화풀이? 7 이상래 의장, 첫 정례회-전국의장협의회 불참 '외유 논란' 8 황운하·홍성국, 李에 ‘공공기관·대통령 집무실’ 지원 요청 9 대전 UCLG 총회 ‘반전’ 115개국·2700여 명 참가 등록 10 안장헌 의원, 전형식 부지사에 "좀 배우고 오세요" 직격 하단영역 주요뉴스 논산에 둥지 튼 ‘한국유교문화진흥원’ 문 열었다 엑스포조직위-건양대, 엑스포 성공 개최 업무협약 체결 천안시, 충남체육대회 종합우승...해단식 가져 감사원 ‘文 서면 조사 통보’에 여야 ‘정면 충돌’ 한국효문화진흥원, 10월 효의 달 명인회와 함께하는 기획 전시 대전시교육청, 김진수 부교육감 부임 목원대 컴퓨터공학과 여상수 교수, 대통령 표창 배재대 재학생 ‘2022 순천 전국 학생웹툰 공모전’ 우수상 최만묵 ㈜한남하이텍 대표, 한남대 명예이학박사 학위 수여 충남대, 2022년 세종도서 7권 선정 전체보기 Contact US 대표전화 042-471-8114 팩스 042-471-8120 제보전화 042-471-811424시간 긴급 기사·사건 제보(심야·공휴일) Infomation 매체소개 기사제보 광고문의 이용약관 언론윤리강령 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 장기간행물등 사업등록증 : 대전 아 00003 등록년월일 : 2001-08-01 제호 : 디트NEWS24 법인명 : (주)디트뉴스24 발행일 : 2001-08-01 발행인 : 박길수 편집인 : 김재현, 박길수 청소년보호책임자 : 박길수 대전광역시 서구 한밭대로 755 (삼성생명) 삼성생명빌딩 703호 대표전화 : 042-471-8114 팩스 : 042-471-8120 [ 디트뉴스24 ] 사업자번호 : 305-81-63253 통신판매업신고번호 : 제2011-대전중구-0243호 Copyright © 2022 디트NEWS24. All rights reserved. naver-tv youtube facebook 위로 전체메뉴 전체기사 정치 전체 국회/청와대 대전 충남 세종 행정 전체 대전 정부대전청사 세종 정부세종청사 충남 경제 전체 건설·부동산 유통 금융 경영·기업 이기업인 창업정보 과학·IT·드론 대전테크노파크 스마트혁신 사회 전체 법원/검찰 경찰 대전 세종 충남 교육문화스포츠 전체 교육일반 초중고 대학 문화일반 공연전시 문학소설 스포츠 책이야기 책 기부 캠페인 내부칼럼 전체 사설 디트의 눈 데스크칼럼 관점 김학용 칼럼 외부칼럼 전체 자문위원 칼럼 자유기고 오광영의 손스피커 대덕구 혁신로드 강영환의 로컬노믹스 여정권의 야구에 산다 한기원 칼럼 권혁필의 새로운 생각 성광진의 교육 통(痛) 이지완의 포토詩세이 김충남의 열두줄 인문학 라창호의 허튼소리 가기천의 확대경 박경은의 힐링에세이 송선헌의 시와 그림 김종진의 행복한 인성 이야기 김경훈의 공감소통 변해섭의 선거법 해설 리헌석의 예술계 산책 정승열의 세계 속으로 송진괄의 신비한 산야초 오정균의 세상만사 박한표의 사진 한 장 강영환의 정치 톺아보기 손창규의 과학 한의학 길공섭의 빛그림 황종규의 술이야기 윤영애의 명리 山海境 디트맛집 전체 대전 세종 충남 언론계 전체 언론계 소식 미디어비평 본사-알립니다 디트메디 전체 의료계 의료인 충남디트 전체 천안·아산 서산·태안·당진 공주·부여·청양 예산·홍성 논산·계룡·금산 보령·서천 디트사이언스 전체 대덕특구 출연연구기관 중기벤처기업 보도자료 전체 대전시 세종시 충남도 동구 중구 서구 유성구 대덕구 기타 사람들 전체 부음 결혼 인사 행사·모임 수상 동정 사람들 우리기관 홍보맨 사람이 미래다 웰빙 전체 여행과 레저 트렌드 TV/연예 전체 TV 연예 대전교육복지소식 전체 교육청소식 학교소식 학생기자단 정보마당 충남체육예술교육 전체 충남도교육청 지역교육지원청 학교소식 미분류 지난연재 기타 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도관광협회 국제관광전 최우수 홍보상 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:20 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도관광협회 국제관광전 최우수 홍보상 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 제주도관광협회 국제관광전 최우수 홍보상 정용기 기자 승인 2017.09.12 14:43 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [제주일보=정용기 기자] 제주특별자치도관광협회(회장 김영진)는 지난 11일 부산 벡스코에서 개최된 제20회 부산국제관광전에서 최우수 홍보상을 수상했다.정용기 기자  brave@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 정용기 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>[로컬 브리핑] 제주도평생교육진흥원, 제주관광 아카데미 운영-국민일보 시사 시사 &gt; 전체기사 [로컬 브리핑] 제주도평생교육진흥원, 제주관광 아카데미 운영 입력 : 2017-09-03 18:47 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 제주도평생교육진흥원은 관광분야 예비종사자들을 위해 ‘제주관광 아카데미’를 운영한다고 3일 밝혔다. 교육은 기본·심화과정 및 일반인·대학생 반으로 나눠 단계별로 진행된다. 교육과정은 현장답사 1회를 포함해 총 12회·26시간으로 구성됐다. 교육 내용은 인문학으로 보는 관광, 제주에 널린 유·무형 자원 알기, 지역관광이란 무엇인가, 사례로 만나는 지역관광, 2017 관광 트렌드 내다보기 등이다. 대학생 과정은 15일부터 다음달 27일까지, 일반인 교육은 14일부터 다음달 26일까지 각각 운영된다. GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 ‘채널A 기자 명예훼손 혐의’ 최강욱 1심 무죄 조종수 김건희, 칼 든 검사들…고교생이 그린 ‘윤석열차’ 이재명, 尹 겨냥 “지금 휘두른 칼날, 스스로에게 되돌아갈 것” 직원 폭행에 내연녀 심부름까지…회장님의 ‘갑질’ 의혹 “도와야겠어”…생방중 이재민에 뛰어간 카메라맨 [영상] 尹, 감사원 文조사 논란에 “대통령 언급 부적절” “날 해치려고?” 칼부림… 마약 하면 누구든 ‘괴물’ 돌변 한밤중 횡단보도서 택시에 치인 여중생…보름만에 숨져 “서울-평양 올림픽 제안서 보니…北 인프라 구축 22조” 한밤중 횡단보도서 택시에 치인 여중생…보름만에 숨져 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 [속보] ‘채널A 기자 명예훼손 혐의’ 최강욱 1심 무죄 ‘김치용 배추’ 구글 번역기 돌리니 ‘Chinese cabbage’ 日 22세 거포 무라카미, 56호 홈런으로 신기록 썼다 주호영 “文, 왜 과민반응인지 모르겠다…조사 응해야” 경기도 ‘면접수당’ 문화 확산…지급 인증 기업 모집 임윤찬의 베토벤 ‘황제’ 실황 앨범 11월 발매 이재명, 尹 겨냥 “지금 휘두른 칼날, 스스로에게 되돌아갈 것” 광주의 10월 가을축제 향연…세계 최대 거리공연 첫선 [단독] 文정부 ‘최초 5G 상용화’ 180조원 홍보…과기부 “경제효과 측정 불가” 이재명, 감사원 文 조사에 “‘공포정치’ 尹정부에 강력 경고” 尹대통령, 北미사일에 “NSC 개최”…감사원 조사엔 “일반적 원칙” 완도수목원서 숲속음악회…‘가을산책 문화행사’ 풍성 尹 “북한 4000㎞ 미사일 발사…핵도발, 결연한 대응 직면할 것” 하나투어·질병관리청, ‘SAFETY CODE’ 공동 캠페인 대구경찰 텔레그램 가상자산 마약유통·투약 53명 입건</t>
-  </si>
-  <si>
-    <t>[9월에 제주도 가볼만한 곳] 관광과 힐링여행을 동시에 '서귀포 교래자연 휴양림+ 곶자왈+팽나무 마을길' &lt; 리빙 &lt; 라이프 &lt; 기사본문 - 문화뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 매체소개 기사제보 구독하기 naverpost facebook instargram twitter navertv MHN 편집 : 2022-10-04 10:04 (화) 문화 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 인터뷰 포토 오피니언 기고·칼럼 리뷰 커뮤니티 회원정보 로그인 회원가입 전체메뉴 버튼 최신뉴스 정일우-권유리, 'APAN' 진행 맡았어요 [포토] 전미도, 순백의 여신미 뽐내며 [포토화보] 허성태, 카리스마 유지 실패 [포토] 강영석, 올블랙 수트로 멋지게 [포토] 탕준상, 멋지게 차려 입고 [포토] 한상진, 부드러운 미중년 미소 [포토] 소이현, 언제나 상큼 미모 [포토] 다샤 타란 'APAN' 참석했어요 [포토] 진선규, 알고보면 부드러운 남자 [포토] 김신록, 신스틸러 여신 'APAN' 참석 [포토] 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 [9월에 제주도 가볼만한 곳] 관광과 힐링여행을 동시에 '서귀포 교래자연 휴양림+ 곶자왈+팽나무 마을길' 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 라이프 리빙 [9월에 제주도 가볼만한 곳] 관광과 힐링여행을 동시에 '서귀포 교래자연 휴양림+ 곶자왈+팽나무 마을길' 기자명 전서현 입력 2017.09.03 12:06 수정 2017.10.30 14:44 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [문화뉴스 MHN 전서현 기자] 9월 주말에 가볼만한 곳으로 제주도 여행을 준비하는 이들이라면 서귀포에 위치한 곶자왈을 추천한다. 관광과 힐링여행을 동시에 할 수 있기 때문.곶자왈에는 교래자연휴양림과 곶자왈, 명월이 팽나무 마을길 등이 마련돼 있다. 모두 천연힐링을 모토로 자연 그대로의 모습이 보전돼 있는 곳이다. ▲ 교래자연휴양림의 야영장 전경. 가을에 제주도 가볼만한 곳을 찾는 이들이라면 특별한 추억을 남길 수 있어 적극 추천한다 ©교래자연휴양림 교래자연휴양림은 위치한 곳으로 치유와 휴식공간을 위해 천연림을 원형 그대로 보전한 곳이다. 촉촉이 젖은 숲을 바라보기만 해도 힐링이 된다. 한림읍에 위치한 명월리 팽나무 마을길은 500년 이상 된 팽나무 60여 그루가 군락을 이루고 있는 곳이다. 모진 비바람을 이겨내며 자란 나무들에게서 뿜어나오는 신비함과 웅장함이 멋스럽다.한국에서 가장 신비로운 숲으로 알려진 곶자왈 환상의 숲은 아바타에 나오는 정글처럼 원시림의 모습을 그대로 볼 수 있어 도심에서만 자란 아이와 함께 가볼 만한 곳으로도 적극 추천한다. ▲ 천연힐링을 모토로 자연 그대로의 모습이 보전돼있는 곶자왈 숲 ©제주관광공사한림읍 명월리에 팽나무 마을길의 팽나무는 한국의 정자목 중 느티나무 다음으로 많이 심어져 있는 수종이다.양지와 음지를 가리지 않으며 비옥한 사질양토에서 잘 자란다. 성장이 빠른 편이고 평탄하고 깊은 땅을 좋아하며 상당히 습한 곳에서도 견딘다. 내한성과 내공해성,내염성 등이 강하고 적응능력이 뛰어난 수종이다. 팽나무가 뿜어내는 건강한 기운을 받는다고 생각하면 여행 전부터 건강해지는 기분이 들정도다. ▲ 교래자연휴양림은 이용객들에게 곶자왈의 생태 체험과 숲에 대한 올바른 이해와 다양한 정보, 지식을 전달하고 안내하는 해설사를 배치 운영하고 있다 ©교래자연휴양림한편, 교래자연휴양림을 찾는 이용객들에게 곶자왈의 생태 체험과 숲에 대한 올바른 이해와 다양한 정보, 지식을 전달하고 안내하는 해설사를 배치 운영하고 있습니다.숲해설 신청시간은 09:30~11;00, 13:00~15:30 사이다. 숲해설 신청은 제주돌문화공원 겨래자연휴양림 홈페이지 '문화관광해설사지원'란을 통해 자세히 안내받을 수 있다. jun0206@mhns.co.kr 주요기사 연금복권의 현재가치 계산! 연금복권 720 +, 일시불로 따지면 얼마? 제임스 웹 망원경이 보내온 첫 번째 사진...허블 망원경과 차이점은? 2022년 9급 공무원 월급과 연봉...과연 최저시급보다 적을까? [포토] 한소희 '예쁜 미소' 관련기사 '발레리안'·'킬러의 보디가드'·'아토믹 블론드'·'김광석'의 박스오피스 기습[문화파일] "꽃 같이 살래 '선미'답게"…여성 솔로 가수로서의 '선미'[MHN화보] 워너원 강다니엘 '넬피지컬 파헤쳐보기!'김연정 치어리더, 근황 공개 우월한 9등신 포스 "예쁜 블랙원피스 입고"'소사이어티 게임2' 향한 이야기 "연예인, 규칙변경, 더 지니어스, 장동민" 전서현의 다른 기사 보기 전서현 jun0206@mhns.co.kr 독자와 공감을 통해 더 나은 내일을 만들겠습니다. 최신기사 인기기사 저작권자 © 문화뉴스 무단전재 및 재배포 금지 포토 정일우-권유리, 'APAN' 진행 맡았어요 [포토] 전미도, 순백의 여신미 뽐내며 [포토화보] 허성태, 카리스마 유지 실패 [포토] 강영석, 올블랙 수트로 멋지게 [포토] 탕준상, 멋지게 차려 입고 [포토] 한상진, 부드러운 미중년 미소 [포토] 소이현, 언제나 상큼 미모 [포토] 다샤 타란 'APAN' 참석했어요 [포토] 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 정일우-권유리, 'APAN' 진행 맡았어요 [포토] 전미도, 순백의 여신미 뽐내며 [포토화보] 허성태, 카리스마 유지 실패 [포토] 강영석, 올블랙 수트로 멋지게 [포토] 탕준상, 멋지게 차려 입고 [포토] 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 (04050) 서울특별시 마포구 양화로 156 (LG팰리스빌딩) 1727 대표전화 : 0269593256 팩스 : 023221666 법인명 : (주)엠에이치앤미디어 제호 : 문화뉴스 등록번호 : 서울 아 03015 등록일 : 2014-02-18 발행일 : 2014-02-18 발행·편집인 : 주진노 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.고충처리인 권혁재 02-6959-3256 press@mhns.co.kr Copyright © 2022 문화뉴스. All rights reserved. mail to eveleva@naver.com 위로 전체메뉴 전체기사 문화 전체 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 전체 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 전체 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 전체 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 전체 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 전체 인터뷰 오피니언 전체 기고·칼럼 리뷰 포토 보도자료 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>국민의당 "제주도, 日관광객 유치 과감하게 추진하라" - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 국민의당 "제주도, 日관광객 유치 과감하게 추진하라" 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 국민의당 "제주도, 日관광객 유치 과감하게 추진하라" 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2017.09.03 12:30 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 국민의당 제주도당은 최근 티웨이 항공이 도쿄와 제주 직항노선을 신규 취항한 것에 대해 3일 환영 입장을 밝히며 "제주도정은 일본인 관광객 유치를 과감하게 추진하라"고 요구했다.국민의당은 "이번 일본 직항노선 신규 취항은 감소세의 외국인 관광객을 증가세로 바꿀 수 있는 중요한 기반이 될 것이라 평가된다"면서 "직항노선 신규취항을 위해 노력한 외국인관광객 유치 여행사, 티웨이항공사 임직원 , 제주관광공사와 도청의 관계자분 등에게 깊은 성원과 지지를 보낸다"고 밝혔다.이어 "올해 수년 째 줄기만 하던 제주 방문 일본인 관광객이 5년 만에 증가세로 전환됐다"면서 "지난 2012년 이후 엔화가치 하락, 한일 관계 악화 등의 요인으로 제주방문 일본인 관광객은 지속적으로 감소해 온 점을 고려할 때, 외국인 관광객 유치 정책과 관련해 매우 고무적인 현상"이라고 강조했다.국민의당은 "이러한 일본인 관광객 증가 흐름이 생겨가는 시점에서, 제주도정은 좀 더 과감하게 일본인 관광객 유치 정책을 추진해야 한다"면서 "'전세기인센티브' 제도의 세밀한 점검 을 통해 의욕과 능력을 가진 여행사들에 동기부여가 형평성 있게 제대로 되고 있는지 점검하라"고 지적했다.이어 "개별관광객, 수학여행단, 단체관광객 등에 대한 타겟별 마케팅 프로그램도 좀 더 구체적으로 실행할 수 있는 방안을 마련해야 할 것"이라며 "다른 지자체에서 시행하는 일본인 관광객 유치 프로그램도 눈여겨 살펴야 한다"고 당부했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도 각종 개발호재와 관광산업 추진, ‘제주신항 코아루 디펠리체’ 기대 상승 - 인천일보 × 전체기사 정치 전체 정치종합 인천 경기 지방자치 자치의정 6·1 지방선거 지방선거 경제 전체 경제종합 인천 경기 공항·항만 산업·증권 부동산 사회 전체 사회종합 인천 경기 교육 사건·사고 문화 전체 문화종합 예술·예술인 전시·공연 책과사람 오늘의 운세 스포츠 전체 스포츠 종합 야구 축구 농구 배구 기획특집 전체 기획 특집 뉴스 인사이드 시민편집위원회 인터뷰 금요초대석 인천일보 평화연구원 포토뉴스 전체 사회포토 정치포토 6·1 지방선거 오피니언 전체 사설 기고 썰물밀물 편집국칼럼 현장에서 오늘 인천 만평 지역뉴스 전체 지역종합 경기북부 경기서부 경기중부 경기남부 경기동부 사람들 전체 인천사람들 경기사람들 새얼굴 결혼 부고 본사손님 생활정보 이슈·문화 잇츠뉴스 전체 잇츠스페셜 잇츠연구소 빽투더인천 놀터뷰 카드뉴스 영상뉴스 비주얼뉴스 인천일보TV 전체 종합 100초 브리핑 인천일보PICK 너무궁금해서 사건사고 오늘의 현장 시민기자 연예 전체 국내연예일반 방송 영화 음반 해외연예 알림 전체 인천일보 인사 인사 사고 정정 게시판 개업 UPDATED. 2022-10-04 06:05 (화) 지면보기 인천일보아카데미 홈 로그인 회원가입 모바일웹 기사제보 전체메뉴 버튼 뉴스 정치 정치종합 인천 경기 지방자치 자치의정 사회 사회종합 인천 경기 교육 사건사고 경제 경제종합 인천 경기 공항·항만 산업·증권 문화 문화종합 예술·예술인 전시·공연 책과사람 오늘의운세 스포츠 스포츠종합 야구 축구 농구 배구 포토뉴스 사회포토 정치포토 기획특집 기획 특집 뉴스 인사이드 新 고려도경 금요초대석 인천일보 평화연구원 시민편집위원회 기획특집 모아보기 오피니언 사설 기고 썰물밀물 편집국칼럼 현장에서 만평 지역뉴스 경기북부 경기서부 경기중부 경기남부 경기동부 지역종합 사람들 인천사람들 경기사람들 새얼굴 결혼 부고 잇츠뉴스 잇츠스페셜 잇츠연구소 빽투더인천 카드뉴스 영상뉴스 인터랙티브 뉴스 인천일보TV 종합 100초 브리핑 인천일보PICK 너무궁금해서 사건사고 오늘의 현장 시민기자 검색버튼 기사검색 검색 제주도 각종 개발호재와 관광산업 추진, ‘제주신항 코아루 디펠리체’ 기대 상승 기사공유하기 프린트 메일보내기 본문 글씨 키우기 본문 글씨 줄이기 홈 사람들 경기사람들 제주도 각종 개발호재와 관광산업 추진, ‘제주신항 코아루 디펠리체’ 기대 상승 유지형 승인 2017.09.01 10:38 수정 2017.09.01 10:38 댓글 0 SNS 기사보내기 페이스북 트위터 카카오톡 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 프린트 본문 글씨 키우기 본문 글씨 줄이기 이 기사를 공유합니다 페이스북 트위터 카카오톡 URL복사 × 제2공항, 헬스케어타운 등 각종 대형개발사업 추진으로 높은 미래가치 8.2 규제 미적용 지역으로 수요자 및 투자자들 관심도 증가 제주도는 현재 인구 유입을 주도하는 혁신도시 개발이 진행되고 있는 지역이다. 복합리조트, 영어교육도시, 신화역사공원 가족테마파크 등 다양한 관광 및 교육사업 개발에 박차를 가하고 있으며, 외국계 영리병원이 들어오는 헬스케어 타운과 서귀포 관광미항 등이 조성될 예정에 있어 연간 관광객 또한 증가하고 있다. 이러한 추세에 따라 제주도 일대 아파트 및 오피스텔에도 많은 관심이 쏠리고 있다. 현지 부동산 관계자들은 긍정적인 전망을 내비치고 있다. 대형개발호재를 비롯해 각종 관광산업 육성 사업 추진을 통해 제주도 내 아파트값과 오피스텔 값은 더욱 상승할 것이라는 예측이 오가고 있다.거기에 새정부가 부동산 시장 안정화를 위해 실시한 고강도 8.2부동산 대책에 서울 전지역과 경기도 과천, 세종시를 투기과열지구로 지정해 규제가 이루어진 반면, 제주도는 규제지역에 해당되지 않아 투자자들에게 많은 관심을 사고 있다.8.2 대책 지정지역의 경우 주택거래, 청약, 대출 등 14개에 달하는 규제가 일괄 적용되며, 주택담보대출비율과 총부채상환비율도 각각 40%까지 강화되고 최장 5년간 분양권이 전매 금지되기 때문에 규제를 받지 않는 제주도 지역이 풍선효과로 인한 반사이익을 볼 것으로 기대되고 있는 것이다.특히, 오피스텔 인기가 돋보인다. 단순 업무공간이 아닌 주거공간으로 이용되어 실수요자들의 새로운 주거형태로 각광받고 있으며 제주 내 사업활동 기간 동안 머물 수 있는 비즈니스 공간으로도 이용되고 있다.이러한 가운데 한국토지신탁이 중소형 오피스텔 ‘제주신항 코아루 디펠리체’를 제주시일도2동 일원에 공급한다.본 오피스텔은 제주 내에서도 직주근접성과 풍부한 배후수요를 확보해 입지적 특장점이 두드러지며, 지하 4층~ 지상 10층으로 총 422실이 공급된다. 전용면적 25㎡, 51㎡로 총 19개의 다양한 타입으로 구성됐으며 1실 1주차 공간을 확보해 입주민의 생활 편의를 도모한 것이 특징이다.거기에 화북공업단지 인근에 위치한 입지로 인해 풍부한 직주근접성까지 확보하고 있으며 반경 1km 이내에 5개 노선의 버스가 운행하여 인근 대학교 업무종사자와 학생들의 수요도 많을 것으로 보인다.교통편으로는 제주국제공항과 시외버스터미널을 가깝게 이용할 수 있으며, 반경 800m이내에 제주항이 위치해 도내외 이동이 수월하다. 해양관광 및 문화지구 건립을 위한 2조 4000억원 대규모 투자 사업인 제주 신항 개발(예정)로 인해 더욱 높은 미래가치를 지닐 것으로 보인다.한편, ‘제주신항 코아루 디펠리체’는 계약자 대상으로 특별혜택을 한시적으로 제공하고 있으며, 강남구 역삼동 646-20번지 2층(역삼역 4번출구)에 위치해 있는 서울홍보관 방문을 통해 자세한 사항을 확인할 수 있다./온라인뉴스팀 저작권자 © 인천일보-수도권 지역신문 열독률 1위, 무단전재 및 재배포 금지 다른기사 보기 유지형 peachecho@naver.com 인천일보TV 시사쇼 '총선 뒤풀이' 인천일보TV 시사쇼, 4·15 총선 인천 판세분석 [오늘의 경기 뉴스] 2019년 11월 6일(수) 최근댓글보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인천일보TV [잇츠브리핑] 인천, 국토부·경기와 경인고속도로 지하화 협약 [잇츠브리핑] 인천, 국토부·경기와 경인고속도로 지하화 협약 [인천에 온 이주민들] 11. 화교의 유산, 자장면과 팔괘장 [인천에 온 이주민들] 11. 화교의 유산, 자장면과 팔괘장 [잇츠브리핑] 반도체도 '미국산'으로…반도체 도시 인천 불똥 튀나 [잇츠브리핑] 반도체도 '미국산'으로…반도체 도시 인천 불똥 튀나 [잇츠브리핑] "아트센터인천 2단계, 잡화점식 대관장 전락 우려" [잇츠브리핑] "아트센터인천 2단계, 잡화점식 대관장 전락 우려" [잇츠브리핑] 광역시 최대 곡창지대 인천, 쌀 가격 폭락에 농심 철렁 [잇츠브리핑] 광역시 최대 곡창지대 인천, 쌀 가격 폭락에 농심 철렁 기획특집 [초선에 바란다] 이철조 고양시의원 “진정한 심부름꾼 되겠다” [비극의 현장 '선감학원' 그 후] 1. 그곳에 사람이 살고 있다 [디아스포라 인천] ⑪화교의 유산, 자장면과 팔괘장 [남극에서 온 편지] 9.작지만 큰 변화 [새로운 희망 경기교육] 시흥 군자디지털과학고등학교 경기도일자리재단 '잡아바', 청년 희망플랫폼 자리매김 [인터뷰] 박철민 연천군 고려인삼 영농법인 대표 “청정 연천서 계약재배…억대 농부된 비결” [인터뷰] 김현광 수원문화재단 대표 “시민 문화 향유 기회 확대할 것” [예술공간의 발견] 9. 인천의 독립예술영화관 [박창호 해양특위 위원장에 듣는다] “해양도시 인천, 100년 미래 먹거리 찾는다” [구도 인천] 구도의 기록자들…김노천 사진가·김은식 작가 [구도 인천] 구도의 산증인들…채병용 코치·배수현 치어리더 [잇츠레터]'딸 간수 잘하시라' 피해자 모친도 위협한 스토킹범 [잇츠레터]'딸 간수 잘하시라' 피해자 모친도 위협한 스토킹범 [잇츠GO] 아니 꽃게가 풍년(?)일세!…'소래질러!' [잇츠GO] 아니 꽃게가 풍년(?)일세!…'소래질러!' [카드뉴스]똑똑한 AR·VR 개항장 여행, '인천e지' 앱 하나면 끝 [카드뉴스]똑똑한 AR·VR 개항장 여행, '인천e지' 앱 하나면 끝 [잇츠레터]"윤 대통령 비속어 논란? 미국은 개의치 않아" [잇츠레터]"윤 대통령 비속어 논란? 미국은 개의치 않아" [카드뉴스]인천시티투어 10월엔 '50% 할인' [카드뉴스]인천시티투어 10월엔 '50% 할인' 많이 본 뉴스 오늘 주간 월간 1"야외 테이블서 실컷 먹더니 도망…나이 먹고 왜 이러나" 2용인~오산 고속도로 강행…화성시 '부글부글' 3[영종, 차별의 섬에서 기회의 땅으로] 개발이 할퀸 영종, 다시 '희망의 땅'으로 4[이슈 &amp; 이슈] 송도유원지 해결, 더 이상 미룰 수는 없다 5고양시 창릉천 제2의 호수공원 청신호...한준호 의원 2700억 환경부 통합하천 공모사업 1차 통과 6“드론 600대 탄천 밤하늘 수 놓는다”...성남시 6일 ‘드론 라이트 쇼’ 7[단독] 인천공항 '항공정비 MRO' 날개 편다…아틀라스항공 정비고, 1활주로 북측 결정 8[영종 차별의 섬에서 기회의 땅으로] 1. 인천의 밀라노·브로드웨이 표류…'기대 반 우려 반' 9“돼지열병 업무 폭증한 공무원에 파주시의원 과한 행감자료 요구” 10한국지엠 부평공장 '전기차 생산 유치' 기대감 1젊은 활기 떠나고 13년째 적막만…인천대 제물포캠 슬럼화 2도자기의 모든 것, 여주도자기페스타 다음 달 1일 개최 3인천시 '인천 UAM전용공항 예정지' 정부 전달 4한국민속촌, 경기도민 대상 입장 할인 제공 5[잇츠GO] 아니 꽃게가 풍년(?)일세!…'소래질러!' 6"야외 테이블서 실컷 먹더니 도망…나이 먹고 왜 이러나" 7인천 노동자 평균 임금 369만원, 서울 455만원 대비 76% 수준 8경인고속도로 지하화 협약, 오늘 맺는다 9[구도 인천] 구도의 산증인들…채병용 코치·배수현 치어리더 10양주 회암사지 왕실축제, 어가행렬 주인공은 ‘시민’ 1'80만원 당첨' 복권 들고 간 남성이 들은 뜻밖의 말 2소래포구축제, 4년만에 열린다…박창근·김동현·이솔로몬 축하공연 3인력 '구멍' 경기소방본부에 정부 '설상가상' 감축 지시 4“점포 안에 나무만한 기둥이…” 미추홀구 신축 상가 수분양자들 분통 5젊은 활기 떠나고 13년째 적막만…인천대 제물포캠 슬럼화 6[단독] 전기요금 못 낸 양주한국병원, 16일 전기 공급 중단 7순방 후 첫 출근, 윤 대통령에 '비속어 논란' 묻자… 8인천 남동공단 아닌 '남동산단'…주민들 '바로잡기' 민원 9한국지엠 부평공장, '전기차 생산 유치' 가능성 커졌다 10송도 세브란스-배곧 서울대병원, 진검승부 '예고' 포토뉴스 [포토] '와이어 투 와이어 우승' 앞둔 SSG 랜더스…“기쁘지 아니한가” [포토] '와이어 투 와이어 우승' 앞둔 SSG 랜더스…“기쁘지 아니한가” [포토] '인천 베이비&amp;키즈페어' 찾은 시민들 [포토] '인천 베이비&amp;키즈페어' 찾은 시민들 [포토] 돌아온 축제…인천이 들썩 [포토] 돌아온 축제…인천이 들썩 [포토] 광명교육지원청 도덕초 현장점검 [포토] 광명교육지원청 도덕초 현장점검 [포토] 단기 4355 개천절 기념' 제23회 하늘 열림 큰잔치' [포토] 단기 4355 개천절 기념' 제23회 하늘 열림 큰잔치' [포토] 2022 INK(Incheon K-POP Concert) 화려한 무대 [포토] 2022 INK(Incheon K-POP Concert) 화려한 무대 [포토] "K팝도 인천e지" '제13회 INK(Incheon K-POP Concert) 콘서트' 성황 [포토] "K팝도 인천e지" '제13회 INK(Incheon K-POP Concert) 콘서트' 성황 [포토] 인천 송도컨벤시아 '인천베이비&amp;키즈페어' 찾은 시민들 [포토] 인천 송도컨벤시아 '인천베이비&amp;키즈페어' 찾은 시민들 [포토] 4년여 만에 열린 '부평풍물대축제' [포토] 4년여 만에 열린 '부평풍물대축제' [포토] '와이어 투 와이어 우승' 앞둔 SSG 랜더스…“기쁘지 아니한가” [포토] '인천 베이비&amp;키즈페어' 찾은 시민들 [포토] 돌아온 축제…인천이 들썩 [포토] 광명교육지원청 도덕초 현장점검 [포토] 단기 4355 개천절 기념' 제23회 하늘 열림 큰잔치' [포토] 2022 INK(Incheon K-POP Concert) 화려한 무대 [포토] "K팝도 인천e지" '제13회 INK(Incheon K-POP Concert) 콘서트' 성황 [포토] 인천 송도컨벤시아 '인천베이비&amp;키즈페어' 찾은 시민들 [포토] 4년여 만에 열린 '부평풍물대축제' 기획특집 기획 [초선에 바란다] 이철조 고양시의원 “진정한 심부름꾼 되겠다” 2022.10.03 기획 [비극의 현장 '선감학원' 그 후] 1. 그곳에 사람이 살고 있다 2022.10.03 인천에 온 이주민들 [디아스포라 인천] ⑪화교의 유산, 자장면과 팔괘장 2022.09.29 기획 [남극에서 온 편지] 9.작지만 큰 변화 2022.09.29 기획 [새로운 희망 경기교육] 시흥 군자디지털과학고등학교 2022.09.29 특집 경기도일자리재단 '잡아바', 청년 희망플랫폼 자리매김 2022.09.29 인터뷰 [인터뷰] 박철민 연천군 고려인삼 영농법인 대표 “청정 연천서 계약재배…억대 농부된 비결” 2022.09.29 인터뷰 [인터뷰] 김현광 수원문화재단 대표 “시민 문화 향유 기회 확대할 것” 2022.09.29 법인명 (주)인천일보 본사 (22313) 인천광역시 중구 인중로 226 (옛 항동4가 18-1) 대표전화 032-4520-114 팩스 032-4520-113 경기본사 수원시 팔달구 효원로 119 청궁빌딩 5층(옛 결혼회관) 대표전화 031-232-2288 팩스 031-232-2260 제호 : 인천일보 등록번호 : 인천 아01330 등록일 : 2018-01-26 발행·편집인 : 김영환 청소년보호책임자 : 김도현 인천일보 모든 콘텐츠(기사, 사진, 영상)는 저작권법의 보호를 받습니다.무단 전재, 복사, 배포를 금합니다. Copyright © 1988-2022 인천일보. All rights reserved. mail to webmaster@incheonilbo.com 인트라넷 CMS 회사소개 광고문의 제휴문의 구독신청 소외계층 구독지원 신청 독자투고 고충처리 윤리강령 개인정보처리방침 청소년보호정책 불편신고 저작권문의 시민편집위원회 기사제보 위로</t>
+    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-11 12:33 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N2 이전 다음 사드 이후 … 제주도내 관광사업체 오히려 증가 “왜?” 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 경제 관광 사드 이후 … 제주도내 관광사업체 오히려 증가 “왜?” 홍석준 기자 승인 2017.09.04 11:17 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 8월말 기준 신규 128곳, 휴·폐업 83곳으로 업체 수 45곳 늘어 사드 여파로 인한 제주도내 관광업계 위기가 장기화되고 있는 가운데, 관련 업체수는 오히려 늘어난 것으로 나타났다. ⓒ 미디어제주 제주도가 사드 위기 극복을 위한 관광시장 질적 개선을 위해 역량을 집중하고 있는 가운데, 도내 관광 관련 사업체는 오히려 늘어난 것으로 나타났다. 4일 제주특별자치도에 따르면 8월말까지 제주를 찾은 관광객은 993만8000명으로 지난해보다 6.7% 감소한 것으로 나타났다. 이 중 내국인은 896만4000명으로 지난해보다 9.7% 증가했지만 외국인은 97만4000명으로 60.7% 감소, 사드 여파로 줄어든 외국인 관광객 감소 충격을 국내 관광객 증가로 상당 부분 완화시키고 있는 것으로 분석됐다. 외국인 관광객 중에서는 일본 관광객이 5년만에 증가세로 돌아섰고 아시아권 주력 국가들이 두 자리수 증가세를 보이는 등 시장 다변화 노력의 성과가 조금씩 나타나고 있다. 사드 이후 도내 관광업체는 휴업 또는 아예 문을 닫는 업체가 속출하고 있는 가운데, 신규 업체도 크게 늘어나면서 전체 업체 수는 오히려 늘어난 것으로 나타났다. 실제로 여행업은 3월 1081곳 중 휴업 5곳 폐업 54곳 등 모두 59곳이 감소했지만 신규 업체도 73곳이나 돼 8월말 현재 여행업 업체 수는 오히려 14곳이 늘었다. 관광숙박업도 휴업 1곳, 폐업 7곳 등 8곳이 줄어들었지만 14곳이 새롭게 문을 열면서 전체 업체 수는 종전 394곳에서 399곳으로 늘어났다. 특히 유원시설업은 종전 32곳 중 2곳이 문을 닫았지만 새롭게 문을 연 곳이 27곳이나 돼 전체적으로는 57곳으로 급증한 것으로 나타났다. 이에 대해 도 관계자는 “중국 관광객에 의존하던 업체들이 타깃 시장을 전환하거나 인력을 감축하는 등 자구책을 마련하고 있다”면서 “도에서도 관광진흥기금을 지원하는 등 사드 극복을 위한 공동 노력을 기울이고 있다”고 말했다. &lt;홍석준 기자 / 저작권자 ⓒ 미디어제주 무단전재 및 재배포 금지&gt; 저작권자 © 미디어제주 무단전재 및 재배포 금지 홍석준 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 실시간 댓글 동굴 몇개 살리자구 하수처리장 이전하면 그돈은 니그들이 낼거냐 일본 후쿠시마 원전페수 방수하는데가서 아주 죽 욱 살면서 대모혀라 실제 월정리 주민들은 그간 동굴과 하수처리장 문제로 골머리를 앓고 있어 새로운 동굴이 발견되면 보호구역 확대에 의한 토지 수용이나 제한으로 재산상 손해가 생길까봐 동굴이 없는게 오히려 좋겠다는 분들도 계십니다. 월정리가 동굴마을로 지정되어 제한만 할께 아니라 하수처리장 철거로 완전한 동굴보호 마을의 역할을 하게해서 마을에 실질적 도움이 될 수 있는 조처도 취해져야 합니다 오늘 강순석 제주지질연구소장님의 새로운 본류 동굴 존재 할 수 있다는 기자회견은 다년간 지질연구하시면서 현장에서 느끼는 전문가의 촉이 있으신것 같습니다. 제주의회 정밀탐사 촉구도 있었으니 하수처리장 존재에 영향을 받지 않을 학술적 가치에 중점인 정밀 지질 탐사가 다시 이루어지기를 기대해 봅니다. 2009년 이후 탐사기법도 더욱 발전 했으니 더 정밀한 탐사가 가능할 것 입니다. 월정리는 만장굴. 사굴과도 마을 경계상에 위치해 있고 그 밑으로 용천굴. 당처물 동굴. 남지미 동굴이 계속 발견되었는데 올 6월에는 제주 의회에서도 정밀 탐사가 필요하다는 의견이 있었습니다만 구체적 탐사 움직임은 보이지 않는것 같습니다 2007년 탐사 ~2009년 보고서는 매우 과학적 동굴탐사인 지표투과 레이더 탐사도 했다지만 그 당시 현장을 지켜본 마을분 증언에 의하면 하수처리장 근처로는 탐사를 회피하는 듯 했다고도 합니다. 지금까지 과정을 보면 보호구역도 하수처리장 경계로 갑자기 2구역에서 4구역으로 완화되게 설정되어 있습니다. 문제의 하수처리장 보호를 위해 안간힘을 써 온것 같은데 하수처리장 철거가 되어야 동굴 탐사도 객관적으로 학술적으로 실제적으로 가능한게 아닌가 의구심을 가져 봅니다 가장 많이 읽은 기사 1제주시, 청년월세 월 20만원씩 최대 12개월 지원 2일상의 배려, 성숙된 시민의식 빛낸다. 3서귀포시, 올해 교통유발부담금 21억 원 부과 4‘2022 Trans Jeju 국제 트레일러닝대회’ 성황리에 폐막 5코로나19 이후 큰 폭 증가 제주 실업자수, 점차 회복세 6&lt;정정보도&gt; 해수부 규정 어긴 영상 공모전 입상 의혹, 사실 아닌 것으로 확인 7최고가 다투는 제주 휘발유 값, 제주도 2차 민간조사 돌입 SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
+  </si>
+  <si>
+    <t>제주도, 아태지역 지속가능 발전 문화관광 워크숍 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 아태지역 지속가능 발전 문화관광 워크숍 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도, 아태지역 지속가능 발전 문화관광 워크숍 개최 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2017.09.07 12:02 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 유엔훈련연구기구(UNITAR) 제주국제연수센터, 세계지방정부연합 아태지부(UCLG-ASPAC), 제주관광공사와 공동으로 오는 12일부터 15일까지 제주국제연수센터와 부영호텔에서 '아태지역 지속가능한 발전을 위한 문화관광 워크숍'을 개최한다고 밝혔다.워크숍에서는‘아태지역의 문화관광을 위한 문화관광'을 주제로 해 유엔연구훈련기관(UNITAR), 뉴캐슬 국제연수센터, 상하이 국제연수센터, 필리핀 국제연수센터, 유엔관광기구, 지속가능관광위원회, 문화개발네트워크, 제주올레에서 초청된 8명의 전문가가 참여한 가운데 토론이 진행된다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 가을여행! 서귀포 중문 관광 후 흑돼지 맛집 돈가득 탐방까지 &lt; 보도자료 &lt; 기사본문 - 디트NEWS24 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 뉴스 칼럼 디트TV 충남 naver-tv youtube facebook 로그인 검색버튼 기사검색 검색 본문영역 현재위치 홈 보도자료 제주도 가을여행! 서귀포 중문 관광 후 흑돼지 맛집 돈가득 탐방까지 이전 기사보기 다음 기사보기 기자명 박길수 기자 입력 2017.09.01 16:51 댓글 0 SNS 기사보내기 기사저장 카카오톡(으)로 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 이 기사를 공유합니다 카카오톡(으)로 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 바로가기 본문 글씨 키우기 본문 글씨 줄이기 어느새 선선해진 날씨와 높은 하늘이 성큼 다가온 가을을 실감하게 한다. 나들이하기 좋은 계절 가을에 환상의 섬 제주도로 떠나는 여행은 누구나 꿈꾸기 마련. 제주도 안에서도 ‘중문관광단지’는 제주도의 이국적이면서도 웅장한 자연 절경과 함께 테마 박물관, 맛집 등 다양하게 제주도를 느끼고 즐길 수 있는 요소가 많은 제주 관광의 핫플레이스다.3단으로 쏟아져 내려오는 ‘천제연 폭포’와 오랜 시간 파도에 부딪혀 만들어낸 ‘주상절리’에 들러 자연이 주는 거대한 감동과 힐링을 만끽하고 사진으로 남겼다면 반달모양의 ‘색달해변’을 따라 가을바다를 거니는 산책을 권한다. 푸른 제주바다와 파란 하늘, 색달해변의 가장 큰 특징인 4가지 색깔을 띄는 ‘진모살’ 모래를 밟으며 걸으면 색다른 여유를 느낄 수 있을 것이다.가족들 특히 아이들과 함께 하는 여행이라면 테디베어박물관, 초콜릿랜드, 트릭아트뮤지엄 등 다양한 테마의 박물관 관람도 좋다.도심에서는 보기 힘든 큰 규모의 박물관에서 색다른 경험을 할 수 있어 아이에게다 어른에게나 좋은 추억이 될 것이다. 이렇게 이곳저곳 돌아다니며 관광을 한 후 흑돼지 맛집에서 든든한 식사 한 끼로 알차게 마무리 해보자. 중문동 2025-1에 위치한 ‘돈가득’은 복분자를 뿌린 흑돼지로 유명한 곳이다. 품질 좋은 제주도산 흑돼지를 국내산 참숯에 굽는데, 굽기 직전 복분자를 뿌려주어 고기의 잡내를 없앤다.미리 뿌려두면 고기가 흐물흐물해지기 때문에 굽기 직전 뿌리는 것이 비법인데, 참숯 향과 함께 달달한 복분자 향까지 더해져 직접 맛을 본 손님들의 만족도가 높다.또 잘 구워진 흑돼지와 함께 먹는 ‘돈가득’만의 특제양파절임은 양파와 간장 조합이 아닌 양파와 식초, 고춧가루만 넣은 깔끔한 맛으로 흑돼지와 환상의 궁합을 자랑한다.‘복분자 흑돼지’로 인기를 끌면서 최근 MBC에브리원 ‘맛있을 지도’라는 방송에도 소개된바 있는 ‘돈가득’. 진행자인 개그맨 김경식과 일본여자연예인 사유리의 까다로운 입맛을 사로잡으며 푸짐한 먹방을 완성했다는 후문이다.‘돈가득’에서 푸짐한 복분자 흑돼지 한상으로 제주도 중문에서 맛있는 추억을 남겨보는 것은 어떨까. 예약 및 문의 가능하다. 박길수 기자 bluysky2002@hanmail.net 기자의 다른기사 저작권자 © 디트NEWS24 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 추천뉴스 세계시민 모인 대전 UCLG 총회, 역대 최대 규모 개막 도로 위 달리는 기차 ‘트램’...안전대책 미비 축산물품질평가원 '특공 취지' 역행... 절반이 매도·임대 행렬 한화이글스 안방마님 최재훈 후계자 찾기 3파전 제1회 세종시 '어울링 바이크 투어' 10일 성황리 마무리 인기기사 주간 일간 1 우려가 현실로... 세종시 70대 여성 '전동 킥보드 사고'로 사망 2 충남 공주에 본사를 둔 우석건설 부도 3 대전 서남부종합스포츠타운, 연말 그린벨트 해제 요청 4 제1회 세종시 '어울링 바이크' 투어... 10일 정상 진행한다 5 박찬주 전 대장, 육사 이전 반대 동창회에 '결단' 촉구 6 10월 둘째 주 아파트 분양일정 7 대전 용문동 1·2·3구역 ‘둔산 더샵 엘리프’ 중소기업 근로자 특별공급 8 [관점] ‘이장우·김태흠 100일’ 권위주의 리더십의 한계 9 건강식품 디렉터로 ‘인생 2막’ 연 SS501 김규종...명성 건 ‘달도효소’ 출시 10 충남도, 사립유치원 교육비 지원 중단되나 1 제1회 세종시 '어울링 바이크 투어' 10일 성황리 마무리 2 세계시민 모인 대전 UCLG 총회, 역대 최대 규모 개막 3 대전 UCLG 총회 아태지부 '네트워킹의 밤' 성료 4 제13회 대전효문화뿌리축제, 3대가 함께 어우러진 안전한 축제로 마무리 5 유성구, 2022 앙코르 실버페스티벌 대성황 6 서산시·태안군, 행안부 특별교부세 55억 확보 7 동구 정다운어르신복지관 제26회 노인의날 기념 경로잔치 8 청양군청 이희진 선수 ‘1cm 차’ 명승부 은메달 9 서산 해미읍성축제 성료···민초의 삶 구현 호평 10 서구 월평2동, 2022 선사마을 축제 성료 실시간 댓글 최신댓글 댓글많은기사 1 뭐때문에 이렇게 화가 나신건지 도통 알수가없네;; 일단 한글부터 좀 제대로 익히시고 말씀을 해주시길.. 학교폭력은 학교랑 경찰이랑 상의하세요 2 자기들이 공무원 하겠다고 민간인 신분을 잠시 내려놓은것 아닌가요? 공무원 하겠다고 하는사람들이 하라는 봉사는 안하고 일은 저질러놓고 손해배상은 나몰라라 하고 말로만 떠들어대고 책임감도없고 일하기는 싫고 탁상 행정은 먼가요 그러고 일반인이 관련 법 일일이 찻자서 대응 하면 괄련 법령이 삭제(소멸) 되는걸 모르세요 발령 받아서 도망가면 끝 3 규종님 응원하고 있어요!! 달도효소 화이팅! 4 건강분야 컨셉 잘 선택하신것 같아요^ 오랫동안 잘 브랜드 만드시길 응원합니다. 5 달도효소^^ 김규종님 응원합니다^^~~ 6 규종오빠 항상 응원해요 7 SS501 김규종. 어제 살림남2 최수종 하희라편에도 나오던데, 최수종하고도 가까운 사이인가요? ㅎㅎ 달도효소는 무엇인가요? 궁금합니다. 아무튼 제2의인생 잘 시작하길 바랍니다 8 언제 이런걸준비했대요? 외디즈 달도효소^^ ㅋㅋ 규종님. 제 2의 사업도 대승하리라 믿어의심치 않습니다. 저도 펀딩하고 먹어볼께요.^^ 9 진짜맛있어요. 달도효소! 오빠의 진심이 느껴집니다.^^ 10 와디즈에 펀딩했어요. 오빠의 진심이 느껴지는 상세페이지 사업가로서도 성공하길 기도합니다 1 용산초 학부모들 "모듈러 교실 절대 반대, 등교 거부 하겠다" 2 건강식품 디렉터로 ‘인생 2막’ 연 SS501 김규종...명성 건 ‘달도효소’ 출시 3 이상래 대전시의장, 외유논란 사과...제주연수는 취소 4 "손주들 모듈러 교실로 꼭 보내라"..대전시의회, 시교육청 '난타' 5 지방거점국립대 1인당 교육비, 서울대 38.9% 수준 6 서철모 서구청장, 본회의장에서 대놓고 의회 무시? 7 위태로운 9대 대전시의회, 애꿎은 사무처에 화풀이? 8 박찬주 전 대장, 육사 이전 반대 동창회에 '결단' 촉구 9 논산에 둥지 튼 ‘한국유교문화진흥원’ 문 열었다 10 [부고] 박순영(지방분권 세종회의 회장) 씨 별세 하단영역 주요뉴스 대전신일여고, 지역 주민과 함께 하는 ' ‘Gallery 48’ 개관 한국타이어, 발달장애 특수학교 학생 위한 ‘우리들의 숲 조성’ 도로 위 달리는 기차 ‘트램’...안전대책 미비 ‘강경젓갈이 상월고구마를 만나다!’ 12일 개막 논산시의회, 개원 100일 맞아...생활밀착형 의정활동 펼쳐 계룡세계군문화엑스포, 국내외 참전용사 및 가족 초청 행사 개최 전교조 대전지부 "갑질 부추기는 이장우 대전시장" 대전 서구 월평도서관 원데이 미디어 클래스 운영 대전 서구, 갈마·둔산·월평도서관 시니어 기초영어 운영 계룡시, 소규모 농업인 시설하우스 지원 추진 전체보기 Contact US 대표전화 042-471-8114 팩스 042-471-8120 제보전화 042-471-811424시간 긴급 기사·사건 제보(심야·공휴일) Infomation 매체소개 기사제보 광고문의 이용약관 언론윤리강령 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 장기간행물등 사업등록증 : 대전 아 00003 등록년월일 : 2001-08-01 제호 : 디트NEWS24 법인명 : (주)디트뉴스24 발행일 : 2001-08-01 발행인 : 박길수 편집인 : 김재현, 박길수 청소년보호책임자 : 박길수 대전광역시 서구 한밭대로 755 (삼성생명) 삼성생명빌딩 703호 대표전화 : 042-471-8114 팩스 : 042-471-8120 [ 디트뉴스24 ] 사업자번호 : 305-81-63253 통신판매업신고번호 : 제2011-대전중구-0243호 Copyright © 2022 디트NEWS24. All rights reserved. naver-tv youtube facebook 위로 전체메뉴 전체기사 정치 전체 국회/청와대 대전 충남 세종 행정 전체 대전 정부대전청사 세종 정부세종청사 충남 경제 전체 건설·부동산 유통 금융 경영·기업 이기업인 창업정보 과학·IT·드론 대전테크노파크 스마트혁신 사회 전체 법원/검찰 경찰 대전 세종 충남 교육문화스포츠 전체 교육일반 초중고 대학 문화일반 공연전시 문학소설 스포츠 책이야기 책 기부 캠페인 내부칼럼 전체 사설 디트의 눈 데스크칼럼 관점 김학용 칼럼 외부칼럼 전체 자문위원 칼럼 자유기고 오광영의 손스피커 대덕구 혁신로드 강영환의 로컬노믹스 여정권의 야구에 산다 한기원 칼럼 권혁필의 새로운 생각 성광진의 교육 통(痛) 이지완의 포토詩세이 김충남의 열두줄 인문학 라창호의 허튼소리 가기천의 확대경 박경은의 힐링에세이 송선헌의 시와 그림 김종진의 행복한 인성 이야기 김경훈의 공감소통 변해섭의 선거법 해설 리헌석의 예술계 산책 정승열의 세계 속으로 송진괄의 신비한 산야초 오정균의 세상만사 박한표의 사진 한 장 강영환의 정치 톺아보기 손창규의 과학 한의학 길공섭의 빛그림 황종규의 술이야기 윤영애의 명리 山海境 디트맛집 전체 대전 세종 충남 언론계 전체 언론계 소식 미디어비평 본사-알립니다 디트메디 전체 의료계 의료인 충남디트 전체 천안·아산 서산·태안·당진 공주·부여·청양 예산·홍성 논산·계룡·금산 보령·서천 디트사이언스 전체 대덕특구 출연연구기관 중기벤처기업 보도자료 전체 대전시 세종시 충남도 동구 중구 서구 유성구 대덕구 기타 사람들 전체 부음 결혼 인사 행사·모임 수상 동정 사람들 우리기관 홍보맨 사람이 미래다 웰빙 전체 여행과 레저 트렌드 TV/연예 전체 TV 연예 대전교육복지소식 전체 교육청소식 학교소식 학생기자단 정보마당 충남체육예술교육 전체 충남도교육청 지역교육지원청 학교소식 미분류 지난연재 기타 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>[로컬 브리핑] 제주도평생교육진흥원, 제주관광 아카데미 운영-국민일보 시사 시사 &gt; 전체기사 [로컬 브리핑] 제주도평생교육진흥원, 제주관광 아카데미 운영 입력 : 2017-09-03 18:47 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 제주도평생교육진흥원은 관광분야 예비종사자들을 위해 ‘제주관광 아카데미’를 운영한다고 3일 밝혔다. 교육은 기본·심화과정 및 일반인·대학생 반으로 나눠 단계별로 진행된다. 교육과정은 현장답사 1회를 포함해 총 12회·26시간으로 구성됐다. 교육 내용은 인문학으로 보는 관광, 제주에 널린 유·무형 자원 알기, 지역관광이란 무엇인가, 사례로 만나는 지역관광, 2017 관광 트렌드 내다보기 등이다. 대학생 과정은 15일부터 다음달 27일까지, 일반인 교육은 14일부터 다음달 26일까지 각각 운영된다. GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 “발렛 직원이 준 차 몰았다”…신혜성, 음주운전에 절도 혐의까지 버스타는 女, 신체 만지고 도망…6급 교육공무원이었다 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 ‘풀소유’ 논란후 2년, 혜민 근황…“따가운 시선에 상처” [영상] 삼성전자 우크라 지사 건물, 러 미사일에 파손 ‘90년대 강남 큰 손’ 조춘자, 또 사기 행각…징역 7년 ‘무주 일가족 중독’ 합동감식 “보일러 연통, 그을음으로 막혀” [단독] 시중은행도 당했다… 신종 전세사기 일당 검거 14살 제자와 성관계 후 “진짜 사랑”… 전문가 “그냥 범죄” 박수홍, 父폭행 직후 녹화서 “제가 속병 전문가” 넉살 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 포항시, 자연재난 피해 공동주택 복구비용 최대 5억원 지원 성 상납 무고 혐의 이준석, 2차 경찰 소환… 경찰 “조만간 결론” 포천시, 신재생에너지 융복합지원사업 공모 선정 특별법 개정 “너무 느리다”…제주도, 포괄적 권한이양 추진 남양주시 ‘불법 주정차 단속 CCTV 통합 시스템’ 운영 의정부서 14~16일 ‘2022 아시아 모델 페스티벌’ 열려 경남도, 가을 행락 철 야영 장 인명 사고 예방 총력 올 무역적자 327억 달러…반도체·대중 수출 ‘먹구름’ 아시아엔 적수 없다… 韓펜싱 U-23 亞선수권 7연속 우승 이동환 고양시장 “일산, 신도시 선도지역 지정 조건 가장 좋아” 4조원대 인천e음 대행사 코나아이·신한·KT…3파전 치열 ‘지적장애인 살인·암매장’ 일당, 판결 불복해 항소 감사원 국감, “착하게 좀 살라” 말폭탄 속 9분만에 중지 스물네살 미드필더 음웨푸, 은퇴 선언… ‘유전성 심장 질환’이 원인 尹 “청년에 임대주택 줄 게 아니라 내 집 마련 도와야”</t>
+  </si>
+  <si>
+    <t>제주도관광협회 국제관광전 최우수 홍보상 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:45 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도관광협회 국제관광전 최우수 홍보상 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 제주도관광협회 국제관광전 최우수 홍보상 정용기 기자 승인 2017.09.12 14:43 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [제주일보=정용기 기자] 제주특별자치도관광협회(회장 김영진)는 지난 11일 부산 벡스코에서 개최된 제20회 부산국제관광전에서 최우수 홍보상을 수상했다.정용기 기자  brave@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 정용기 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>[9월에 제주도 가볼만한 곳] 관광과 힐링여행을 동시에 '서귀포 교래자연 휴양림+ 곶자왈+팽나무 마을길' &lt; 리빙 &lt; 라이프 &lt; 기사본문 - 문화뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 매체소개 기사제보 구독하기 보도자료 등록 naverpost facebook instargram twitter navertv MHN 편집 : 2022-10-11 11:46 (화) 문화 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 인터뷰 포토 오피니언 기고·칼럼 리뷰 커뮤니티 보도자료 회원정보 로그인 회원가입 전체메뉴 버튼 최신뉴스 현대차그룹, 부산세계박람회 글로벌 SNS 콘텐츠 4천만뷰 돌파 난민 이의신청 절차, 더 투명해지고 공정해 진다 '2022 서울여성합창페스티벌' 개최...코로나19 이후 3년 만에 재개 안방에서 즐기는 궁궐체험 ‘2022 궁온 프로젝트’ 2차 접수 [22 가을 패션 추천] 제니→크리스탈 '패셔니스타'는 다 입었다...'바시티 자켓' 추천 5 문체부, ‘2022 문화의 달’ 기념행사 개최...다양한 공연 열려 [공연소식] 10월 둘째 주, 주목할 만한 클래식/무용 공연 2022년 10월11일(화) 오늘의운세 띠별, 별자리 [이번주뭐입지?] 힙한 룩부터 프레피 룩 까지...'부츠' 활용한 가을 코디 추천 뮤지컬 '캣츠', 오리지널 연출 부활과 함께 내한 공연 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 [9월에 제주도 가볼만한 곳] 관광과 힐링여행을 동시에 '서귀포 교래자연 휴양림+ 곶자왈+팽나무 마을길' 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 라이프 리빙 [9월에 제주도 가볼만한 곳] 관광과 힐링여행을 동시에 '서귀포 교래자연 휴양림+ 곶자왈+팽나무 마을길' 기자명 전서현 입력 2017.09.03 12:06 수정 2017.10.30 14:44 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [문화뉴스 MHN 전서현 기자] 9월 주말에 가볼만한 곳으로 제주도 여행을 준비하는 이들이라면 서귀포에 위치한 곶자왈을 추천한다. 관광과 힐링여행을 동시에 할 수 있기 때문.곶자왈에는 교래자연휴양림과 곶자왈, 명월이 팽나무 마을길 등이 마련돼 있다. 모두 천연힐링을 모토로 자연 그대로의 모습이 보전돼 있는 곳이다. ▲ 교래자연휴양림의 야영장 전경. 가을에 제주도 가볼만한 곳을 찾는 이들이라면 특별한 추억을 남길 수 있어 적극 추천한다 ©교래자연휴양림 교래자연휴양림은 위치한 곳으로 치유와 휴식공간을 위해 천연림을 원형 그대로 보전한 곳이다. 촉촉이 젖은 숲을 바라보기만 해도 힐링이 된다. 한림읍에 위치한 명월리 팽나무 마을길은 500년 이상 된 팽나무 60여 그루가 군락을 이루고 있는 곳이다. 모진 비바람을 이겨내며 자란 나무들에게서 뿜어나오는 신비함과 웅장함이 멋스럽다.한국에서 가장 신비로운 숲으로 알려진 곶자왈 환상의 숲은 아바타에 나오는 정글처럼 원시림의 모습을 그대로 볼 수 있어 도심에서만 자란 아이와 함께 가볼 만한 곳으로도 적극 추천한다. ▲ 천연힐링을 모토로 자연 그대로의 모습이 보전돼있는 곶자왈 숲 ©제주관광공사한림읍 명월리에 팽나무 마을길의 팽나무는 한국의 정자목 중 느티나무 다음으로 많이 심어져 있는 수종이다.양지와 음지를 가리지 않으며 비옥한 사질양토에서 잘 자란다. 성장이 빠른 편이고 평탄하고 깊은 땅을 좋아하며 상당히 습한 곳에서도 견딘다. 내한성과 내공해성,내염성 등이 강하고 적응능력이 뛰어난 수종이다. 팽나무가 뿜어내는 건강한 기운을 받는다고 생각하면 여행 전부터 건강해지는 기분이 들정도다. ▲ 교래자연휴양림은 이용객들에게 곶자왈의 생태 체험과 숲에 대한 올바른 이해와 다양한 정보, 지식을 전달하고 안내하는 해설사를 배치 운영하고 있다 ©교래자연휴양림한편, 교래자연휴양림을 찾는 이용객들에게 곶자왈의 생태 체험과 숲에 대한 올바른 이해와 다양한 정보, 지식을 전달하고 안내하는 해설사를 배치 운영하고 있습니다.숲해설 신청시간은 09:30~11;00, 13:00~15:30 사이다. 숲해설 신청은 제주돌문화공원 겨래자연휴양림 홈페이지 '문화관광해설사지원'란을 통해 자세히 안내받을 수 있다. jun0206@mhns.co.kr 주요기사 연금복권의 현재가치 계산! 연금복권 720 +, 일시불로 따지면 얼마? 제임스 웹 망원경이 보내온 첫 번째 사진...허블 망원경과 차이점은? 2022년 9급 공무원 월급과 연봉...과연 최저시급보다 적을까? [포토] 한소희 '예쁜 미소' 관련기사 '발레리안'·'킬러의 보디가드'·'아토믹 블론드'·'김광석'의 박스오피스 기습[문화파일] "꽃 같이 살래 '선미'답게"…여성 솔로 가수로서의 '선미'[MHN화보] 워너원 강다니엘 '넬피지컬 파헤쳐보기!'김연정 치어리더, 근황 공개 우월한 9등신 포스 "예쁜 블랙원피스 입고"'소사이어티 게임2' 향한 이야기 "연예인, 규칙변경, 더 지니어스, 장동민" 전서현의 다른 기사 보기 전서현 jun0206@mhns.co.kr 독자와 공감을 통해 더 나은 내일을 만들겠습니다. 최신기사 인기기사 저작권자 © 문화뉴스 무단전재 및 재배포 금지 포토 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 한지민, '욘더' 색다른 변신 기대하세요 [포토] 한지민, 러블리 가을 패션 [포토] 이정은, 부산국제영화제 첫 참석 [포토] 정진영, '욘더'로 인사드려요 [포토] 신하균, 목폴라도 품격있게 만든다 [포토] '욘더' 이준익 감독 [포토] 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 러브컨템포러리아트, 닥설랍 개인전 'Blurry Romanticism' 개최 [이상진 디렉터의 캘리문화] (6) 첩첩석중(疊疊石中) 아르코미술관, 대만과 한국-대만 비디오 교류 프로그램 개최 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 (04050) 서울특별시 마포구 양화로 156 (LG팰리스빌딩) 1727 대표전화 : 0269593256 팩스 : 023221666 법인명 : (주)엠에이치앤미디어 제호 : 문화뉴스 등록번호 : 서울 아 03015 등록일 : 2014-02-18 발행일 : 2014-02-18 발행·편집인 : 주진노 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.고충처리인 권혁재 02-6959-3256 press@mhns.co.kr Copyright © 2022 문화뉴스. All rights reserved. mail to eveleva@naver.com 위로 전체메뉴 전체기사 문화 전체 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 전체 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 전체 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 전체 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 전체 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 전체 인터뷰 오피니언 전체 기고·칼럼 리뷰 포토 보도자료 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>국민의당 "제주도, 日관광객 유치 과감하게 추진하라" - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 국민의당 "제주도, 日관광객 유치 과감하게 추진하라" 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 국민의당 "제주도, 日관광객 유치 과감하게 추진하라" 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2017.09.03 12:30 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 국민의당 제주도당은 최근 티웨이 항공이 도쿄와 제주 직항노선을 신규 취항한 것에 대해 3일 환영 입장을 밝히며 "제주도정은 일본인 관광객 유치를 과감하게 추진하라"고 요구했다.국민의당은 "이번 일본 직항노선 신규 취항은 감소세의 외국인 관광객을 증가세로 바꿀 수 있는 중요한 기반이 될 것이라 평가된다"면서 "직항노선 신규취항을 위해 노력한 외국인관광객 유치 여행사, 티웨이항공사 임직원 , 제주관광공사와 도청의 관계자분 등에게 깊은 성원과 지지를 보낸다"고 밝혔다.이어 "올해 수년 째 줄기만 하던 제주 방문 일본인 관광객이 5년 만에 증가세로 전환됐다"면서 "지난 2012년 이후 엔화가치 하락, 한일 관계 악화 등의 요인으로 제주방문 일본인 관광객은 지속적으로 감소해 온 점을 고려할 때, 외국인 관광객 유치 정책과 관련해 매우 고무적인 현상"이라고 강조했다.국민의당은 "이러한 일본인 관광객 증가 흐름이 생겨가는 시점에서, 제주도정은 좀 더 과감하게 일본인 관광객 유치 정책을 추진해야 한다"면서 "'전세기인센티브' 제도의 세밀한 점검 을 통해 의욕과 능력을 가진 여행사들에 동기부여가 형평성 있게 제대로 되고 있는지 점검하라"고 지적했다.이어 "개별관광객, 수학여행단, 단체관광객 등에 대한 타겟별 마케팅 프로그램도 좀 더 구체적으로 실행할 수 있는 방안을 마련해야 할 것"이라며 "다른 지자체에서 시행하는 일본인 관광객 유치 프로그램도 눈여겨 살펴야 한다"고 당부했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 각종 개발호재와 관광산업 추진, ‘제주신항 코아루 디펠리체’ 기대 상승 - 인천일보 × 전체기사 정치 전체 정치종합 인천 경기 지방자치 자치의정 6·1 지방선거 지방선거 경제 전체 경제종합 인천 경기 공항·항만 산업·증권 부동산 사회 전체 사회종합 인천 경기 교육 사건·사고 문화 전체 문화종합 예술·예술인 전시·공연 책과사람 오늘의 운세 스포츠 전체 스포츠 종합 야구 축구 농구 배구 기획특집 전체 기획 특집 뉴스 인사이드 시민편집위원회 인터뷰 금요초대석 인천일보 평화연구원 포토뉴스 전체 사회포토 정치포토 6·1 지방선거 오피니언 전체 사설 기고 썰물밀물 편집국칼럼 현장에서 오늘 인천 만평 지역뉴스 전체 지역종합 경기북부 경기서부 경기중부 경기남부 경기동부 사람들 전체 인천사람들 경기사람들 새얼굴 결혼 부고 본사손님 생활정보 이슈·문화 잇츠뉴스 전체 잇츠스페셜 잇츠연구소 빽투더인천 놀터뷰 카드뉴스 영상뉴스 비주얼뉴스 인천일보TV 전체 종합 100초 브리핑 인천일보PICK 너무궁금해서 사건사고 오늘의 현장 시민기자 연예 전체 국내연예일반 방송 영화 음반 해외연예 알림 전체 인천일보 인사 인사 사고 정정 게시판 개업 UPDATED. 2022-10-11 11:29 (화) 지면보기 인천일보아카데미 홈 로그인 회원가입 모바일웹 기사제보 전체메뉴 버튼 뉴스 정치 정치종합 인천 경기 지방자치 자치의정 사회 사회종합 인천 경기 교육 사건사고 경제 경제종합 인천 경기 공항·항만 산업·증권 문화 문화종합 예술·예술인 전시·공연 책과사람 오늘의운세 스포츠 스포츠종합 야구 축구 농구 배구 포토뉴스 사회포토 정치포토 기획특집 기획 특집 뉴스 인사이드 新 고려도경 금요초대석 인천일보 평화연구원 시민편집위원회 기획특집 모아보기 오피니언 사설 기고 썰물밀물 편집국칼럼 현장에서 만평 지역뉴스 경기북부 경기서부 경기중부 경기남부 경기동부 지역종합 사람들 인천사람들 경기사람들 새얼굴 결혼 부고 잇츠뉴스 잇츠스페셜 잇츠연구소 빽투더인천 카드뉴스 영상뉴스 인터랙티브 뉴스 인천일보TV 종합 100초 브리핑 인천일보PICK 너무궁금해서 사건사고 오늘의 현장 시민기자 검색버튼 기사검색 검색 제주도 각종 개발호재와 관광산업 추진, ‘제주신항 코아루 디펠리체’ 기대 상승 기사공유하기 프린트 메일보내기 본문 글씨 키우기 본문 글씨 줄이기 홈 사람들 경기사람들 제주도 각종 개발호재와 관광산업 추진, ‘제주신항 코아루 디펠리체’ 기대 상승 유지형 승인 2017.09.01 10:38 수정 2017.09.01 10:38 댓글 0 SNS 기사보내기 페이스북 트위터 카카오톡 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 프린트 본문 글씨 키우기 본문 글씨 줄이기 이 기사를 공유합니다 페이스북 트위터 카카오톡 URL복사 × 제2공항, 헬스케어타운 등 각종 대형개발사업 추진으로 높은 미래가치 8.2 규제 미적용 지역으로 수요자 및 투자자들 관심도 증가 제주도는 현재 인구 유입을 주도하는 혁신도시 개발이 진행되고 있는 지역이다. 복합리조트, 영어교육도시, 신화역사공원 가족테마파크 등 다양한 관광 및 교육사업 개발에 박차를 가하고 있으며, 외국계 영리병원이 들어오는 헬스케어 타운과 서귀포 관광미항 등이 조성될 예정에 있어 연간 관광객 또한 증가하고 있다. 이러한 추세에 따라 제주도 일대 아파트 및 오피스텔에도 많은 관심이 쏠리고 있다. 현지 부동산 관계자들은 긍정적인 전망을 내비치고 있다. 대형개발호재를 비롯해 각종 관광산업 육성 사업 추진을 통해 제주도 내 아파트값과 오피스텔 값은 더욱 상승할 것이라는 예측이 오가고 있다.거기에 새정부가 부동산 시장 안정화를 위해 실시한 고강도 8.2부동산 대책에 서울 전지역과 경기도 과천, 세종시를 투기과열지구로 지정해 규제가 이루어진 반면, 제주도는 규제지역에 해당되지 않아 투자자들에게 많은 관심을 사고 있다.8.2 대책 지정지역의 경우 주택거래, 청약, 대출 등 14개에 달하는 규제가 일괄 적용되며, 주택담보대출비율과 총부채상환비율도 각각 40%까지 강화되고 최장 5년간 분양권이 전매 금지되기 때문에 규제를 받지 않는 제주도 지역이 풍선효과로 인한 반사이익을 볼 것으로 기대되고 있는 것이다.특히, 오피스텔 인기가 돋보인다. 단순 업무공간이 아닌 주거공간으로 이용되어 실수요자들의 새로운 주거형태로 각광받고 있으며 제주 내 사업활동 기간 동안 머물 수 있는 비즈니스 공간으로도 이용되고 있다.이러한 가운데 한국토지신탁이 중소형 오피스텔 ‘제주신항 코아루 디펠리체’를 제주시일도2동 일원에 공급한다.본 오피스텔은 제주 내에서도 직주근접성과 풍부한 배후수요를 확보해 입지적 특장점이 두드러지며, 지하 4층~ 지상 10층으로 총 422실이 공급된다. 전용면적 25㎡, 51㎡로 총 19개의 다양한 타입으로 구성됐으며 1실 1주차 공간을 확보해 입주민의 생활 편의를 도모한 것이 특징이다.거기에 화북공업단지 인근에 위치한 입지로 인해 풍부한 직주근접성까지 확보하고 있으며 반경 1km 이내에 5개 노선의 버스가 운행하여 인근 대학교 업무종사자와 학생들의 수요도 많을 것으로 보인다.교통편으로는 제주국제공항과 시외버스터미널을 가깝게 이용할 수 있으며, 반경 800m이내에 제주항이 위치해 도내외 이동이 수월하다. 해양관광 및 문화지구 건립을 위한 2조 4000억원 대규모 투자 사업인 제주 신항 개발(예정)로 인해 더욱 높은 미래가치를 지닐 것으로 보인다.한편, ‘제주신항 코아루 디펠리체’는 계약자 대상으로 특별혜택을 한시적으로 제공하고 있으며, 강남구 역삼동 646-20번지 2층(역삼역 4번출구)에 위치해 있는 서울홍보관 방문을 통해 자세한 사항을 확인할 수 있다./온라인뉴스팀 저작권자 © 인천일보-수도권 지역신문 열독률 1위, 무단전재 및 재배포 금지 다른기사 보기 유지형 peachecho@naver.com 인천일보TV 시사쇼 '총선 뒤풀이' 인천일보TV 시사쇼, 4·15 총선 인천 판세분석 [오늘의 경기 뉴스] 2019년 11월 6일(수) 최근댓글보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인천일보TV [잇츠브리핑] 사상초유 교원정원 감축에 커지는 교육계 반발 [잇츠브리핑] 사상초유 교원정원 감축에 커지는 교육계 반발 [잇츠브리핑] 12년 만의 통합 우승, 한국시리즈만 남았다 [잇츠브리핑] 12년 만의 통합 우승, 한국시리즈만 남았다 [잇츠브리핑] "고발 후 책상 사라져"…곪아터진 사회복지 내 갑질들 [잇츠브리핑] "고발 후 책상 사라져"…곪아터진 사회복지 내 갑질들 [잇츠브리핑] 인천, 국토부·경기와 경인고속도로 지하화 협약 [잇츠브리핑] 인천, 국토부·경기와 경인고속도로 지하화 협약 [인천에 온 이주민들] 11. 화교의 유산, 자장면과 팔괘장 [인천에 온 이주민들] 11. 화교의 유산, 자장면과 팔괘장 기획특집 [뉴스 인사이드] '광교신도시 개발이익금' 분쟁, 결국 중재심판으로 강성삼 하남시의회 의장, “초심 잃지 않는 의장 되겠다” [인천을 빛낸 중소기업협동조합인] 4. 배종국 인천자동차검사정비사업협동조합 이사장 [비극의 현장 '선감학원' 그 후] 3. 근현대사 문화재 등록 추진 '백지화' [구도 인천] 김광현 이전, 인천 마운드 지배했던 '원조 왼손 에이스' [비극의 현장 '선감학원' 그 후] 2. 경기도·안산시가 방치한 건물…정밀안전진단 D등급 [천년밥상 경기米이야기, 농쌀직썰] 제 22화 세계에서 가장 오래된 청주 소로리 볍씨 [新고려도경] 8. 인천의 보물선, 서해바다에서 발견된 난파선들 [인천 미래 가꿈 프로젝트] 초일류도시, 철저한 준비에서 시작된다 [초선에 바란다] 이철조 고양시의원 “진정한 심부름꾼 되겠다” [비극의 현장 '선감학원' 그 후] 1. 그곳에 사람이 살고 있다 [디아스포라 인천] ⑪화교의 유산, 자장면과 팔괘장 [카드뉴스]유정복 인천시장, 민선8기 출범 100일 비전 선포 [카드뉴스]유정복 인천시장, 민선8기 출범 100일 비전 선포 [카드뉴스]경기도 지자체, 자립준비청년 홀로서기 지원 [카드뉴스]경기도 지자체, 자립준비청년 홀로서기 지원 [잇츠레터]배후설 나오자 입 연 윤 "시간적 여유 없다" [잇츠레터]배후설 나오자 입 연 윤 "시간적 여유 없다" [카드뉴스]경기도 기간제 일자리 찾기, '잡아바 어플라이' [카드뉴스]경기도 기간제 일자리 찾기, '잡아바 어플라이' [잇츠레터]한밤중 불길·폭발…"군부대 쪽이라 전쟁 난 줄" [잇츠레터]한밤중 불길·폭발…"군부대 쪽이라 전쟁 난 줄" 많이 본 뉴스 오늘 주간 월간 1수억 원 썼지만 ‘텅 빈 자리’…포천축제 개선 시급 2수원발 KTX·7호선 연장선 정시 개통 '물거품' 3인천공항공사 '4→3급 특별승진' 뒷말 무성 4인천‧수원발 KTX 2025년 개통 무산, 빨라야 2027년부터 운행 5“상가주택 짓고 있는데…가로주택 정비 조합 동의하라고요?” 63년 만에 열린 대한민국 막걸리축제 인산인해...세계무형문화 등재 속도 7유정복 시장, 대통령 만나 제물포 르네상스 등 핵심 공약 지원 요청 8하나님의 교회, 시흥과 은평서 헌당기념예배 개최 9몸집 줄인 '인천도서관' 인천시의회 심의 앞둬 10[뉴스 인사이드] '광교신도시 개발이익금' 분쟁, 결국 중재심판으로 1암초 만난 '제2경인선 광역철도 사업'…인천시, 돌파구 '부심' 2"무식한 소리" 메시지 파장…윤 대통령 입 열었다 3"전쟁 난 줄" "비행기 추락했나" 밤새 공포에 떤 시민들 4한국시리즈 직행 SSG, 12년만에 '통합우승' 노린다 5수억 원 썼지만 ‘텅 빈 자리’…포천축제 개선 시급 6[구도 인천] 김광현 이전, 인천 마운드 지배했던 '원조 왼손 에이스' 7[비극의 현장 '선감학원' 그 후] 3. 근현대사 문화재 등록 추진 '백지화' 8'농촌빈집 증가' 가팔라…철거비 연 수억 9전기차 60대 동시충전…송도국제도시에 메가와티 등장 10수원발 KTX·7호선 연장선 정시 개통 '물거품' 1'80만원 당첨' 복권 들고 간 남성이 들은 뜻밖의 말 2소래포구축제, 4년만에 열린다…박창근·김동현·이솔로몬 축하공연 3“점포 안에 나무만한 기둥이…” 미추홀구 신축 상가 수분양자들 분통 4젊은 활기 떠나고 13년째 적막만…인천대 제물포캠 슬럼화 5[단독] 전기요금 못 낸 양주한국병원, 16일 전기 공급 중단 6순방 후 첫 출근, 윤 대통령에 '비속어 논란' 묻자… 7암초 만난 '제2경인선 광역철도 사업'…인천시, 돌파구 '부심' 8[영종, 차별의 섬에서 기회의 땅으로] 개발이 할퀸 영종, 다시 '희망의 땅'으로 9송도 세브란스-배곧 서울대병원, 진검승부 '예고' 10한국지엠 부평공장, '전기차 생산 유치' 가능성 커졌다 포토뉴스 [포토] 가을 추위 [포토] 가을 추위 [포토] 한글날 걸린 태극기 파손 [포토] 한글날 걸린 태극기 파손 [포토] 고사리손으로 만든 월병 [포토] 고사리손으로 만든 월병 [포토] 타이완 건국 기념일 '신나는 사자춤' [포토] 타이완 건국 기념일 '신나는 사자춤' [포토] 이민 120주년 흔적을 엿보다 [포토] 이민 120주년 흔적을 엿보다 [포토] 송도에 모인 세계 한인회장들…“우리는 누구이며 어디로 가나” [포토] 송도에 모인 세계 한인회장들…“우리는 누구이며 어디로 가나” [포토] 넋놓고 푹빠진 오산 독산성 문화제 [포토] 넋놓고 푹빠진 오산 독산성 문화제 [포토] 쌍십절 앞둔 차이나타운 '붉은 물결' [포토] 쌍십절 앞둔 차이나타운 '붉은 물결' [포토] 부평구 채용박람회…내 일자리는 [포토] 부평구 채용박람회…내 일자리는 [포토] 가을 추위 [포토] 한글날 걸린 태극기 파손 [포토] 고사리손으로 만든 월병 [포토] 타이완 건국 기념일 '신나는 사자춤' [포토] 이민 120주년 흔적을 엿보다 [포토] 송도에 모인 세계 한인회장들…“우리는 누구이며 어디로 가나” [포토] 넋놓고 푹빠진 오산 독산성 문화제 [포토] 쌍십절 앞둔 차이나타운 '붉은 물결' [포토] 부평구 채용박람회…내 일자리는 기획특집 뉴스 인사이드 [뉴스 인사이드] '광교신도시 개발이익금' 분쟁, 결국 중재심판으로 2022.10.10 인터뷰 강성삼 하남시의회 의장, “초심 잃지 않는 의장 되겠다” 2022.10.10 기획 [인천을 빛낸 중소기업협동조합인] 4. 배종국 인천자동차검사정비사업협동조합 이사장 2022.10.10 기획 [비극의 현장 '선감학원' 그 후] 3. 근현대사 문화재 등록 추진 '백지화' 2022.10.05 구도 인천(球都 仁川) [구도 인천] 김광현 이전, 인천 마운드 지배했던 '원조 왼손 에이스' 2022.10.05 기획 [비극의 현장 '선감학원' 그 후] 2. 경기도·안산시가 방치한 건물…정밀안전진단 D등급 2022.10.04 천년밥상, 경기米이야기 [천년밥상 경기米이야기, 농쌀직썰] 제 22화 세계에서 가장 오래된 청주 소로리 볍씨 2022.10.04 新 고려도경 [新고려도경] 8. 인천의 보물선, 서해바다에서 발견된 난파선들 2022.10.04 법인명 (주)인천일보 본사 (22313) 인천광역시 중구 인중로 226 (옛 항동4가 18-1) 대표전화 032-4520-114 팩스 032-4520-113 경기본사 수원시 팔달구 효원로 119 청궁빌딩 5층(옛 결혼회관) 대표전화 031-232-2288 팩스 031-232-2260 제호 : 인천일보 등록번호 : 인천 아01330 등록일 : 2018-01-26 발행·편집인 : 김영환 청소년보호책임자 : 김도현 인천일보 모든 콘텐츠(기사, 사진, 영상)는 저작권법의 보호를 받습니다.무단 전재, 복사, 배포를 금합니다. Copyright © 1988-2022 인천일보. All rights reserved. mail to webmaster@incheonilbo.com 인트라넷 CMS 회사소개 광고문의 제휴문의 구독신청 소외계층 구독지원 신청 독자투고 고충처리 윤리강령 개인정보처리방침 청소년보호정책 불편신고 저작권문의 시민편집위원회 기사제보 위로</t>
   </si>
 </sst>
 </file>
@@ -437,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,7 +663,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -470,7 +674,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -481,7 +685,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -492,7 +696,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -503,7 +707,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -514,7 +718,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -525,7 +729,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -536,7 +740,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -547,7 +751,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -558,7 +762,447 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
